--- a/BackTest/2019-10-19 BackTest BTG.xlsx
+++ b/BackTest/2019-10-19 BackTest BTG.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>85</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L12" t="n">
         <v>9174.5</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>90</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-25</v>
+      </c>
       <c r="L13" t="n">
         <v>9173.5</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>90</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-25</v>
+      </c>
       <c r="L14" t="n">
         <v>9172.5</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>105</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-45.45454545454545</v>
+      </c>
       <c r="L15" t="n">
         <v>9170</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>110</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-45.45454545454545</v>
+      </c>
       <c r="L16" t="n">
         <v>9168</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>115</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-45.45454545454545</v>
+      </c>
       <c r="L17" t="n">
         <v>9165</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>125</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-50</v>
+      </c>
       <c r="L18" t="n">
         <v>9161.5</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>125</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-80</v>
+      </c>
       <c r="L19" t="n">
         <v>9158.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>125</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-75</v>
+      </c>
       <c r="L20" t="n">
         <v>9154.5</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>125</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-75</v>
+      </c>
       <c r="L21" t="n">
         <v>9151.5</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>130</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-50</v>
+      </c>
       <c r="L22" t="n">
         <v>9149</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>140</v>
       </c>
       <c r="K23" t="n">
-        <v>-44.44444444444444</v>
+        <v>-60</v>
       </c>
       <c r="L23" t="n">
         <v>9146</v>
@@ -1466,7 +1488,7 @@
         <v>140</v>
       </c>
       <c r="K24" t="n">
-        <v>-44.44444444444444</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L24" t="n">
         <v>9143</v>
@@ -1515,7 +1537,7 @@
         <v>140</v>
       </c>
       <c r="K25" t="n">
-        <v>-44.44444444444444</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L25" t="n">
         <v>9141.5</v>
@@ -1564,7 +1586,7 @@
         <v>145</v>
       </c>
       <c r="K26" t="n">
-        <v>-47.36842105263158</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L26" t="n">
         <v>9139</v>
@@ -1613,7 +1635,7 @@
         <v>145</v>
       </c>
       <c r="K27" t="n">
-        <v>-55.55555555555556</v>
+        <v>-50</v>
       </c>
       <c r="L27" t="n">
         <v>9137</v>
@@ -1662,7 +1684,7 @@
         <v>145</v>
       </c>
       <c r="K28" t="n">
-        <v>-52.94117647058824</v>
+        <v>-50</v>
       </c>
       <c r="L28" t="n">
         <v>9136</v>
@@ -1711,7 +1733,7 @@
         <v>155</v>
       </c>
       <c r="K29" t="n">
-        <v>-55.55555555555556</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L29" t="n">
         <v>9134</v>
@@ -1760,7 +1782,7 @@
         <v>155</v>
       </c>
       <c r="K30" t="n">
-        <v>-75</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L30" t="n">
         <v>9132</v>
@@ -1809,7 +1831,7 @@
         <v>155</v>
       </c>
       <c r="K31" t="n">
-        <v>-71.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L31" t="n">
         <v>9130</v>
@@ -1860,7 +1882,7 @@
         <v>380</v>
       </c>
       <c r="K32" t="n">
-        <v>59.32203389830508</v>
+        <v>87.5</v>
       </c>
       <c r="L32" t="n">
         <v>9150</v>
@@ -1911,7 +1933,7 @@
         <v>600</v>
       </c>
       <c r="K33" t="n">
-        <v>-7.84313725490196</v>
+        <v>-2.173913043478261</v>
       </c>
       <c r="L33" t="n">
         <v>9149</v>
@@ -1962,7 +1984,7 @@
         <v>600</v>
       </c>
       <c r="K34" t="n">
-        <v>-7.84313725490196</v>
+        <v>-2.173913043478261</v>
       </c>
       <c r="L34" t="n">
         <v>9148</v>
@@ -2013,7 +2035,7 @@
         <v>605</v>
       </c>
       <c r="K35" t="n">
-        <v>-6</v>
+        <v>-2.173913043478261</v>
       </c>
       <c r="L35" t="n">
         <v>9146.5</v>
@@ -2064,7 +2086,7 @@
         <v>695</v>
       </c>
       <c r="K36" t="n">
-        <v>9.401709401709402</v>
+        <v>14.54545454545454</v>
       </c>
       <c r="L36" t="n">
         <v>9154.5</v>
@@ -2115,7 +2137,7 @@
         <v>795</v>
       </c>
       <c r="K37" t="n">
-        <v>-5.88235294117647</v>
+        <v>-3.076923076923077</v>
       </c>
       <c r="L37" t="n">
         <v>9152.5</v>
@@ -2166,7 +2188,7 @@
         <v>795</v>
       </c>
       <c r="K38" t="n">
-        <v>-4.477611940298507</v>
+        <v>-1.5625</v>
       </c>
       <c r="L38" t="n">
         <v>9150.5</v>
@@ -2217,7 +2239,7 @@
         <v>800</v>
       </c>
       <c r="K39" t="n">
-        <v>-5.185185185185185</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L39" t="n">
         <v>9149</v>
@@ -2268,7 +2290,7 @@
         <v>805</v>
       </c>
       <c r="K40" t="n">
-        <v>-5.88235294117647</v>
+        <v>-3.076923076923077</v>
       </c>
       <c r="L40" t="n">
         <v>9147</v>
@@ -2319,7 +2341,7 @@
         <v>880</v>
       </c>
       <c r="K41" t="n">
-        <v>4.635761589403973</v>
+        <v>-34</v>
       </c>
       <c r="L41" t="n">
         <v>9152.5</v>
@@ -2370,7 +2392,7 @@
         <v>910</v>
       </c>
       <c r="K42" t="n">
-        <v>7.692307692307693</v>
+        <v>25.80645161290322</v>
       </c>
       <c r="L42" t="n">
         <v>9138.5</v>
@@ -2421,7 +2443,7 @@
         <v>925</v>
       </c>
       <c r="K43" t="n">
-        <v>10.82802547770701</v>
+        <v>29.23076923076923</v>
       </c>
       <c r="L43" t="n">
         <v>9148</v>
@@ -2472,7 +2494,7 @@
         <v>955</v>
       </c>
       <c r="K44" t="n">
-        <v>6.748466257668712</v>
+        <v>20</v>
       </c>
       <c r="L44" t="n">
         <v>9154.5</v>
@@ -2523,7 +2545,7 @@
         <v>1020</v>
       </c>
       <c r="K45" t="n">
-        <v>13.63636363636363</v>
+        <v>13.84615384615385</v>
       </c>
       <c r="L45" t="n">
         <v>9168</v>
@@ -2574,7 +2596,7 @@
         <v>1075</v>
       </c>
       <c r="K46" t="n">
-        <v>19.35483870967742</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L46" t="n">
         <v>9178</v>
@@ -2625,7 +2647,7 @@
         <v>1190</v>
       </c>
       <c r="K47" t="n">
-        <v>6.220095693779904</v>
+        <v>21.51898734177215</v>
       </c>
       <c r="L47" t="n">
         <v>9186.5</v>
@@ -2676,7 +2698,7 @@
         <v>1270</v>
       </c>
       <c r="K48" t="n">
-        <v>-1.333333333333333</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="L48" t="n">
         <v>9187</v>
@@ -2727,7 +2749,7 @@
         <v>1385</v>
       </c>
       <c r="K49" t="n">
-        <v>8.943089430894309</v>
+        <v>22.41379310344828</v>
       </c>
       <c r="L49" t="n">
         <v>9199.5</v>
@@ -2778,7 +2800,7 @@
         <v>1390</v>
       </c>
       <c r="K50" t="n">
-        <v>9.311740890688259</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L50" t="n">
         <v>9213</v>
@@ -2829,7 +2851,7 @@
         <v>1480</v>
       </c>
       <c r="K51" t="n">
-        <v>15.47169811320755</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="L51" t="n">
         <v>9228</v>
@@ -2880,7 +2902,7 @@
         <v>1665</v>
       </c>
       <c r="K52" t="n">
-        <v>-15.95330739299611</v>
+        <v>-10.81081081081081</v>
       </c>
       <c r="L52" t="n">
         <v>9221.5</v>
@@ -2931,7 +2953,7 @@
         <v>1695</v>
       </c>
       <c r="K53" t="n">
-        <v>4.10958904109589</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L53" t="n">
         <v>9216.5</v>
@@ -2982,7 +3004,7 @@
         <v>1800</v>
       </c>
       <c r="K54" t="n">
-        <v>12.5</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L54" t="n">
         <v>9225</v>
@@ -3033,7 +3055,7 @@
         <v>1825</v>
       </c>
       <c r="K55" t="n">
-        <v>14.75409836065574</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="L55" t="n">
         <v>9229.5</v>
@@ -3084,7 +3106,7 @@
         <v>1860</v>
       </c>
       <c r="K56" t="n">
-        <v>4.721030042918455</v>
+        <v>10.44776119402985</v>
       </c>
       <c r="L56" t="n">
         <v>9225</v>
@@ -3135,7 +3157,7 @@
         <v>1900</v>
       </c>
       <c r="K57" t="n">
-        <v>17.64705882352941</v>
+        <v>30.15873015873016</v>
       </c>
       <c r="L57" t="n">
         <v>9236</v>
@@ -3186,7 +3208,7 @@
         <v>1900</v>
       </c>
       <c r="K58" t="n">
-        <v>17.64705882352941</v>
+        <v>14.5631067961165</v>
       </c>
       <c r="L58" t="n">
         <v>9255</v>
@@ -3237,7 +3259,7 @@
         <v>1920</v>
       </c>
       <c r="K59" t="n">
-        <v>16.07142857142857</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="L59" t="n">
         <v>9260.5</v>
@@ -3288,7 +3310,7 @@
         <v>1925</v>
       </c>
       <c r="K60" t="n">
-        <v>16.07142857142857</v>
+        <v>-10.1123595505618</v>
       </c>
       <c r="L60" t="n">
         <v>9265</v>
@@ -3339,7 +3361,7 @@
         <v>2050</v>
       </c>
       <c r="K61" t="n">
-        <v>-1.70940170940171</v>
+        <v>3.896103896103896</v>
       </c>
       <c r="L61" t="n">
         <v>9248</v>
@@ -3390,7 +3412,7 @@
         <v>2070</v>
       </c>
       <c r="K62" t="n">
-        <v>-2.586206896551724</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="L62" t="n">
         <v>9251.5</v>
@@ -3441,7 +3463,7 @@
         <v>2215</v>
       </c>
       <c r="K63" t="n">
-        <v>7.751937984496124</v>
+        <v>10.8433734939759</v>
       </c>
       <c r="L63" t="n">
         <v>9266.5</v>
@@ -3492,7 +3514,7 @@
         <v>2310</v>
       </c>
       <c r="K64" t="n">
-        <v>2.583025830258303</v>
+        <v>-15.4639175257732</v>
       </c>
       <c r="L64" t="n">
         <v>9261.5</v>
@@ -3543,7 +3565,7 @@
         <v>2335</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.3802281368821293</v>
+        <v>-3.157894736842105</v>
       </c>
       <c r="L65" t="n">
         <v>9256.5</v>
@@ -3594,7 +3616,7 @@
         <v>2355</v>
       </c>
       <c r="K66" t="n">
-        <v>-6.25</v>
+        <v>-16.48351648351648</v>
       </c>
       <c r="L66" t="n">
         <v>9253</v>
@@ -3645,7 +3667,7 @@
         <v>2355</v>
       </c>
       <c r="K67" t="n">
-        <v>3.004291845493562</v>
+        <v>-16.48351648351648</v>
       </c>
       <c r="L67" t="n">
         <v>9245.5</v>
@@ -3696,7 +3718,7 @@
         <v>2365</v>
       </c>
       <c r="K68" t="n">
-        <v>11.41552511415525</v>
+        <v>-10.1123595505618</v>
       </c>
       <c r="L68" t="n">
         <v>9239</v>
@@ -3747,7 +3769,7 @@
         <v>2375</v>
       </c>
       <c r="K69" t="n">
-        <v>2.02020202020202</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L69" t="n">
         <v>9235.5</v>
@@ -3798,7 +3820,7 @@
         <v>2385</v>
       </c>
       <c r="K70" t="n">
-        <v>2.512562814070352</v>
+        <v>31.34328358208955</v>
       </c>
       <c r="L70" t="n">
         <v>9233.5</v>
@@ -3849,7 +3871,7 @@
         <v>2390</v>
       </c>
       <c r="K71" t="n">
-        <v>-6.593406593406594</v>
+        <v>28.125</v>
       </c>
       <c r="L71" t="n">
         <v>9244.5</v>
@@ -3900,7 +3922,7 @@
         <v>2455</v>
       </c>
       <c r="K72" t="n">
-        <v>7.59493670886076</v>
+        <v>-50</v>
       </c>
       <c r="L72" t="n">
         <v>9247</v>
@@ -3951,7 +3973,7 @@
         <v>2505</v>
       </c>
       <c r="K73" t="n">
-        <v>9.876543209876543</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L73" t="n">
         <v>9240</v>
@@ -4002,7 +4024,7 @@
         <v>2510</v>
       </c>
       <c r="K74" t="n">
-        <v>-2.816901408450704</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L74" t="n">
         <v>9243</v>
@@ -4053,7 +4075,7 @@
         <v>2525</v>
       </c>
       <c r="K75" t="n">
-        <v>-4.285714285714286</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L75" t="n">
         <v>9245</v>
@@ -4104,7 +4126,7 @@
         <v>2525</v>
       </c>
       <c r="K76" t="n">
-        <v>0.7518796992481203</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L76" t="n">
         <v>9249</v>
@@ -4155,7 +4177,7 @@
         <v>2530</v>
       </c>
       <c r="K77" t="n">
-        <v>-6.349206349206349</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L77" t="n">
         <v>9252.5</v>
@@ -4206,7 +4228,7 @@
         <v>2610</v>
       </c>
       <c r="K78" t="n">
-        <v>-16.90140845070422</v>
+        <v>-27.65957446808511</v>
       </c>
       <c r="L78" t="n">
         <v>9247</v>
@@ -4257,7 +4279,7 @@
         <v>2645</v>
       </c>
       <c r="K79" t="n">
-        <v>-18.62068965517242</v>
+        <v>-42.30769230769231</v>
       </c>
       <c r="L79" t="n">
         <v>9237</v>
@@ -4308,7 +4330,7 @@
         <v>2650</v>
       </c>
       <c r="K80" t="n">
-        <v>-17.24137931034483</v>
+        <v>-42.30769230769231</v>
       </c>
       <c r="L80" t="n">
         <v>9226.5</v>
@@ -4359,7 +4381,7 @@
         <v>2650</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L81" t="n">
         <v>9215.5</v>
@@ -4410,7 +4432,7 @@
         <v>2655</v>
       </c>
       <c r="K82" t="n">
-        <v>-2.564102564102564</v>
+        <v>-60</v>
       </c>
       <c r="L82" t="n">
         <v>9211.5</v>
@@ -4461,7 +4483,7 @@
         <v>2710</v>
       </c>
       <c r="K83" t="n">
-        <v>-21.21212121212121</v>
+        <v>-20</v>
       </c>
       <c r="L83" t="n">
         <v>9208</v>
@@ -4512,7 +4534,7 @@
         <v>2765</v>
       </c>
       <c r="K84" t="n">
-        <v>9.890109890109891</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>9209.5</v>
@@ -4563,7 +4585,7 @@
         <v>2765</v>
       </c>
       <c r="K85" t="n">
-        <v>4.651162790697675</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>9209.5</v>
@@ -4614,7 +4636,7 @@
         <v>2765</v>
       </c>
       <c r="K86" t="n">
-        <v>9.75609756097561</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="L86" t="n">
         <v>9209.5</v>
@@ -4665,7 +4687,7 @@
         <v>2805</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L87" t="n">
         <v>9206</v>
@@ -4716,7 +4738,7 @@
         <v>2820</v>
       </c>
       <c r="K88" t="n">
-        <v>-5.494505494505495</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="L88" t="n">
         <v>9209</v>
@@ -4767,7 +4789,7 @@
         <v>2850</v>
       </c>
       <c r="K89" t="n">
-        <v>-13.68421052631579</v>
+        <v>15</v>
       </c>
       <c r="L89" t="n">
         <v>9212.5</v>
@@ -4818,7 +4840,7 @@
         <v>3040</v>
       </c>
       <c r="K90" t="n">
-        <v>17.55725190839695</v>
+        <v>56.41025641025641</v>
       </c>
       <c r="L90" t="n">
         <v>9234.5</v>
@@ -4869,7 +4891,7 @@
         <v>3185</v>
       </c>
       <c r="K91" t="n">
-        <v>-4.40251572327044</v>
+        <v>13.20754716981132</v>
       </c>
       <c r="L91" t="n">
         <v>9242</v>
@@ -4920,7 +4942,7 @@
         <v>3195</v>
       </c>
       <c r="K92" t="n">
-        <v>5.405405405405405</v>
+        <v>5.154639175257731</v>
       </c>
       <c r="L92" t="n">
         <v>9250</v>
@@ -4971,7 +4993,7 @@
         <v>3195</v>
       </c>
       <c r="K93" t="n">
-        <v>-1.449275362318841</v>
+        <v>-6.976744186046512</v>
       </c>
       <c r="L93" t="n">
         <v>9252.5</v>
@@ -5022,7 +5044,7 @@
         <v>3200</v>
       </c>
       <c r="K94" t="n">
-        <v>-1.449275362318841</v>
+        <v>-5.747126436781609</v>
       </c>
       <c r="L94" t="n">
         <v>9250</v>
@@ -5073,7 +5095,7 @@
         <v>3285</v>
       </c>
       <c r="K95" t="n">
-        <v>7.894736842105263</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="L95" t="n">
         <v>9256</v>
@@ -5124,7 +5146,7 @@
         <v>3375</v>
       </c>
       <c r="K96" t="n">
-        <v>-3.529411764705882</v>
+        <v>1.754385964912281</v>
       </c>
       <c r="L96" t="n">
         <v>9253</v>
@@ -5175,7 +5197,7 @@
         <v>3375</v>
       </c>
       <c r="K97" t="n">
-        <v>-2.958579881656805</v>
+        <v>4.504504504504505</v>
       </c>
       <c r="L97" t="n">
         <v>9254</v>
@@ -5226,7 +5248,7 @@
         <v>3515</v>
       </c>
       <c r="K98" t="n">
-        <v>-9.392265193370166</v>
+        <v>-12.78195488721804</v>
       </c>
       <c r="L98" t="n">
         <v>9242.5</v>
@@ -5277,7 +5299,7 @@
         <v>3515</v>
       </c>
       <c r="K99" t="n">
-        <v>-5.747126436781609</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L99" t="n">
         <v>9234</v>
@@ -5328,7 +5350,7 @@
         <v>3580</v>
       </c>
       <c r="K100" t="n">
-        <v>1.075268817204301</v>
+        <v>-16.45569620253164</v>
       </c>
       <c r="L100" t="n">
         <v>9213</v>
@@ -5379,7 +5401,7 @@
         <v>3615</v>
       </c>
       <c r="K101" t="n">
-        <v>4.66321243523316</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L101" t="n">
         <v>9210</v>
@@ -5430,7 +5452,7 @@
         <v>3740</v>
       </c>
       <c r="K102" t="n">
-        <v>15.2073732718894</v>
+        <v>15.59633027522936</v>
       </c>
       <c r="L102" t="n">
         <v>9218.5</v>
@@ -5481,7 +5503,7 @@
         <v>3850</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>-4.615384615384616</v>
       </c>
       <c r="L103" t="n">
         <v>9216</v>
@@ -5532,7 +5554,7 @@
         <v>3850</v>
       </c>
       <c r="K104" t="n">
-        <v>-5.069124423963133</v>
+        <v>-20.35398230088496</v>
       </c>
       <c r="L104" t="n">
         <v>9213</v>
@@ -5583,7 +5605,7 @@
         <v>3850</v>
       </c>
       <c r="K105" t="n">
-        <v>-5.069124423963133</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L105" t="n">
         <v>9201.5</v>
@@ -5634,7 +5656,7 @@
         <v>3860</v>
       </c>
       <c r="K106" t="n">
-        <v>-4.10958904109589</v>
+        <v>-3.092783505154639</v>
       </c>
       <c r="L106" t="n">
         <v>9200</v>
@@ -5685,7 +5707,7 @@
         <v>3905</v>
       </c>
       <c r="K107" t="n">
-        <v>3.636363636363636</v>
+        <v>43.58974358974359</v>
       </c>
       <c r="L107" t="n">
         <v>9203</v>
@@ -5736,7 +5758,7 @@
         <v>3905</v>
       </c>
       <c r="K108" t="n">
-        <v>5.069124423963133</v>
+        <v>43.58974358974359</v>
       </c>
       <c r="L108" t="n">
         <v>9220</v>
@@ -5787,7 +5809,7 @@
         <v>3930</v>
       </c>
       <c r="K109" t="n">
-        <v>5.555555555555555</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="L109" t="n">
         <v>9234.5</v>
@@ -5838,7 +5860,7 @@
         <v>4010</v>
       </c>
       <c r="K110" t="n">
-        <v>-21.64948453608248</v>
+        <v>-8.860759493670885</v>
       </c>
       <c r="L110" t="n">
         <v>9234.5</v>
@@ -5889,7 +5911,7 @@
         <v>4040</v>
       </c>
       <c r="K111" t="n">
-        <v>-4.093567251461988</v>
+        <v>-43.33333333333334</v>
       </c>
       <c r="L111" t="n">
         <v>9234</v>
@@ -5940,7 +5962,7 @@
         <v>4060</v>
       </c>
       <c r="K112" t="n">
-        <v>-2.890173410404624</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>9223</v>
@@ -5991,7 +6013,7 @@
         <v>4095</v>
       </c>
       <c r="K113" t="n">
-        <v>1.111111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L113" t="n">
         <v>9226.5</v>
@@ -6042,7 +6064,7 @@
         <v>4145</v>
       </c>
       <c r="K114" t="n">
-        <v>-4.761904761904762</v>
+        <v>-5.084745762711865</v>
       </c>
       <c r="L114" t="n">
         <v>9225</v>
@@ -6093,7 +6115,7 @@
         <v>4180</v>
       </c>
       <c r="K115" t="n">
-        <v>-18.43575418994413</v>
+        <v>-18.75</v>
       </c>
       <c r="L115" t="n">
         <v>9220</v>
@@ -6144,7 +6166,7 @@
         <v>4180</v>
       </c>
       <c r="K116" t="n">
-        <v>-9.316770186335404</v>
+        <v>-38.18181818181819</v>
       </c>
       <c r="L116" t="n">
         <v>9214</v>
@@ -6195,7 +6217,7 @@
         <v>4265</v>
       </c>
       <c r="K117" t="n">
-        <v>-17.97752808988764</v>
+        <v>-52.77777777777778</v>
       </c>
       <c r="L117" t="n">
         <v>9195</v>
@@ -6246,7 +6268,7 @@
         <v>4290</v>
       </c>
       <c r="K118" t="n">
-        <v>0.6451612903225806</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L118" t="n">
         <v>9178.5</v>
@@ -6297,7 +6319,7 @@
         <v>4295</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>-22.80701754385965</v>
       </c>
       <c r="L119" t="n">
         <v>9164</v>
@@ -6348,7 +6370,7 @@
         <v>4330</v>
       </c>
       <c r="K120" t="n">
-        <v>-4</v>
+        <v>-20.68965517241379</v>
       </c>
       <c r="L120" t="n">
         <v>9161</v>
@@ -6399,7 +6421,7 @@
         <v>4390</v>
       </c>
       <c r="K121" t="n">
-        <v>-16.12903225806452</v>
+        <v>-42.42424242424242</v>
       </c>
       <c r="L121" t="n">
         <v>9149</v>
@@ -6450,7 +6472,7 @@
         <v>4395</v>
       </c>
       <c r="K122" t="n">
-        <v>-38.93129770992366</v>
+        <v>-60</v>
       </c>
       <c r="L122" t="n">
         <v>9134.5</v>
@@ -6501,7 +6523,7 @@
         <v>4440</v>
       </c>
       <c r="K123" t="n">
-        <v>-16.94915254237288</v>
+        <v>-28.8135593220339</v>
       </c>
       <c r="L123" t="n">
         <v>9121</v>
@@ -6552,7 +6574,7 @@
         <v>4480</v>
       </c>
       <c r="K124" t="n">
-        <v>-22.22222222222222</v>
+        <v>-30</v>
       </c>
       <c r="L124" t="n">
         <v>9108.5</v>
@@ -6603,7 +6625,7 @@
         <v>4530</v>
       </c>
       <c r="K125" t="n">
-        <v>-13.23529411764706</v>
+        <v>-11.42857142857143</v>
       </c>
       <c r="L125" t="n">
         <v>9104.5</v>
@@ -6654,7 +6676,7 @@
         <v>4550</v>
       </c>
       <c r="K126" t="n">
-        <v>-17.39130434782609</v>
+        <v>8.771929824561402</v>
       </c>
       <c r="L126" t="n">
         <v>9098.5</v>
@@ -6705,7 +6727,7 @@
         <v>4580</v>
       </c>
       <c r="K127" t="n">
-        <v>-28.88888888888889</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L127" t="n">
         <v>9098</v>
@@ -6756,7 +6778,7 @@
         <v>4610</v>
       </c>
       <c r="K128" t="n">
-        <v>-23.40425531914894</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="L128" t="n">
         <v>9098</v>
@@ -6807,7 +6829,7 @@
         <v>4615</v>
       </c>
       <c r="K129" t="n">
-        <v>-21.16788321167883</v>
+        <v>-12.28070175438596</v>
       </c>
       <c r="L129" t="n">
         <v>9098</v>
@@ -6858,7 +6880,7 @@
         <v>4640</v>
       </c>
       <c r="K130" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>9092</v>
@@ -6909,7 +6931,7 @@
         <v>4780</v>
       </c>
       <c r="K131" t="n">
-        <v>2.702702702702703</v>
+        <v>37.66233766233766</v>
       </c>
       <c r="L131" t="n">
         <v>9106</v>
@@ -6960,7 +6982,7 @@
         <v>4855</v>
       </c>
       <c r="K132" t="n">
-        <v>9.433962264150944</v>
+        <v>42.16867469879519</v>
       </c>
       <c r="L132" t="n">
         <v>9128</v>
@@ -7011,7 +7033,7 @@
         <v>4995</v>
       </c>
       <c r="K133" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.5631067961165</v>
       </c>
       <c r="L133" t="n">
         <v>9131.5</v>
@@ -7062,7 +7084,7 @@
         <v>5100</v>
       </c>
       <c r="K134" t="n">
-        <v>5.759162303664922</v>
+        <v>22.80701754385965</v>
       </c>
       <c r="L134" t="n">
         <v>9149.5</v>
@@ -7113,7 +7135,7 @@
         <v>5150</v>
       </c>
       <c r="K135" t="n">
-        <v>14.43298969072165</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L135" t="n">
         <v>9167.5</v>
@@ -7164,7 +7186,7 @@
         <v>5260</v>
       </c>
       <c r="K136" t="n">
-        <v>2.777777777777778</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L136" t="n">
         <v>9176.5</v>
@@ -7215,7 +7237,7 @@
         <v>5330</v>
       </c>
       <c r="K137" t="n">
-        <v>17.37089201877934</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L137" t="n">
         <v>9195.5</v>
@@ -7266,7 +7288,7 @@
         <v>5505</v>
       </c>
       <c r="K138" t="n">
-        <v>-1.234567901234568</v>
+        <v>-1.123595505617978</v>
       </c>
       <c r="L138" t="n">
         <v>9194</v>
@@ -7317,7 +7339,7 @@
         <v>5670</v>
       </c>
       <c r="K139" t="n">
-        <v>11.27272727272727</v>
+        <v>17.47572815533981</v>
       </c>
       <c r="L139" t="n">
         <v>9209.5</v>
@@ -7368,7 +7390,7 @@
         <v>5670</v>
       </c>
       <c r="K140" t="n">
-        <v>8.955223880597014</v>
+        <v>4.49438202247191</v>
       </c>
       <c r="L140" t="n">
         <v>9227.5</v>
@@ -7419,7 +7441,7 @@
         <v>5710</v>
       </c>
       <c r="K141" t="n">
-        <v>16.66666666666666</v>
+        <v>0.5847953216374269</v>
       </c>
       <c r="L141" t="n">
         <v>9235.5</v>
@@ -7470,7 +7492,7 @@
         <v>5820</v>
       </c>
       <c r="K142" t="n">
-        <v>8.070175438596491</v>
+        <v>4.242424242424243</v>
       </c>
       <c r="L142" t="n">
         <v>9225</v>
@@ -7521,7 +7543,7 @@
         <v>5910</v>
       </c>
       <c r="K143" t="n">
-        <v>-1.360544217687075</v>
+        <v>-19.75308641975309</v>
       </c>
       <c r="L143" t="n">
         <v>9219.5</v>
@@ -7572,7 +7594,7 @@
         <v>5940</v>
       </c>
       <c r="K144" t="n">
-        <v>-0.684931506849315</v>
+        <v>-30.37974683544304</v>
       </c>
       <c r="L144" t="n">
         <v>9200.5</v>
@@ -7623,7 +7645,7 @@
         <v>6060</v>
       </c>
       <c r="K145" t="n">
-        <v>3.92156862745098</v>
+        <v>-1.25</v>
       </c>
       <c r="L145" t="n">
         <v>9188.5</v>
@@ -7674,7 +7696,7 @@
         <v>6165</v>
       </c>
       <c r="K146" t="n">
-        <v>-1.547987616099071</v>
+        <v>-22.15568862275449</v>
       </c>
       <c r="L146" t="n">
         <v>9177</v>
@@ -7725,7 +7747,7 @@
         <v>6180</v>
       </c>
       <c r="K147" t="n">
-        <v>-0.625</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L147" t="n">
         <v>9157</v>
@@ -7776,7 +7798,7 @@
         <v>6180</v>
       </c>
       <c r="K148" t="n">
-        <v>-2.547770700636943</v>
+        <v>-37.25490196078432</v>
       </c>
       <c r="L148" t="n">
         <v>9154.5</v>
@@ -7827,7 +7849,7 @@
         <v>6195</v>
       </c>
       <c r="K149" t="n">
-        <v>-3.164556962025316</v>
+        <v>-39.04761904761905</v>
       </c>
       <c r="L149" t="n">
         <v>9134</v>
@@ -7878,7 +7900,7 @@
         <v>6200</v>
       </c>
       <c r="K150" t="n">
-        <v>-1.282051282051282</v>
+        <v>-48.97959183673469</v>
       </c>
       <c r="L150" t="n">
         <v>9114</v>
@@ -7929,7 +7951,7 @@
         <v>6215</v>
       </c>
       <c r="K151" t="n">
-        <v>-12.19512195121951</v>
+        <v>-36.70886075949367</v>
       </c>
       <c r="L151" t="n">
         <v>9088.5</v>
@@ -7980,7 +8002,7 @@
         <v>6230</v>
       </c>
       <c r="K152" t="n">
-        <v>-19.27272727272727</v>
+        <v>-21.875</v>
       </c>
       <c r="L152" t="n">
         <v>9072.5</v>
@@ -8031,7 +8053,7 @@
         <v>6250</v>
       </c>
       <c r="K153" t="n">
-        <v>-11.55378486055777</v>
+        <v>-19.35483870967742</v>
       </c>
       <c r="L153" t="n">
         <v>9063.5</v>
@@ -8082,7 +8104,7 @@
         <v>6320</v>
       </c>
       <c r="K154" t="n">
-        <v>-14.75409836065574</v>
+        <v>-42.30769230769231</v>
       </c>
       <c r="L154" t="n">
         <v>9064.5</v>
@@ -8133,7 +8155,7 @@
         <v>6365</v>
       </c>
       <c r="K155" t="n">
-        <v>-15.22633744855967</v>
+        <v>20</v>
       </c>
       <c r="L155" t="n">
         <v>9058</v>
@@ -8184,7 +8206,7 @@
         <v>6365</v>
       </c>
       <c r="K156" t="n">
-        <v>-6.787330316742081</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L156" t="n">
         <v>9062</v>
@@ -8235,7 +8257,7 @@
         <v>6425</v>
       </c>
       <c r="K157" t="n">
-        <v>-18.72146118721461</v>
+        <v>-2.040816326530612</v>
       </c>
       <c r="L157" t="n">
         <v>9061.5</v>
@@ -8286,7 +8308,7 @@
         <v>6480</v>
       </c>
       <c r="K158" t="n">
-        <v>2.564102564102564</v>
+        <v>22.80701754385965</v>
       </c>
       <c r="L158" t="n">
         <v>9066.5</v>
@@ -8337,7 +8359,7 @@
         <v>6540</v>
       </c>
       <c r="K159" t="n">
-        <v>-9.195402298850574</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="L159" t="n">
         <v>9079</v>
@@ -8388,7 +8410,7 @@
         <v>6635</v>
       </c>
       <c r="K160" t="n">
-        <v>-18.13471502590674</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L160" t="n">
         <v>9081.5</v>
@@ -8439,7 +8461,7 @@
         <v>6635</v>
       </c>
       <c r="K161" t="n">
-        <v>-23.24324324324325</v>
+        <v>13.58024691358025</v>
       </c>
       <c r="L161" t="n">
         <v>9085.5</v>
@@ -8490,7 +8512,7 @@
         <v>6715</v>
       </c>
       <c r="K162" t="n">
-        <v>-2.793296089385475</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L162" t="n">
         <v>9099</v>
@@ -8541,7 +8563,7 @@
         <v>6795</v>
       </c>
       <c r="K163" t="n">
-        <v>-1.694915254237288</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="L163" t="n">
         <v>9106.5</v>
@@ -8592,7 +8614,7 @@
         <v>6795</v>
       </c>
       <c r="K164" t="n">
-        <v>1.754385964912281</v>
+        <v>-9.302325581395349</v>
       </c>
       <c r="L164" t="n">
         <v>9107</v>
@@ -8643,7 +8665,7 @@
         <v>6795</v>
       </c>
       <c r="K165" t="n">
-        <v>-14.28571428571428</v>
+        <v>-9.302325581395349</v>
       </c>
       <c r="L165" t="n">
         <v>9103</v>
@@ -8694,7 +8716,7 @@
         <v>6795</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>5.405405405405405</v>
       </c>
       <c r="L166" t="n">
         <v>9099</v>
@@ -8745,7 +8767,7 @@
         <v>6815</v>
       </c>
       <c r="K167" t="n">
-        <v>5.511811023622047</v>
+        <v>-4.477611940298507</v>
       </c>
       <c r="L167" t="n">
         <v>9103</v>
@@ -8796,7 +8818,7 @@
         <v>6815</v>
       </c>
       <c r="K168" t="n">
-        <v>5.511811023622047</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L168" t="n">
         <v>9101.5</v>
@@ -8847,7 +8869,7 @@
         <v>6815</v>
       </c>
       <c r="K169" t="n">
-        <v>8.064516129032258</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L169" t="n">
         <v>9094</v>
@@ -8898,7 +8920,7 @@
         <v>6815</v>
       </c>
       <c r="K170" t="n">
-        <v>7.317073170731707</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L170" t="n">
         <v>9096</v>
@@ -8949,7 +8971,7 @@
         <v>6815</v>
       </c>
       <c r="K171" t="n">
-        <v>10</v>
+        <v>-60</v>
       </c>
       <c r="L171" t="n">
         <v>9098</v>
@@ -9000,7 +9022,7 @@
         <v>6815</v>
       </c>
       <c r="K172" t="n">
-        <v>12.82051282051282</v>
+        <v>100</v>
       </c>
       <c r="L172" t="n">
         <v>9092</v>
@@ -9051,7 +9073,7 @@
         <v>6900</v>
       </c>
       <c r="K173" t="n">
-        <v>27.69230769230769</v>
+        <v>100</v>
       </c>
       <c r="L173" t="n">
         <v>9102.5</v>
@@ -9102,7 +9124,7 @@
         <v>6945</v>
       </c>
       <c r="K174" t="n">
-        <v>10.4</v>
+        <v>40</v>
       </c>
       <c r="L174" t="n">
         <v>9108.5</v>
@@ -9153,7 +9175,7 @@
         <v>6985</v>
       </c>
       <c r="K175" t="n">
-        <v>-3.225806451612903</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L175" t="n">
         <v>9110.5</v>
@@ -9204,7 +9226,7 @@
         <v>7000</v>
       </c>
       <c r="K176" t="n">
-        <v>-0.7874015748031495</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L176" t="n">
         <v>9114</v>
@@ -9255,7 +9277,7 @@
         <v>7030</v>
       </c>
       <c r="K177" t="n">
-        <v>4.132231404958678</v>
+        <v>-6.976744186046512</v>
       </c>
       <c r="L177" t="n">
         <v>9112.5</v>
@@ -9306,7 +9328,7 @@
         <v>7035</v>
       </c>
       <c r="K178" t="n">
-        <v>-6.306306306306306</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L178" t="n">
         <v>9110.5</v>
@@ -9357,7 +9379,7 @@
         <v>7035</v>
       </c>
       <c r="K179" t="n">
-        <v>-19.19191919191919</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L179" t="n">
         <v>9108.5</v>
@@ -9408,7 +9430,7 @@
         <v>7035</v>
       </c>
       <c r="K180" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L180" t="n">
         <v>9106.5</v>
@@ -9459,7 +9481,7 @@
         <v>7035</v>
       </c>
       <c r="K181" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L181" t="n">
         <v>9104.5</v>
@@ -9510,7 +9532,7 @@
         <v>7035</v>
       </c>
       <c r="K182" t="n">
-        <v>-25</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L182" t="n">
         <v>9102.5</v>
@@ -9561,7 +9583,7 @@
         <v>7035</v>
       </c>
       <c r="K183" t="n">
-        <v>0</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L183" t="n">
         <v>9092</v>
@@ -9612,7 +9634,7 @@
         <v>7060</v>
       </c>
       <c r="K184" t="n">
-        <v>9.433962264150944</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L184" t="n">
         <v>9088.5</v>
@@ -9663,7 +9685,7 @@
         <v>7065</v>
       </c>
       <c r="K185" t="n">
-        <v>7.407407407407407</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L185" t="n">
         <v>9088.5</v>
@@ -9714,7 +9736,7 @@
         <v>7085</v>
       </c>
       <c r="K186" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L186" t="n">
         <v>9085</v>
@@ -9765,7 +9787,7 @@
         <v>7140</v>
       </c>
       <c r="K187" t="n">
-        <v>-23.07692307692308</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L187" t="n">
         <v>9079</v>
@@ -9816,7 +9838,7 @@
         <v>7145</v>
       </c>
       <c r="K188" t="n">
-        <v>-21.21212121212121</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L188" t="n">
         <v>9074</v>
@@ -9867,7 +9889,7 @@
         <v>7150</v>
       </c>
       <c r="K189" t="n">
-        <v>-22.38805970149254</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L189" t="n">
         <v>9068.5</v>
@@ -9918,7 +9940,7 @@
         <v>7185</v>
       </c>
       <c r="K190" t="n">
-        <v>-10.81081081081081</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L190" t="n">
         <v>9066.5</v>
@@ -9969,7 +9991,7 @@
         <v>7200</v>
       </c>
       <c r="K191" t="n">
-        <v>-14.28571428571428</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L191" t="n">
         <v>9063</v>
@@ -10020,7 +10042,7 @@
         <v>7200</v>
       </c>
       <c r="K192" t="n">
-        <v>-14.28571428571428</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L192" t="n">
         <v>9059.5</v>
@@ -10071,7 +10093,7 @@
         <v>7230</v>
       </c>
       <c r="K193" t="n">
-        <v>-51.51515151515152</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L193" t="n">
         <v>9053</v>
@@ -10122,7 +10144,7 @@
         <v>7230</v>
       </c>
       <c r="K194" t="n">
-        <v>-43.85964912280701</v>
+        <v>-51.51515151515152</v>
       </c>
       <c r="L194" t="n">
         <v>9044</v>
@@ -10224,7 +10246,7 @@
         <v>7265</v>
       </c>
       <c r="K196" t="n">
-        <v>-24.52830188679245</v>
+        <v>20</v>
       </c>
       <c r="L196" t="n">
         <v>9035.5</v>
@@ -10275,7 +10297,7 @@
         <v>7270</v>
       </c>
       <c r="K197" t="n">
-        <v>-12.5</v>
+        <v>20</v>
       </c>
       <c r="L197" t="n">
         <v>9038.5</v>
@@ -10326,7 +10348,7 @@
         <v>7275</v>
       </c>
       <c r="K198" t="n">
-        <v>-12.5</v>
+        <v>20</v>
       </c>
       <c r="L198" t="n">
         <v>9040.5</v>
@@ -10377,7 +10399,7 @@
         <v>7280</v>
       </c>
       <c r="K199" t="n">
-        <v>-10.20408163265306</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L199" t="n">
         <v>9043.5</v>
@@ -10428,7 +10450,7 @@
         <v>7315</v>
       </c>
       <c r="K200" t="n">
-        <v>-21.42857142857143</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L200" t="n">
         <v>9039.5</v>
@@ -10479,7 +10501,7 @@
         <v>7335</v>
       </c>
       <c r="K201" t="n">
-        <v>-26.66666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L201" t="n">
         <v>9035</v>
@@ -10530,7 +10552,7 @@
         <v>7335</v>
       </c>
       <c r="K202" t="n">
-        <v>-26.66666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L202" t="n">
         <v>9030.5</v>
@@ -10581,7 +10603,7 @@
         <v>7355</v>
       </c>
       <c r="K203" t="n">
-        <v>-18.75</v>
+        <v>4</v>
       </c>
       <c r="L203" t="n">
         <v>9031</v>
@@ -10683,7 +10705,7 @@
         <v>7360</v>
       </c>
       <c r="K205" t="n">
-        <v>-28.8135593220339</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L205" t="n">
         <v>9028</v>
@@ -10734,7 +10756,7 @@
         <v>7360</v>
       </c>
       <c r="K206" t="n">
-        <v>-23.63636363636364</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L206" t="n">
         <v>9024.5</v>
@@ -10785,7 +10807,7 @@
         <v>7360</v>
       </c>
       <c r="K207" t="n">
-        <v>-4.545454545454546</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L207" t="n">
         <v>9020.5</v>
@@ -10836,7 +10858,7 @@
         <v>7360</v>
       </c>
       <c r="K208" t="n">
-        <v>-6.976744186046512</v>
+        <v>-50</v>
       </c>
       <c r="L208" t="n">
         <v>9017</v>
@@ -10887,7 +10909,7 @@
         <v>7360</v>
       </c>
       <c r="K209" t="n">
-        <v>-4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L209" t="n">
         <v>9013</v>
@@ -10938,7 +10960,7 @@
         <v>7420</v>
       </c>
       <c r="K210" t="n">
-        <v>6.382978723404255</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L210" t="n">
         <v>9018.5</v>
@@ -10989,7 +11011,7 @@
         <v>7425</v>
       </c>
       <c r="K211" t="n">
-        <v>15.55555555555556</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="L211" t="n">
         <v>9026.5</v>
@@ -11040,7 +11062,7 @@
         <v>7485</v>
       </c>
       <c r="K212" t="n">
-        <v>-8.771929824561402</v>
+        <v>0</v>
       </c>
       <c r="L212" t="n">
         <v>9028.5</v>
@@ -11091,7 +11113,7 @@
         <v>7485</v>
       </c>
       <c r="K213" t="n">
-        <v>1.96078431372549</v>
+        <v>4</v>
       </c>
       <c r="L213" t="n">
         <v>9028.5</v>
@@ -11142,7 +11164,7 @@
         <v>7490</v>
       </c>
       <c r="K214" t="n">
-        <v>3.846153846153846</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L214" t="n">
         <v>9029.5</v>
@@ -11193,7 +11215,7 @@
         <v>7490</v>
       </c>
       <c r="K215" t="n">
-        <v>-8.695652173913043</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L215" t="n">
         <v>9030.5</v>
@@ -11244,7 +11266,7 @@
         <v>7490</v>
       </c>
       <c r="K216" t="n">
-        <v>-11.11111111111111</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L216" t="n">
         <v>9031.5</v>
@@ -11295,7 +11317,7 @@
         <v>7490</v>
       </c>
       <c r="K217" t="n">
-        <v>-13.63636363636363</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L217" t="n">
         <v>9032.5</v>
@@ -11346,7 +11368,7 @@
         <v>7490</v>
       </c>
       <c r="K218" t="n">
-        <v>-11.62790697674419</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L218" t="n">
         <v>9033.5</v>
@@ -11397,7 +11419,7 @@
         <v>7530</v>
       </c>
       <c r="K219" t="n">
-        <v>-28</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L219" t="n">
         <v>9030.5</v>
@@ -11448,7 +11470,7 @@
         <v>7625</v>
       </c>
       <c r="K220" t="n">
-        <v>19.35483870967742</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>9031</v>
@@ -11499,7 +11521,7 @@
         <v>7625</v>
       </c>
       <c r="K221" t="n">
-        <v>27.58620689655172</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L221" t="n">
         <v>9031</v>
@@ -11550,7 +11572,7 @@
         <v>7625</v>
       </c>
       <c r="K222" t="n">
-        <v>27.58620689655172</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L222" t="n">
         <v>9037</v>
@@ -11601,7 +11623,7 @@
         <v>7660</v>
       </c>
       <c r="K223" t="n">
-        <v>8.196721311475409</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L223" t="n">
         <v>9039.5</v>
@@ -11652,7 +11674,7 @@
         <v>7705</v>
       </c>
       <c r="K224" t="n">
-        <v>-4.347826086956522</v>
+        <v>-11.62790697674419</v>
       </c>
       <c r="L224" t="n">
         <v>9037</v>
@@ -11754,7 +11776,7 @@
         <v>7800</v>
       </c>
       <c r="K226" t="n">
-        <v>-4.545454545454546</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L226" t="n">
         <v>9036</v>
@@ -11805,7 +11827,7 @@
         <v>7825</v>
       </c>
       <c r="K227" t="n">
-        <v>1.075268817204301</v>
+        <v>-1.492537313432836</v>
       </c>
       <c r="L227" t="n">
         <v>9035.5</v>
@@ -11856,7 +11878,7 @@
         <v>7985</v>
       </c>
       <c r="K228" t="n">
-        <v>26.4</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L228" t="n">
         <v>9051</v>
@@ -11907,7 +11929,7 @@
         <v>8165</v>
       </c>
       <c r="K229" t="n">
-        <v>-1.863354037267081</v>
+        <v>-14.81481481481481</v>
       </c>
       <c r="L229" t="n">
         <v>9052.5</v>
@@ -11958,7 +11980,7 @@
         <v>8170</v>
       </c>
       <c r="K230" t="n">
-        <v>-9.333333333333334</v>
+        <v>-13.76146788990826</v>
       </c>
       <c r="L230" t="n">
         <v>9045</v>
@@ -12009,7 +12031,7 @@
         <v>8175</v>
       </c>
       <c r="K231" t="n">
-        <v>-10.66666666666667</v>
+        <v>-14.54545454545454</v>
       </c>
       <c r="L231" t="n">
         <v>9037</v>
@@ -12060,7 +12082,7 @@
         <v>8280</v>
       </c>
       <c r="K232" t="n">
-        <v>10.69182389937107</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L232" t="n">
         <v>9039.5</v>
@@ -12111,7 +12133,7 @@
         <v>8335</v>
       </c>
       <c r="K233" t="n">
-        <v>3.529411764705882</v>
+        <v>7.936507936507936</v>
       </c>
       <c r="L233" t="n">
         <v>9040</v>
@@ -12162,7 +12184,7 @@
         <v>8380</v>
       </c>
       <c r="K234" t="n">
-        <v>-2.247191011235955</v>
+        <v>-6.349206349206349</v>
       </c>
       <c r="L234" t="n">
         <v>9040.5</v>
@@ -12213,7 +12235,7 @@
         <v>8525</v>
       </c>
       <c r="K235" t="n">
-        <v>12.07729468599034</v>
+        <v>21.37931034482759</v>
       </c>
       <c r="L235" t="n">
         <v>9051</v>
@@ -12264,7 +12286,7 @@
         <v>8625</v>
       </c>
       <c r="K236" t="n">
-        <v>2.202643171806168</v>
+        <v>3.75</v>
       </c>
       <c r="L236" t="n">
         <v>9056.5</v>
@@ -12315,7 +12337,7 @@
         <v>8640</v>
       </c>
       <c r="K237" t="n">
-        <v>0.8695652173913043</v>
+        <v>-22.13740458015267</v>
       </c>
       <c r="L237" t="n">
         <v>9058</v>
@@ -12366,7 +12388,7 @@
         <v>8655</v>
       </c>
       <c r="K238" t="n">
-        <v>2.145922746781116</v>
+        <v>10.20408163265306</v>
       </c>
       <c r="L238" t="n">
         <v>9045</v>
@@ -12417,7 +12439,7 @@
         <v>8660</v>
       </c>
       <c r="K239" t="n">
-        <v>5.309734513274337</v>
+        <v>8.163265306122449</v>
       </c>
       <c r="L239" t="n">
         <v>9049.5</v>
@@ -12468,7 +12490,7 @@
         <v>8660</v>
       </c>
       <c r="K240" t="n">
-        <v>-3.381642512077295</v>
+        <v>9.278350515463918</v>
       </c>
       <c r="L240" t="n">
         <v>9053.5</v>
@@ -12519,7 +12541,7 @@
         <v>8690</v>
       </c>
       <c r="K241" t="n">
-        <v>-6.103286384976526</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L241" t="n">
         <v>9055</v>
@@ -12570,7 +12592,7 @@
         <v>8710</v>
       </c>
       <c r="K242" t="n">
-        <v>-7.834101382488479</v>
+        <v>-14.66666666666667</v>
       </c>
       <c r="L242" t="n">
         <v>9044</v>
@@ -12621,7 +12643,7 @@
         <v>8755</v>
       </c>
       <c r="K243" t="n">
-        <v>-0.45662100456621</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="L243" t="n">
         <v>9043</v>
@@ -12672,7 +12694,7 @@
         <v>8755</v>
       </c>
       <c r="K244" t="n">
-        <v>3.80952380952381</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L244" t="n">
         <v>9046.5</v>
@@ -12723,7 +12745,7 @@
         <v>8890</v>
       </c>
       <c r="K245" t="n">
-        <v>11.40350877192982</v>
+        <v>47.16981132075472</v>
       </c>
       <c r="L245" t="n">
         <v>9049</v>
@@ -12774,7 +12796,7 @@
         <v>8890</v>
       </c>
       <c r="K246" t="n">
-        <v>16.51376146788991</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="L246" t="n">
         <v>9061.5</v>
@@ -12825,7 +12847,7 @@
         <v>8890</v>
       </c>
       <c r="K247" t="n">
-        <v>14.55399061032864</v>
+        <v>53.19148936170212</v>
       </c>
       <c r="L247" t="n">
         <v>9075.5</v>
@@ -12876,7 +12898,7 @@
         <v>8895</v>
       </c>
       <c r="K248" t="n">
-        <v>-1.098901098901099</v>
+        <v>53.19148936170212</v>
       </c>
       <c r="L248" t="n">
         <v>9087.5</v>
@@ -12927,7 +12949,7 @@
         <v>8965</v>
       </c>
       <c r="K249" t="n">
-        <v>30</v>
+        <v>63.9344262295082</v>
       </c>
       <c r="L249" t="n">
         <v>9107</v>
@@ -12978,7 +13000,7 @@
         <v>9105</v>
       </c>
       <c r="K250" t="n">
-        <v>10.16042780748663</v>
+        <v>20.48192771084337</v>
       </c>
       <c r="L250" t="n">
         <v>9112.5</v>
@@ -13029,7 +13051,7 @@
         <v>9135</v>
       </c>
       <c r="K251" t="n">
-        <v>13.54166666666667</v>
+        <v>31.76470588235294</v>
       </c>
       <c r="L251" t="n">
         <v>9124</v>
@@ -13080,7 +13102,7 @@
         <v>9135</v>
       </c>
       <c r="K252" t="n">
-        <v>2.923976608187134</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="L252" t="n">
         <v>9137.5</v>
@@ -13131,7 +13153,7 @@
         <v>9155</v>
       </c>
       <c r="K253" t="n">
-        <v>7.317073170731707</v>
+        <v>17.5</v>
       </c>
       <c r="L253" t="n">
         <v>9144.5</v>
@@ -13182,7 +13204,7 @@
         <v>9165</v>
       </c>
       <c r="K254" t="n">
-        <v>12.10191082802548</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L254" t="n">
         <v>9150.5</v>
@@ -13233,7 +13255,7 @@
         <v>9170</v>
       </c>
       <c r="K255" t="n">
-        <v>-6.976744186046512</v>
+        <v>-25</v>
       </c>
       <c r="L255" t="n">
         <v>9143.5</v>
@@ -13284,7 +13306,7 @@
         <v>9175</v>
       </c>
       <c r="K256" t="n">
-        <v>9.090909090909092</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L256" t="n">
         <v>9136</v>
@@ -13335,7 +13357,7 @@
         <v>9200</v>
       </c>
       <c r="K257" t="n">
-        <v>7.142857142857142</v>
+        <v>-31.14754098360656</v>
       </c>
       <c r="L257" t="n">
         <v>9126</v>
@@ -13386,7 +13408,7 @@
         <v>9210</v>
       </c>
       <c r="K258" t="n">
-        <v>2.702702702702703</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L258" t="n">
         <v>9115.5</v>
@@ -13437,7 +13459,7 @@
         <v>9240</v>
       </c>
       <c r="K259" t="n">
-        <v>-1.724137931034483</v>
+        <v>-48.14814814814815</v>
       </c>
       <c r="L259" t="n">
         <v>9095</v>
@@ -13488,7 +13510,7 @@
         <v>9240</v>
       </c>
       <c r="K260" t="n">
-        <v>-1.724137931034483</v>
+        <v>-90.47619047619048</v>
       </c>
       <c r="L260" t="n">
         <v>9088.5</v>
@@ -13539,7 +13561,7 @@
         <v>9240</v>
       </c>
       <c r="K261" t="n">
-        <v>3.636363636363636</v>
+        <v>-90.47619047619048</v>
       </c>
       <c r="L261" t="n">
         <v>9079</v>
@@ -13590,7 +13612,7 @@
         <v>9245</v>
       </c>
       <c r="K262" t="n">
-        <v>6.542056074766355</v>
+        <v>-88.88888888888889</v>
       </c>
       <c r="L262" t="n">
         <v>9069</v>
@@ -13641,7 +13663,7 @@
         <v>9265</v>
       </c>
       <c r="K263" t="n">
-        <v>-5.88235294117647</v>
+        <v>-90</v>
       </c>
       <c r="L263" t="n">
         <v>9059</v>
@@ -13692,7 +13714,7 @@
         <v>9270</v>
       </c>
       <c r="K264" t="n">
-        <v>-6.796116504854369</v>
+        <v>-100</v>
       </c>
       <c r="L264" t="n">
         <v>9049.5</v>
@@ -13743,7 +13765,7 @@
         <v>9275</v>
       </c>
       <c r="K265" t="n">
-        <v>-45.45454545454545</v>
+        <v>-100</v>
       </c>
       <c r="L265" t="n">
         <v>9039</v>
@@ -13794,7 +13816,7 @@
         <v>9275</v>
       </c>
       <c r="K266" t="n">
-        <v>-45.45454545454545</v>
+        <v>-100</v>
       </c>
       <c r="L266" t="n">
         <v>9029</v>
@@ -13845,7 +13867,7 @@
         <v>9275</v>
       </c>
       <c r="K267" t="n">
-        <v>-45.45454545454545</v>
+        <v>-100</v>
       </c>
       <c r="L267" t="n">
         <v>9021.5</v>
@@ -13896,7 +13918,7 @@
         <v>9280</v>
       </c>
       <c r="K268" t="n">
-        <v>-45.45454545454545</v>
+        <v>-100</v>
       </c>
       <c r="L268" t="n">
         <v>9014.5</v>
@@ -13947,7 +13969,7 @@
         <v>9285</v>
       </c>
       <c r="K269" t="n">
-        <v>-75</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L269" t="n">
         <v>9011</v>
@@ -13998,7 +14020,7 @@
         <v>9285</v>
       </c>
       <c r="K270" t="n">
-        <v>-55.55555555555556</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L270" t="n">
         <v>9007.5</v>
@@ -14049,7 +14071,7 @@
         <v>9410</v>
       </c>
       <c r="K271" t="n">
-        <v>-1.818181818181818</v>
+        <v>57.57575757575758</v>
       </c>
       <c r="L271" t="n">
         <v>9016.5</v>
@@ -14100,7 +14122,7 @@
         <v>9420</v>
       </c>
       <c r="K272" t="n">
-        <v>-5.263157894736842</v>
+        <v>67.74193548387096</v>
       </c>
       <c r="L272" t="n">
         <v>9025</v>
@@ -14151,7 +14173,7 @@
         <v>9435</v>
       </c>
       <c r="K273" t="n">
-        <v>-3.571428571428571</v>
+        <v>57.57575757575758</v>
       </c>
       <c r="L273" t="n">
         <v>9034</v>
@@ -14202,7 +14224,7 @@
         <v>9450</v>
       </c>
       <c r="K274" t="n">
-        <v>-5.263157894736842</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="L274" t="n">
         <v>9042</v>
@@ -14253,7 +14275,7 @@
         <v>9515</v>
       </c>
       <c r="K275" t="n">
-        <v>-24.63768115942029</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L275" t="n">
         <v>9044</v>
@@ -14304,7 +14326,7 @@
         <v>9515</v>
       </c>
       <c r="K276" t="n">
-        <v>-23.52941176470588</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L276" t="n">
         <v>9046</v>
@@ -14355,7 +14377,7 @@
         <v>9580</v>
       </c>
       <c r="K277" t="n">
-        <v>2.631578947368421</v>
+        <v>30</v>
       </c>
       <c r="L277" t="n">
         <v>9054.5</v>
@@ -14406,7 +14428,7 @@
         <v>9625</v>
       </c>
       <c r="K278" t="n">
-        <v>15.66265060240964</v>
+        <v>38.23529411764706</v>
       </c>
       <c r="L278" t="n">
         <v>9068</v>
@@ -14457,7 +14479,7 @@
         <v>9730</v>
       </c>
       <c r="K279" t="n">
-        <v>-2.040816326530612</v>
+        <v>5.617977528089887</v>
       </c>
       <c r="L279" t="n">
         <v>9070.5</v>
@@ -14508,7 +14530,7 @@
         <v>9885</v>
       </c>
       <c r="K280" t="n">
-        <v>22.48062015503876</v>
+        <v>11.57894736842105</v>
       </c>
       <c r="L280" t="n">
         <v>9088.5</v>
@@ -14559,7 +14581,7 @@
         <v>9895</v>
       </c>
       <c r="K281" t="n">
-        <v>20.61068702290076</v>
+        <v>11.57894736842105</v>
       </c>
       <c r="L281" t="n">
         <v>9093</v>
@@ -14610,7 +14632,7 @@
         <v>10025</v>
       </c>
       <c r="K282" t="n">
-        <v>1.282051282051282</v>
+        <v>-10.16949152542373</v>
       </c>
       <c r="L282" t="n">
         <v>9085.5</v>
@@ -14661,7 +14683,7 @@
         <v>10050</v>
       </c>
       <c r="K283" t="n">
-        <v>7.006369426751593</v>
+        <v>-3.333333333333333</v>
       </c>
       <c r="L283" t="n">
         <v>9082</v>
@@ -14712,7 +14734,7 @@
         <v>10085</v>
       </c>
       <c r="K284" t="n">
-        <v>3.067484662576687</v>
+        <v>1.754385964912281</v>
       </c>
       <c r="L284" t="n">
         <v>9076.5</v>
@@ -14763,7 +14785,7 @@
         <v>10165</v>
       </c>
       <c r="K285" t="n">
-        <v>12.35955056179775</v>
+        <v>13.84615384615385</v>
       </c>
       <c r="L285" t="n">
         <v>9085.5</v>
@@ -14814,7 +14836,7 @@
         <v>10210</v>
       </c>
       <c r="K286" t="n">
-        <v>6.951871657754011</v>
+        <v>-3.174603174603174</v>
       </c>
       <c r="L286" t="n">
         <v>9090</v>
@@ -14865,7 +14887,7 @@
         <v>10285</v>
       </c>
       <c r="K287" t="n">
-        <v>13.86138613861386</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="L287" t="n">
         <v>9095.5</v>
@@ -14916,7 +14938,7 @@
         <v>10310</v>
       </c>
       <c r="K288" t="n">
-        <v>11.6504854368932</v>
+        <v>15.51724137931035</v>
       </c>
       <c r="L288" t="n">
         <v>9094</v>
@@ -14967,7 +14989,7 @@
         <v>10315</v>
       </c>
       <c r="K289" t="n">
-        <v>11.6504854368932</v>
+        <v>-13.95348837209302</v>
       </c>
       <c r="L289" t="n">
         <v>9103.5</v>
@@ -15018,7 +15040,7 @@
         <v>10380</v>
       </c>
       <c r="K290" t="n">
-        <v>5.02283105022831</v>
+        <v>-23.71134020618556</v>
       </c>
       <c r="L290" t="n">
         <v>9091</v>
@@ -15069,7 +15091,7 @@
         <v>10390</v>
       </c>
       <c r="K291" t="n">
-        <v>-8.163265306122449</v>
+        <v>1.36986301369863</v>
       </c>
       <c r="L291" t="n">
         <v>9078.5</v>
@@ -15120,7 +15142,7 @@
         <v>10390</v>
       </c>
       <c r="K292" t="n">
-        <v>-7.216494845360824</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L292" t="n">
         <v>9079</v>
@@ -15171,7 +15193,7 @@
         <v>10395</v>
       </c>
       <c r="K293" t="n">
-        <v>-6.25</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L293" t="n">
         <v>9076.5</v>
@@ -15222,7 +15244,7 @@
         <v>10480</v>
       </c>
       <c r="K294" t="n">
-        <v>3.883495145631068</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L294" t="n">
         <v>9086</v>
@@ -15273,7 +15295,7 @@
         <v>10515</v>
       </c>
       <c r="K295" t="n">
-        <v>7.000000000000001</v>
+        <v>8.196721311475409</v>
       </c>
       <c r="L295" t="n">
         <v>9084</v>
@@ -15324,7 +15346,7 @@
         <v>10560</v>
       </c>
       <c r="K296" t="n">
-        <v>2.392344497607656</v>
+        <v>-34.54545454545455</v>
       </c>
       <c r="L296" t="n">
         <v>9082</v>
@@ -15375,7 +15397,7 @@
         <v>10585</v>
       </c>
       <c r="K297" t="n">
-        <v>-1.492537313432836</v>
+        <v>-16.36363636363636</v>
       </c>
       <c r="L297" t="n">
         <v>9075</v>

--- a/BackTest/2019-10-19 BackTest BTG.xlsx
+++ b/BackTest/2019-10-19 BackTest BTG.xlsx
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -7451,17 +7451,13 @@
         <v>9076</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>9000</v>
-      </c>
-      <c r="K202" t="n">
-        <v>9000</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
@@ -7496,14 +7492,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7531,22 +7521,14 @@
         <v>9073.916666666666</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>9020</v>
-      </c>
-      <c r="K204" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7574,17 +7556,13 @@
         <v>9071.083333333334</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>9015</v>
-      </c>
-      <c r="K205" t="n">
-        <v>9015</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
@@ -7624,11 +7602,7 @@
       <c r="K206" t="n">
         <v>9015</v>
       </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7710,7 +7684,11 @@
       <c r="K208" t="n">
         <v>9015</v>
       </c>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7749,11 +7727,7 @@
       <c r="K209" t="n">
         <v>9015</v>
       </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7787,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>9075</v>
+        <v>9015</v>
       </c>
       <c r="K210" t="n">
         <v>9015</v>
@@ -7824,18 +7798,20 @@
         <v>9068.75</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>9080</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>9080</v>
-      </c>
-      <c r="L211" t="inlineStr"/>
+        <v>9015</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7869,16 +7845,12 @@
         <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>9020</v>
+        <v>9080</v>
       </c>
       <c r="K212" t="n">
         <v>9080</v>
       </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7906,14 +7878,12 @@
         <v>9068.916666666666</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
         <v>9080</v>
       </c>
@@ -7949,18 +7919,20 @@
         <v>9068.083333333334</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>9025</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L214" t="inlineStr"/>
+        <v>9080</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7988,22 +7960,14 @@
         <v>9066.5</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>9025</v>
-      </c>
-      <c r="K215" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8031,22 +7995,14 @@
         <v>9064.916666666666</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>9025</v>
-      </c>
-      <c r="K216" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8074,22 +8030,14 @@
         <v>9064.333333333334</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>9025</v>
-      </c>
-      <c r="K217" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8117,22 +8065,14 @@
         <v>9062.833333333334</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>9030</v>
-      </c>
-      <c r="K218" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8160,22 +8100,14 @@
         <v>9059.666666666666</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>9025</v>
-      </c>
-      <c r="K219" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8203,22 +8135,14 @@
         <v>9059.666666666666</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>9070</v>
-      </c>
-      <c r="K220" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8246,22 +8170,14 @@
         <v>9059.666666666666</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>9080</v>
-      </c>
-      <c r="K221" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8289,22 +8205,14 @@
         <v>9058.333333333334</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>9080</v>
-      </c>
-      <c r="K222" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8332,22 +8240,14 @@
         <v>9057.75</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>9045</v>
-      </c>
-      <c r="K223" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8375,22 +8275,14 @@
         <v>9056.416666666666</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>9015</v>
-      </c>
-      <c r="K224" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8418,22 +8310,14 @@
         <v>9055.833333333334</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>9000</v>
-      </c>
-      <c r="K225" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8461,22 +8345,14 @@
         <v>9054.416666666666</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>8995</v>
-      </c>
-      <c r="K226" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8504,22 +8380,14 @@
         <v>9053.083333333334</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>9010</v>
-      </c>
-      <c r="K227" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8547,22 +8415,14 @@
         <v>9054.416666666666</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>9080</v>
-      </c>
-      <c r="K228" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8590,22 +8450,14 @@
         <v>9052.75</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>9000</v>
-      </c>
-      <c r="K229" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8639,14 +8491,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8674,22 +8520,14 @@
         <v>9049.5</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>9000</v>
-      </c>
-      <c r="K231" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8717,22 +8555,14 @@
         <v>9049.583333333334</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>9105</v>
-      </c>
-      <c r="K232" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8760,22 +8590,14 @@
         <v>9047.333333333334</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>9050</v>
-      </c>
-      <c r="K233" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8803,22 +8625,14 @@
         <v>9045.083333333334</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>9050</v>
-      </c>
-      <c r="K234" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8846,22 +8660,14 @@
         <v>9045.916666666666</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>9150</v>
-      </c>
-      <c r="K235" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8889,22 +8695,14 @@
         <v>9044.833333333334</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>9050</v>
-      </c>
-      <c r="K236" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8938,14 +8736,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8979,14 +8771,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9014,24 +8800,16 @@
         <v>9042.916666666666</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>1</v>
-      </c>
-      <c r="J239" t="n">
-        <v>9140</v>
-      </c>
-      <c r="K239" t="n">
-        <v>9025</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
-        <v>0.9972160664819943</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -9057,20 +8835,14 @@
         <v>9042.333333333334</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="n">
-        <v>9050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9101,15 +8873,11 @@
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9144,11 +8912,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9176,20 +8940,14 @@
         <v>9039.166666666666</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>1</v>
-      </c>
-      <c r="J243" t="n">
-        <v>9035</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9217,20 +8975,14 @@
         <v>9038.083333333334</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>9040</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9258,20 +9010,14 @@
         <v>9039.333333333334</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>9175</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9299,20 +9045,14 @@
         <v>9040.916666666666</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>9175</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9347,11 +9087,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9386,11 +9122,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9425,11 +9157,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9464,11 +9192,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9503,11 +9227,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9542,11 +9262,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9581,11 +9297,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9616,16 +9328,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9653,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
@@ -9688,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
@@ -9723,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
@@ -9758,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
@@ -9793,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
@@ -9828,7 +9538,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
@@ -10000,20 +9710,14 @@
         <v>9058.666666666666</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>9010</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10041,20 +9745,14 @@
         <v>9058.416666666666</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>9000</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10082,20 +9780,14 @@
         <v>9058.166666666666</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>9000</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10123,20 +9815,14 @@
         <v>9057.833333333334</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>9000</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10164,20 +9850,14 @@
         <v>9057.583333333334</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>9000</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10205,20 +9885,14 @@
         <v>9056.333333333334</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>9000</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10246,20 +9920,14 @@
         <v>9057.083333333334</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>9125</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10287,20 +9955,14 @@
         <v>9058.666666666666</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>9115</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10335,11 +9997,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10370,15 +10028,11 @@
         <v>0</v>
       </c>
       <c r="I274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10413,11 +10067,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10448,16 +10098,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest BTG.xlsx
+++ b/BackTest/2019-10-19 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M276"/>
+  <dimension ref="A1:M277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>9175</v>
       </c>
       <c r="C2" t="n">
-        <v>9225</v>
+        <v>9175</v>
       </c>
       <c r="D2" t="n">
-        <v>9225</v>
+        <v>9175</v>
       </c>
       <c r="E2" t="n">
         <v>9175</v>
       </c>
       <c r="F2" t="n">
-        <v>5.0893</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>9210</v>
+        <v>9211.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>9175</v>
       </c>
       <c r="C3" t="n">
-        <v>9175</v>
+        <v>9225</v>
       </c>
       <c r="D3" t="n">
-        <v>9175</v>
+        <v>9225</v>
       </c>
       <c r="E3" t="n">
         <v>9175</v>
       </c>
       <c r="F3" t="n">
-        <v>116</v>
+        <v>5.0893</v>
       </c>
       <c r="G3" t="n">
-        <v>9207.75</v>
+        <v>9210</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9190</v>
+        <v>9175</v>
       </c>
       <c r="C4" t="n">
         <v>9175</v>
       </c>
       <c r="D4" t="n">
-        <v>9190</v>
+        <v>9175</v>
       </c>
       <c r="E4" t="n">
         <v>9175</v>
       </c>
       <c r="F4" t="n">
-        <v>18.1775</v>
+        <v>116</v>
       </c>
       <c r="G4" t="n">
-        <v>9205.666666666666</v>
+        <v>9207.75</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9175</v>
+        <v>9190</v>
       </c>
       <c r="C5" t="n">
         <v>9175</v>
       </c>
       <c r="D5" t="n">
-        <v>9175</v>
+        <v>9190</v>
       </c>
       <c r="E5" t="n">
         <v>9175</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>18.1775</v>
       </c>
       <c r="G5" t="n">
-        <v>9203.583333333334</v>
+        <v>9205.666666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9190</v>
+        <v>9175</v>
       </c>
       <c r="C6" t="n">
         <v>9175</v>
       </c>
       <c r="D6" t="n">
-        <v>9190</v>
+        <v>9175</v>
       </c>
       <c r="E6" t="n">
         <v>9175</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
-        <v>9201.5</v>
+        <v>9203.583333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9180</v>
+        <v>9190</v>
       </c>
       <c r="C7" t="n">
-        <v>9180</v>
+        <v>9175</v>
       </c>
       <c r="D7" t="n">
-        <v>9180</v>
+        <v>9190</v>
       </c>
       <c r="E7" t="n">
-        <v>9180</v>
+        <v>9175</v>
       </c>
       <c r="F7" t="n">
-        <v>6.1775</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>9199.5</v>
+        <v>9201.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9175</v>
+        <v>9180</v>
       </c>
       <c r="C8" t="n">
-        <v>9175</v>
+        <v>9180</v>
       </c>
       <c r="D8" t="n">
-        <v>9175</v>
+        <v>9180</v>
       </c>
       <c r="E8" t="n">
-        <v>9175</v>
+        <v>9180</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>6.1775</v>
       </c>
       <c r="G8" t="n">
-        <v>9197.416666666666</v>
+        <v>9199.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9170</v>
+        <v>9175</v>
       </c>
       <c r="C9" t="n">
-        <v>9170</v>
+        <v>9175</v>
       </c>
       <c r="D9" t="n">
-        <v>9170</v>
+        <v>9175</v>
       </c>
       <c r="E9" t="n">
-        <v>9170</v>
+        <v>9175</v>
       </c>
       <c r="F9" t="n">
-        <v>40.2458</v>
+        <v>14</v>
       </c>
       <c r="G9" t="n">
-        <v>9195.25</v>
+        <v>9197.416666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9190</v>
+        <v>9170</v>
       </c>
       <c r="C10" t="n">
-        <v>9180</v>
+        <v>9170</v>
       </c>
       <c r="D10" t="n">
-        <v>9190</v>
+        <v>9170</v>
       </c>
       <c r="E10" t="n">
-        <v>9180</v>
+        <v>9170</v>
       </c>
       <c r="F10" t="n">
-        <v>103</v>
+        <v>40.2458</v>
       </c>
       <c r="G10" t="n">
-        <v>9194.166666666666</v>
+        <v>9195.25</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>9190</v>
+      </c>
+      <c r="C11" t="n">
         <v>9180</v>
       </c>
-      <c r="C11" t="n">
-        <v>9170</v>
-      </c>
       <c r="D11" t="n">
+        <v>9190</v>
+      </c>
+      <c r="E11" t="n">
         <v>9180</v>
       </c>
-      <c r="E11" t="n">
-        <v>9170</v>
-      </c>
       <c r="F11" t="n">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="G11" t="n">
-        <v>9192.916666666666</v>
+        <v>9194.166666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9170</v>
+        <v>9180</v>
       </c>
       <c r="C12" t="n">
         <v>9170</v>
       </c>
       <c r="D12" t="n">
-        <v>9170</v>
+        <v>9180</v>
       </c>
       <c r="E12" t="n">
         <v>9170</v>
       </c>
       <c r="F12" t="n">
-        <v>29.5</v>
+        <v>35</v>
       </c>
       <c r="G12" t="n">
-        <v>9191.666666666666</v>
+        <v>9192.916666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>9170</v>
       </c>
       <c r="C13" t="n">
-        <v>9165</v>
+        <v>9170</v>
       </c>
       <c r="D13" t="n">
         <v>9170</v>
       </c>
       <c r="E13" t="n">
-        <v>9165</v>
+        <v>9170</v>
       </c>
       <c r="F13" t="n">
-        <v>33</v>
+        <v>29.5</v>
       </c>
       <c r="G13" t="n">
-        <v>9190.333333333334</v>
+        <v>9191.666666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9165</v>
+        <v>9170</v>
       </c>
       <c r="C14" t="n">
         <v>9165</v>
       </c>
       <c r="D14" t="n">
-        <v>9165</v>
+        <v>9170</v>
       </c>
       <c r="E14" t="n">
         <v>9165</v>
       </c>
       <c r="F14" t="n">
-        <v>67.5</v>
+        <v>33</v>
       </c>
       <c r="G14" t="n">
-        <v>9189</v>
+        <v>9190.333333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>9165</v>
       </c>
       <c r="C15" t="n">
-        <v>9150</v>
+        <v>9165</v>
       </c>
       <c r="D15" t="n">
         <v>9165</v>
       </c>
       <c r="E15" t="n">
-        <v>9150</v>
+        <v>9165</v>
       </c>
       <c r="F15" t="n">
-        <v>32</v>
+        <v>67.5</v>
       </c>
       <c r="G15" t="n">
-        <v>9187.416666666666</v>
+        <v>9189</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9155</v>
+        <v>9165</v>
       </c>
       <c r="C16" t="n">
-        <v>9155</v>
+        <v>9150</v>
       </c>
       <c r="D16" t="n">
-        <v>9155</v>
+        <v>9165</v>
       </c>
       <c r="E16" t="n">
-        <v>9155</v>
+        <v>9150</v>
       </c>
       <c r="F16" t="n">
-        <v>189.7971</v>
+        <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>9185.916666666666</v>
+        <v>9187.416666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>9155</v>
       </c>
       <c r="C17" t="n">
-        <v>9150</v>
+        <v>9155</v>
       </c>
       <c r="D17" t="n">
         <v>9155</v>
       </c>
       <c r="E17" t="n">
-        <v>9150</v>
+        <v>9155</v>
       </c>
       <c r="F17" t="n">
-        <v>65.5</v>
+        <v>189.7971</v>
       </c>
       <c r="G17" t="n">
-        <v>9184.333333333334</v>
+        <v>9185.916666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>9155</v>
+      </c>
+      <c r="C18" t="n">
         <v>9150</v>
       </c>
-      <c r="C18" t="n">
-        <v>9140</v>
-      </c>
       <c r="D18" t="n">
+        <v>9155</v>
+      </c>
+      <c r="E18" t="n">
         <v>9150</v>
       </c>
-      <c r="E18" t="n">
-        <v>9140</v>
-      </c>
       <c r="F18" t="n">
-        <v>34</v>
+        <v>65.5</v>
       </c>
       <c r="G18" t="n">
-        <v>9182.583333333334</v>
+        <v>9184.333333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9140</v>
+        <v>9150</v>
       </c>
       <c r="C19" t="n">
         <v>9140</v>
       </c>
       <c r="D19" t="n">
-        <v>9140</v>
+        <v>9150</v>
       </c>
       <c r="E19" t="n">
         <v>9140</v>
@@ -1043,7 +1043,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="n">
-        <v>9180.833333333334</v>
+        <v>9182.583333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>9140</v>
       </c>
       <c r="F20" t="n">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="G20" t="n">
-        <v>9179.5</v>
+        <v>9180.833333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>9140</v>
       </c>
       <c r="F21" t="n">
-        <v>35.5</v>
+        <v>97</v>
       </c>
       <c r="G21" t="n">
-        <v>9178.333333333334</v>
+        <v>9179.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9145</v>
+        <v>9140</v>
       </c>
       <c r="C22" t="n">
-        <v>9145</v>
+        <v>9140</v>
       </c>
       <c r="D22" t="n">
-        <v>9145</v>
+        <v>9140</v>
       </c>
       <c r="E22" t="n">
-        <v>9145</v>
+        <v>9140</v>
       </c>
       <c r="F22" t="n">
-        <v>72</v>
+        <v>35.5</v>
       </c>
       <c r="G22" t="n">
-        <v>9177.25</v>
+        <v>9178.333333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>9145</v>
       </c>
       <c r="C23" t="n">
-        <v>9135</v>
+        <v>9145</v>
       </c>
       <c r="D23" t="n">
         <v>9145</v>
       </c>
       <c r="E23" t="n">
-        <v>9135</v>
+        <v>9145</v>
       </c>
       <c r="F23" t="n">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="G23" t="n">
-        <v>9176</v>
+        <v>9177.25</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9135</v>
+        <v>9145</v>
       </c>
       <c r="C24" t="n">
         <v>9135</v>
       </c>
       <c r="D24" t="n">
-        <v>9135</v>
+        <v>9145</v>
       </c>
       <c r="E24" t="n">
         <v>9135</v>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G24" t="n">
-        <v>9174.75</v>
+        <v>9176</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9145</v>
+        <v>9135</v>
       </c>
       <c r="C25" t="n">
         <v>9135</v>
       </c>
       <c r="D25" t="n">
-        <v>9145</v>
+        <v>9135</v>
       </c>
       <c r="E25" t="n">
-        <v>9130</v>
+        <v>9135</v>
       </c>
       <c r="F25" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>9173.583333333334</v>
+        <v>9174.75</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>9145</v>
+      </c>
+      <c r="C26" t="n">
         <v>9135</v>
       </c>
-      <c r="C26" t="n">
-        <v>9130</v>
-      </c>
       <c r="D26" t="n">
-        <v>9135</v>
+        <v>9145</v>
       </c>
       <c r="E26" t="n">
         <v>9130</v>
       </c>
       <c r="F26" t="n">
-        <v>64.5</v>
+        <v>70</v>
       </c>
       <c r="G26" t="n">
-        <v>9172.416666666666</v>
+        <v>9173.583333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9130</v>
+        <v>9135</v>
       </c>
       <c r="C27" t="n">
         <v>9130</v>
       </c>
       <c r="D27" t="n">
-        <v>9130</v>
+        <v>9135</v>
       </c>
       <c r="E27" t="n">
         <v>9130</v>
       </c>
       <c r="F27" t="n">
-        <v>133</v>
+        <v>64.5</v>
       </c>
       <c r="G27" t="n">
-        <v>9171.583333333334</v>
+        <v>9172.416666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>9130</v>
       </c>
       <c r="F28" t="n">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="G28" t="n">
-        <v>9170.75</v>
+        <v>9171.583333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>9130</v>
       </c>
       <c r="C29" t="n">
-        <v>9120</v>
+        <v>9130</v>
       </c>
       <c r="D29" t="n">
         <v>9130</v>
       </c>
       <c r="E29" t="n">
-        <v>9120</v>
+        <v>9130</v>
       </c>
       <c r="F29" t="n">
-        <v>34.5</v>
+        <v>29</v>
       </c>
       <c r="G29" t="n">
-        <v>9169.833333333334</v>
+        <v>9170.75</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9120</v>
+        <v>9130</v>
       </c>
       <c r="C30" t="n">
         <v>9120</v>
       </c>
       <c r="D30" t="n">
-        <v>9120</v>
+        <v>9130</v>
       </c>
       <c r="E30" t="n">
         <v>9120</v>
       </c>
       <c r="F30" t="n">
-        <v>68</v>
+        <v>34.5</v>
       </c>
       <c r="G30" t="n">
-        <v>9168.5</v>
+        <v>9169.833333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>9120</v>
       </c>
       <c r="F31" t="n">
-        <v>31.1611</v>
+        <v>68</v>
       </c>
       <c r="G31" t="n">
-        <v>9166.583333333334</v>
+        <v>9168.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9335</v>
+        <v>9120</v>
       </c>
       <c r="C32" t="n">
-        <v>9345</v>
+        <v>9120</v>
       </c>
       <c r="D32" t="n">
-        <v>9345</v>
+        <v>9120</v>
       </c>
       <c r="E32" t="n">
-        <v>9335</v>
+        <v>9120</v>
       </c>
       <c r="F32" t="n">
-        <v>106.95552835</v>
+        <v>31.1611</v>
       </c>
       <c r="G32" t="n">
-        <v>9168.5</v>
+        <v>9166.583333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9125</v>
+        <v>9335</v>
       </c>
       <c r="C33" t="n">
-        <v>9125</v>
+        <v>9345</v>
       </c>
       <c r="D33" t="n">
-        <v>9125</v>
+        <v>9345</v>
       </c>
       <c r="E33" t="n">
-        <v>9125</v>
+        <v>9335</v>
       </c>
       <c r="F33" t="n">
-        <v>2.9</v>
+        <v>106.95552835</v>
       </c>
       <c r="G33" t="n">
-        <v>9166</v>
+        <v>9168.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9130</v>
+        <v>9125</v>
       </c>
       <c r="C34" t="n">
         <v>9125</v>
       </c>
       <c r="D34" t="n">
-        <v>9130</v>
+        <v>9125</v>
       </c>
       <c r="E34" t="n">
         <v>9125</v>
       </c>
       <c r="F34" t="n">
-        <v>33</v>
+        <v>2.9</v>
       </c>
       <c r="G34" t="n">
-        <v>9164.416666666666</v>
+        <v>9166</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>9130</v>
       </c>
       <c r="C35" t="n">
-        <v>9120</v>
+        <v>9125</v>
       </c>
       <c r="D35" t="n">
         <v>9130</v>
       </c>
       <c r="E35" t="n">
-        <v>9120</v>
+        <v>9125</v>
       </c>
       <c r="F35" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G35" t="n">
-        <v>9163.416666666666</v>
+        <v>9164.416666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9210</v>
+        <v>9130</v>
       </c>
       <c r="C36" t="n">
-        <v>9210</v>
+        <v>9120</v>
       </c>
       <c r="D36" t="n">
-        <v>9210</v>
+        <v>9130</v>
       </c>
       <c r="E36" t="n">
-        <v>9210</v>
+        <v>9120</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5</v>
+        <v>35</v>
       </c>
       <c r="G36" t="n">
-        <v>9163.75</v>
+        <v>9163.416666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9125</v>
+        <v>9210</v>
       </c>
       <c r="C37" t="n">
-        <v>9110</v>
+        <v>9210</v>
       </c>
       <c r="D37" t="n">
-        <v>9125</v>
+        <v>9210</v>
       </c>
       <c r="E37" t="n">
-        <v>9110</v>
+        <v>9210</v>
       </c>
       <c r="F37" t="n">
-        <v>48</v>
+        <v>0.5</v>
       </c>
       <c r="G37" t="n">
-        <v>9162.583333333334</v>
+        <v>9163.75</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9110</v>
+        <v>9125</v>
       </c>
       <c r="C38" t="n">
         <v>9110</v>
       </c>
       <c r="D38" t="n">
-        <v>9110</v>
+        <v>9125</v>
       </c>
       <c r="E38" t="n">
         <v>9110</v>
       </c>
       <c r="F38" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G38" t="n">
-        <v>9161.25</v>
+        <v>9162.583333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>9110</v>
       </c>
       <c r="C39" t="n">
-        <v>9105</v>
+        <v>9110</v>
       </c>
       <c r="D39" t="n">
         <v>9110</v>
       </c>
       <c r="E39" t="n">
-        <v>9105</v>
+        <v>9110</v>
       </c>
       <c r="F39" t="n">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="G39" t="n">
-        <v>9159.916666666666</v>
+        <v>9161.25</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9115</v>
+        <v>9110</v>
       </c>
       <c r="C40" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="D40" t="n">
-        <v>9115</v>
+        <v>9110</v>
       </c>
       <c r="E40" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="F40" t="n">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
-        <v>9158.583333333334</v>
+        <v>9159.916666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9175</v>
+        <v>9115</v>
       </c>
       <c r="C41" t="n">
-        <v>9175</v>
+        <v>9100</v>
       </c>
       <c r="D41" t="n">
-        <v>9175</v>
+        <v>9115</v>
       </c>
       <c r="E41" t="n">
-        <v>9175</v>
+        <v>9100</v>
       </c>
       <c r="F41" t="n">
-        <v>1.0943</v>
+        <v>14</v>
       </c>
       <c r="G41" t="n">
-        <v>9158.333333333334</v>
+        <v>9158.583333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9200</v>
+        <v>9175</v>
       </c>
       <c r="C42" t="n">
-        <v>9205</v>
+        <v>9175</v>
       </c>
       <c r="D42" t="n">
-        <v>9210</v>
+        <v>9175</v>
       </c>
       <c r="E42" t="n">
-        <v>9200</v>
+        <v>9175</v>
       </c>
       <c r="F42" t="n">
-        <v>12.4762</v>
+        <v>1.0943</v>
       </c>
       <c r="G42" t="n">
-        <v>9158.666666666666</v>
+        <v>9158.333333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9220</v>
+        <v>9200</v>
       </c>
       <c r="C43" t="n">
-        <v>9220</v>
+        <v>9205</v>
       </c>
       <c r="D43" t="n">
-        <v>9220</v>
+        <v>9210</v>
       </c>
       <c r="E43" t="n">
-        <v>9220</v>
+        <v>9200</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4869</v>
+        <v>12.4762</v>
       </c>
       <c r="G43" t="n">
-        <v>9159.333333333334</v>
+        <v>9158.666666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9195</v>
+        <v>9220</v>
       </c>
       <c r="C44" t="n">
-        <v>9190</v>
+        <v>9220</v>
       </c>
       <c r="D44" t="n">
-        <v>9195</v>
+        <v>9220</v>
       </c>
       <c r="E44" t="n">
-        <v>9190</v>
+        <v>9220</v>
       </c>
       <c r="F44" t="n">
-        <v>23.9976</v>
+        <v>0.4869</v>
       </c>
       <c r="G44" t="n">
-        <v>9159.583333333334</v>
+        <v>9159.333333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>9195</v>
+      </c>
+      <c r="C45" t="n">
         <v>9190</v>
       </c>
-      <c r="C45" t="n">
-        <v>9255</v>
-      </c>
       <c r="D45" t="n">
-        <v>9255</v>
+        <v>9195</v>
       </c>
       <c r="E45" t="n">
         <v>9190</v>
       </c>
       <c r="F45" t="n">
-        <v>38.2224</v>
+        <v>23.9976</v>
       </c>
       <c r="G45" t="n">
-        <v>9160.083333333334</v>
+        <v>9159.583333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9305</v>
+        <v>9190</v>
       </c>
       <c r="C46" t="n">
-        <v>9310</v>
+        <v>9255</v>
       </c>
       <c r="D46" t="n">
-        <v>9310</v>
+        <v>9255</v>
       </c>
       <c r="E46" t="n">
-        <v>9280</v>
+        <v>9190</v>
       </c>
       <c r="F46" t="n">
-        <v>39.5579</v>
+        <v>38.2224</v>
       </c>
       <c r="G46" t="n">
-        <v>9162.416666666666</v>
+        <v>9160.083333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9195</v>
+        <v>9305</v>
       </c>
       <c r="C47" t="n">
-        <v>9195</v>
+        <v>9310</v>
       </c>
       <c r="D47" t="n">
-        <v>9195</v>
+        <v>9310</v>
       </c>
       <c r="E47" t="n">
-        <v>9195</v>
+        <v>9280</v>
       </c>
       <c r="F47" t="n">
-        <v>18.5037</v>
+        <v>39.5579</v>
       </c>
       <c r="G47" t="n">
-        <v>9162.833333333334</v>
+        <v>9162.416666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,28 +2043,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9210</v>
+        <v>9195</v>
       </c>
       <c r="C48" t="n">
-        <v>9115</v>
+        <v>9195</v>
       </c>
       <c r="D48" t="n">
-        <v>9210</v>
+        <v>9195</v>
       </c>
       <c r="E48" t="n">
-        <v>9115</v>
+        <v>9195</v>
       </c>
       <c r="F48" t="n">
-        <v>31.7451</v>
+        <v>18.5037</v>
       </c>
       <c r="G48" t="n">
-        <v>9162.083333333334</v>
+        <v>9162.833333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9150</v>
+        <v>9210</v>
       </c>
       <c r="C49" t="n">
-        <v>9230</v>
+        <v>9115</v>
       </c>
       <c r="D49" t="n">
-        <v>9230</v>
+        <v>9210</v>
       </c>
       <c r="E49" t="n">
-        <v>9145</v>
+        <v>9115</v>
       </c>
       <c r="F49" t="n">
-        <v>60.9164</v>
+        <v>31.7451</v>
       </c>
       <c r="G49" t="n">
-        <v>9163.25</v>
+        <v>9162.083333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>9150</v>
+      </c>
+      <c r="C50" t="n">
         <v>9230</v>
       </c>
-      <c r="C50" t="n">
-        <v>9235</v>
-      </c>
       <c r="D50" t="n">
-        <v>9235</v>
+        <v>9230</v>
       </c>
       <c r="E50" t="n">
-        <v>9230</v>
+        <v>9145</v>
       </c>
       <c r="F50" t="n">
-        <v>5.7324</v>
+        <v>60.9164</v>
       </c>
       <c r="G50" t="n">
-        <v>9164.5</v>
+        <v>9163.25</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9325</v>
+        <v>9230</v>
       </c>
       <c r="C51" t="n">
-        <v>9325</v>
+        <v>9235</v>
       </c>
       <c r="D51" t="n">
-        <v>9325</v>
+        <v>9235</v>
       </c>
       <c r="E51" t="n">
-        <v>9325</v>
+        <v>9230</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>5.7324</v>
       </c>
       <c r="G51" t="n">
-        <v>9167.416666666666</v>
+        <v>9164.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9140</v>
+        <v>9325</v>
       </c>
       <c r="C52" t="n">
-        <v>9140</v>
+        <v>9325</v>
       </c>
       <c r="D52" t="n">
-        <v>9140</v>
+        <v>9325</v>
       </c>
       <c r="E52" t="n">
-        <v>9140</v>
+        <v>9325</v>
       </c>
       <c r="F52" t="n">
-        <v>2.1958</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>9167.25</v>
+        <v>9167.416666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9170</v>
+        <v>9140</v>
       </c>
       <c r="C53" t="n">
-        <v>9170</v>
+        <v>9140</v>
       </c>
       <c r="D53" t="n">
-        <v>9170</v>
+        <v>9140</v>
       </c>
       <c r="E53" t="n">
-        <v>9170</v>
+        <v>9140</v>
       </c>
       <c r="F53" t="n">
-        <v>2.2201</v>
+        <v>2.1958</v>
       </c>
       <c r="G53" t="n">
-        <v>9167.583333333334</v>
+        <v>9167.25</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9275</v>
+        <v>9170</v>
       </c>
       <c r="C54" t="n">
-        <v>9275</v>
+        <v>9170</v>
       </c>
       <c r="D54" t="n">
-        <v>9275</v>
+        <v>9170</v>
       </c>
       <c r="E54" t="n">
-        <v>9275</v>
+        <v>9170</v>
       </c>
       <c r="F54" t="n">
-        <v>1.8</v>
+        <v>2.2201</v>
       </c>
       <c r="G54" t="n">
-        <v>9169.666666666666</v>
+        <v>9167.583333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9300</v>
+        <v>9275</v>
       </c>
       <c r="C55" t="n">
-        <v>9300</v>
+        <v>9275</v>
       </c>
       <c r="D55" t="n">
-        <v>9300</v>
+        <v>9275</v>
       </c>
       <c r="E55" t="n">
-        <v>9300</v>
+        <v>9275</v>
       </c>
       <c r="F55" t="n">
-        <v>541.8594000000001</v>
+        <v>1.8</v>
       </c>
       <c r="G55" t="n">
-        <v>9172.166666666666</v>
+        <v>9169.666666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9265</v>
+        <v>9300</v>
       </c>
       <c r="C56" t="n">
-        <v>9265</v>
+        <v>9300</v>
       </c>
       <c r="D56" t="n">
-        <v>9265</v>
+        <v>9300</v>
       </c>
       <c r="E56" t="n">
-        <v>9265</v>
+        <v>9300</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5</v>
+        <v>541.8594000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>9173.833333333334</v>
+        <v>9172.166666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>9265</v>
       </c>
       <c r="C57" t="n">
-        <v>9305</v>
+        <v>9265</v>
       </c>
       <c r="D57" t="n">
-        <v>9305</v>
+        <v>9265</v>
       </c>
       <c r="E57" t="n">
         <v>9265</v>
       </c>
       <c r="F57" t="n">
-        <v>2.1918</v>
+        <v>0.5</v>
       </c>
       <c r="G57" t="n">
-        <v>9176.083333333334</v>
+        <v>9173.833333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9300</v>
+        <v>9265</v>
       </c>
       <c r="C58" t="n">
         <v>9305</v>
@@ -2402,13 +2402,13 @@
         <v>9305</v>
       </c>
       <c r="E58" t="n">
-        <v>9300</v>
+        <v>9265</v>
       </c>
       <c r="F58" t="n">
-        <v>10.0635</v>
+        <v>2.1918</v>
       </c>
       <c r="G58" t="n">
-        <v>9178.333333333334</v>
+        <v>9176.083333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9285</v>
+        <v>9300</v>
       </c>
       <c r="C59" t="n">
-        <v>9285</v>
+        <v>9305</v>
       </c>
       <c r="D59" t="n">
-        <v>9285</v>
+        <v>9305</v>
       </c>
       <c r="E59" t="n">
-        <v>9285</v>
+        <v>9300</v>
       </c>
       <c r="F59" t="n">
-        <v>23.4291</v>
+        <v>10.0635</v>
       </c>
       <c r="G59" t="n">
-        <v>9180.25</v>
+        <v>9178.333333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9280</v>
+        <v>9285</v>
       </c>
       <c r="C60" t="n">
-        <v>9280</v>
+        <v>9285</v>
       </c>
       <c r="D60" t="n">
-        <v>9280</v>
+        <v>9285</v>
       </c>
       <c r="E60" t="n">
-        <v>9280</v>
+        <v>9285</v>
       </c>
       <c r="F60" t="n">
-        <v>51.7465</v>
+        <v>23.4291</v>
       </c>
       <c r="G60" t="n">
-        <v>9182</v>
+        <v>9180.25</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9230</v>
+        <v>9280</v>
       </c>
       <c r="C61" t="n">
-        <v>9155</v>
+        <v>9280</v>
       </c>
       <c r="D61" t="n">
-        <v>9230</v>
+        <v>9280</v>
       </c>
       <c r="E61" t="n">
-        <v>9155</v>
+        <v>9280</v>
       </c>
       <c r="F61" t="n">
-        <v>41</v>
+        <v>51.7465</v>
       </c>
       <c r="G61" t="n">
-        <v>9181.666666666666</v>
+        <v>9182</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9175</v>
+        <v>9230</v>
       </c>
       <c r="C62" t="n">
-        <v>9175</v>
+        <v>9155</v>
       </c>
       <c r="D62" t="n">
-        <v>9175</v>
+        <v>9230</v>
       </c>
       <c r="E62" t="n">
-        <v>9175</v>
+        <v>9155</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4614</v>
+        <v>41</v>
       </c>
       <c r="G62" t="n">
-        <v>9180.833333333334</v>
+        <v>9181.666666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9320</v>
+        <v>9175</v>
       </c>
       <c r="C63" t="n">
-        <v>9320</v>
+        <v>9175</v>
       </c>
       <c r="D63" t="n">
-        <v>9320</v>
+        <v>9175</v>
       </c>
       <c r="E63" t="n">
-        <v>9320</v>
+        <v>9175</v>
       </c>
       <c r="F63" t="n">
-        <v>1.07296137</v>
+        <v>0.4614</v>
       </c>
       <c r="G63" t="n">
-        <v>9183.25</v>
+        <v>9180.833333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9225</v>
+        <v>9320</v>
       </c>
       <c r="C64" t="n">
-        <v>9225</v>
+        <v>9320</v>
       </c>
       <c r="D64" t="n">
-        <v>9225</v>
+        <v>9320</v>
       </c>
       <c r="E64" t="n">
-        <v>9225</v>
+        <v>9320</v>
       </c>
       <c r="F64" t="n">
-        <v>12.86</v>
+        <v>1.07296137</v>
       </c>
       <c r="G64" t="n">
-        <v>9184.083333333334</v>
+        <v>9183.25</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9250</v>
+        <v>9225</v>
       </c>
       <c r="C65" t="n">
-        <v>9250</v>
+        <v>9225</v>
       </c>
       <c r="D65" t="n">
-        <v>9250</v>
+        <v>9225</v>
       </c>
       <c r="E65" t="n">
-        <v>9250</v>
+        <v>9225</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4</v>
+        <v>12.86</v>
       </c>
       <c r="G65" t="n">
-        <v>9185.333333333334</v>
+        <v>9184.083333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9225</v>
+        <v>9250</v>
       </c>
       <c r="C66" t="n">
-        <v>9230</v>
+        <v>9250</v>
       </c>
       <c r="D66" t="n">
-        <v>9230</v>
+        <v>9250</v>
       </c>
       <c r="E66" t="n">
-        <v>9225</v>
+        <v>9250</v>
       </c>
       <c r="F66" t="n">
-        <v>83.73</v>
+        <v>0.4</v>
       </c>
       <c r="G66" t="n">
-        <v>9186.25</v>
+        <v>9185.333333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9230</v>
+        <v>9225</v>
       </c>
       <c r="C67" t="n">
         <v>9230</v>
@@ -2717,13 +2717,13 @@
         <v>9230</v>
       </c>
       <c r="E67" t="n">
-        <v>9230</v>
+        <v>9225</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5580000000000001</v>
+        <v>83.73</v>
       </c>
       <c r="G67" t="n">
-        <v>9187.083333333334</v>
+        <v>9186.25</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>9230</v>
       </c>
       <c r="C68" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="D68" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="E68" t="n">
         <v>9230</v>
       </c>
       <c r="F68" t="n">
-        <v>12.1491</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>9188.166666666666</v>
+        <v>9187.083333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9250</v>
+        <v>9230</v>
       </c>
       <c r="C69" t="n">
-        <v>9250</v>
+        <v>9240</v>
       </c>
       <c r="D69" t="n">
-        <v>9250</v>
+        <v>9240</v>
       </c>
       <c r="E69" t="n">
-        <v>9250</v>
+        <v>9230</v>
       </c>
       <c r="F69" t="n">
-        <v>249.6648</v>
+        <v>12.1491</v>
       </c>
       <c r="G69" t="n">
-        <v>9189.5</v>
+        <v>9188.166666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9260</v>
+        <v>9250</v>
       </c>
       <c r="C70" t="n">
-        <v>9260</v>
+        <v>9250</v>
       </c>
       <c r="D70" t="n">
-        <v>9260</v>
+        <v>9250</v>
       </c>
       <c r="E70" t="n">
-        <v>9260</v>
+        <v>9250</v>
       </c>
       <c r="F70" t="n">
-        <v>14.6331</v>
+        <v>249.6648</v>
       </c>
       <c r="G70" t="n">
-        <v>9190.833333333334</v>
+        <v>9189.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2851,19 +2851,19 @@
         <v>9260</v>
       </c>
       <c r="C71" t="n">
-        <v>9265</v>
+        <v>9260</v>
       </c>
       <c r="D71" t="n">
-        <v>9265</v>
+        <v>9260</v>
       </c>
       <c r="E71" t="n">
         <v>9260</v>
       </c>
       <c r="F71" t="n">
-        <v>101.0328</v>
+        <v>14.6331</v>
       </c>
       <c r="G71" t="n">
-        <v>9192.416666666666</v>
+        <v>9190.833333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9200</v>
+        <v>9260</v>
       </c>
       <c r="C72" t="n">
-        <v>9200</v>
+        <v>9265</v>
       </c>
       <c r="D72" t="n">
-        <v>9200</v>
+        <v>9265</v>
       </c>
       <c r="E72" t="n">
-        <v>9200</v>
+        <v>9260</v>
       </c>
       <c r="F72" t="n">
-        <v>340.1814</v>
+        <v>101.0328</v>
       </c>
       <c r="G72" t="n">
-        <v>9192.916666666666</v>
+        <v>9192.416666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9250</v>
+        <v>9200</v>
       </c>
       <c r="C73" t="n">
-        <v>9250</v>
+        <v>9200</v>
       </c>
       <c r="D73" t="n">
-        <v>9250</v>
+        <v>9200</v>
       </c>
       <c r="E73" t="n">
-        <v>9250</v>
+        <v>9200</v>
       </c>
       <c r="F73" t="n">
-        <v>241.5915</v>
+        <v>340.1814</v>
       </c>
       <c r="G73" t="n">
-        <v>9194.333333333334</v>
+        <v>9192.916666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="C74" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="D74" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="E74" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="F74" t="n">
-        <v>103.3197</v>
+        <v>241.5915</v>
       </c>
       <c r="G74" t="n">
-        <v>9195.833333333334</v>
+        <v>9194.333333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9270</v>
+        <v>9255</v>
       </c>
       <c r="C75" t="n">
-        <v>9270</v>
+        <v>9255</v>
       </c>
       <c r="D75" t="n">
-        <v>9270</v>
+        <v>9255</v>
       </c>
       <c r="E75" t="n">
-        <v>9270</v>
+        <v>9255</v>
       </c>
       <c r="F75" t="n">
-        <v>10.2809</v>
+        <v>103.3197</v>
       </c>
       <c r="G75" t="n">
-        <v>9197.833333333334</v>
+        <v>9195.833333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>9270</v>
       </c>
       <c r="F76" t="n">
-        <v>3.0311</v>
+        <v>10.2809</v>
       </c>
       <c r="G76" t="n">
-        <v>9199.75</v>
+        <v>9197.833333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9265</v>
+        <v>9270</v>
       </c>
       <c r="C77" t="n">
-        <v>9265</v>
+        <v>9270</v>
       </c>
       <c r="D77" t="n">
-        <v>9265</v>
+        <v>9270</v>
       </c>
       <c r="E77" t="n">
-        <v>9265</v>
+        <v>9270</v>
       </c>
       <c r="F77" t="n">
-        <v>10.7933</v>
+        <v>3.0311</v>
       </c>
       <c r="G77" t="n">
-        <v>9201.666666666666</v>
+        <v>9199.75</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9195</v>
+        <v>9265</v>
       </c>
       <c r="C78" t="n">
-        <v>9185</v>
+        <v>9265</v>
       </c>
       <c r="D78" t="n">
-        <v>9195</v>
+        <v>9265</v>
       </c>
       <c r="E78" t="n">
-        <v>9185</v>
+        <v>9265</v>
       </c>
       <c r="F78" t="n">
-        <v>61</v>
+        <v>10.7933</v>
       </c>
       <c r="G78" t="n">
-        <v>9202.416666666666</v>
+        <v>9201.666666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>9195</v>
+      </c>
+      <c r="C79" t="n">
         <v>9185</v>
       </c>
-      <c r="C79" t="n">
-        <v>9150</v>
-      </c>
       <c r="D79" t="n">
+        <v>9195</v>
+      </c>
+      <c r="E79" t="n">
         <v>9185</v>
       </c>
-      <c r="E79" t="n">
-        <v>9150</v>
-      </c>
       <c r="F79" t="n">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="G79" t="n">
-        <v>9202.583333333334</v>
+        <v>9202.416666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>9185</v>
+      </c>
+      <c r="C80" t="n">
         <v>9150</v>
       </c>
-      <c r="C80" t="n">
-        <v>9155</v>
-      </c>
       <c r="D80" t="n">
-        <v>9155</v>
+        <v>9185</v>
       </c>
       <c r="E80" t="n">
         <v>9150</v>
       </c>
       <c r="F80" t="n">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="G80" t="n">
-        <v>9202.833333333334</v>
+        <v>9202.583333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9155</v>
+        <v>9150</v>
       </c>
       <c r="C81" t="n">
         <v>9155</v>
@@ -3207,13 +3207,13 @@
         <v>9155</v>
       </c>
       <c r="E81" t="n">
-        <v>9155</v>
+        <v>9150</v>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G81" t="n">
-        <v>9203.083333333334</v>
+        <v>9202.833333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9160</v>
+        <v>9155</v>
       </c>
       <c r="C82" t="n">
-        <v>9160</v>
+        <v>9155</v>
       </c>
       <c r="D82" t="n">
-        <v>9160</v>
+        <v>9155</v>
       </c>
       <c r="E82" t="n">
-        <v>9160</v>
+        <v>9155</v>
       </c>
       <c r="F82" t="n">
-        <v>13.772</v>
+        <v>4</v>
       </c>
       <c r="G82" t="n">
-        <v>9203.333333333334</v>
+        <v>9203.083333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9215</v>
+        <v>9160</v>
       </c>
       <c r="C83" t="n">
-        <v>9215</v>
+        <v>9160</v>
       </c>
       <c r="D83" t="n">
-        <v>9215</v>
+        <v>9160</v>
       </c>
       <c r="E83" t="n">
-        <v>9215</v>
+        <v>9160</v>
       </c>
       <c r="F83" t="n">
-        <v>12.2354</v>
+        <v>13.772</v>
       </c>
       <c r="G83" t="n">
-        <v>9204.666666666666</v>
+        <v>9203.333333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9270</v>
+        <v>9215</v>
       </c>
       <c r="C84" t="n">
-        <v>9270</v>
+        <v>9215</v>
       </c>
       <c r="D84" t="n">
-        <v>9270</v>
+        <v>9215</v>
       </c>
       <c r="E84" t="n">
-        <v>9270</v>
+        <v>9215</v>
       </c>
       <c r="F84" t="n">
-        <v>388.301</v>
+        <v>12.2354</v>
       </c>
       <c r="G84" t="n">
-        <v>9206.916666666666</v>
+        <v>9204.666666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="C85" t="n">
         <v>9270</v>
       </c>
       <c r="D85" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="E85" t="n">
         <v>9270</v>
       </c>
       <c r="F85" t="n">
-        <v>68.7697</v>
+        <v>388.301</v>
       </c>
       <c r="G85" t="n">
-        <v>9209.166666666666</v>
+        <v>9206.916666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9270</v>
+        <v>9275</v>
       </c>
       <c r="C86" t="n">
         <v>9270</v>
       </c>
       <c r="D86" t="n">
-        <v>9270</v>
+        <v>9275</v>
       </c>
       <c r="E86" t="n">
         <v>9270</v>
       </c>
       <c r="F86" t="n">
-        <v>10.5017</v>
+        <v>68.7697</v>
       </c>
       <c r="G86" t="n">
-        <v>9211.5</v>
+        <v>9209.166666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9245</v>
+        <v>9270</v>
       </c>
       <c r="C87" t="n">
-        <v>9230</v>
+        <v>9270</v>
       </c>
       <c r="D87" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="E87" t="n">
-        <v>9230</v>
+        <v>9270</v>
       </c>
       <c r="F87" t="n">
-        <v>299.7109</v>
+        <v>10.5017</v>
       </c>
       <c r="G87" t="n">
-        <v>9213.166666666666</v>
+        <v>9211.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9220</v>
+        <v>9245</v>
       </c>
       <c r="C88" t="n">
-        <v>9215</v>
+        <v>9230</v>
       </c>
       <c r="D88" t="n">
-        <v>9220</v>
+        <v>9275</v>
       </c>
       <c r="E88" t="n">
-        <v>9215</v>
+        <v>9230</v>
       </c>
       <c r="F88" t="n">
-        <v>74.9465</v>
+        <v>299.7109</v>
       </c>
       <c r="G88" t="n">
-        <v>9214.583333333334</v>
+        <v>9213.166666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9185</v>
+        <v>9220</v>
       </c>
       <c r="C89" t="n">
-        <v>9185</v>
+        <v>9215</v>
       </c>
       <c r="D89" t="n">
-        <v>9185</v>
+        <v>9220</v>
       </c>
       <c r="E89" t="n">
-        <v>9185</v>
+        <v>9215</v>
       </c>
       <c r="F89" t="n">
-        <v>17.7183</v>
+        <v>74.9465</v>
       </c>
       <c r="G89" t="n">
-        <v>9215.666666666666</v>
+        <v>9214.583333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9235</v>
+        <v>9185</v>
       </c>
       <c r="C90" t="n">
-        <v>9375</v>
+        <v>9185</v>
       </c>
       <c r="D90" t="n">
-        <v>9375</v>
+        <v>9185</v>
       </c>
       <c r="E90" t="n">
-        <v>9235</v>
+        <v>9185</v>
       </c>
       <c r="F90" t="n">
-        <v>18.9613137</v>
+        <v>17.7183</v>
       </c>
       <c r="G90" t="n">
-        <v>9219.916666666666</v>
+        <v>9215.666666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9230</v>
+        <v>9235</v>
       </c>
       <c r="C91" t="n">
-        <v>9230</v>
+        <v>9375</v>
       </c>
       <c r="D91" t="n">
-        <v>9230</v>
+        <v>9375</v>
       </c>
       <c r="E91" t="n">
-        <v>9230</v>
+        <v>9235</v>
       </c>
       <c r="F91" t="n">
-        <v>36.9871</v>
+        <v>18.9613137</v>
       </c>
       <c r="G91" t="n">
-        <v>9221.75</v>
+        <v>9219.916666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="C92" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="D92" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="E92" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="F92" t="n">
-        <v>49.2601</v>
+        <v>36.9871</v>
       </c>
       <c r="G92" t="n">
-        <v>9220</v>
+        <v>9221.75</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9245</v>
+        <v>9240</v>
       </c>
       <c r="C93" t="n">
         <v>9240</v>
       </c>
       <c r="D93" t="n">
-        <v>9245</v>
+        <v>9240</v>
       </c>
       <c r="E93" t="n">
         <v>9240</v>
       </c>
       <c r="F93" t="n">
-        <v>558.7833000000001</v>
+        <v>49.2601</v>
       </c>
       <c r="G93" t="n">
-        <v>9221.916666666666</v>
+        <v>9220</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3656,19 @@
         <v>9245</v>
       </c>
       <c r="C94" t="n">
-        <v>9245</v>
+        <v>9240</v>
       </c>
       <c r="D94" t="n">
         <v>9245</v>
       </c>
       <c r="E94" t="n">
-        <v>9245</v>
+        <v>9240</v>
       </c>
       <c r="F94" t="n">
-        <v>5.55</v>
+        <v>558.7833000000001</v>
       </c>
       <c r="G94" t="n">
-        <v>9223.916666666666</v>
+        <v>9221.916666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9330</v>
+        <v>9245</v>
       </c>
       <c r="C95" t="n">
-        <v>9330</v>
+        <v>9245</v>
       </c>
       <c r="D95" t="n">
-        <v>9330</v>
+        <v>9245</v>
       </c>
       <c r="E95" t="n">
-        <v>9330</v>
+        <v>9245</v>
       </c>
       <c r="F95" t="n">
-        <v>10</v>
+        <v>5.55</v>
       </c>
       <c r="G95" t="n">
-        <v>9227.416666666666</v>
+        <v>9223.916666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3726,19 +3726,19 @@
         <v>9330</v>
       </c>
       <c r="C96" t="n">
-        <v>9240</v>
+        <v>9330</v>
       </c>
       <c r="D96" t="n">
         <v>9330</v>
       </c>
       <c r="E96" t="n">
-        <v>9240</v>
+        <v>9330</v>
       </c>
       <c r="F96" t="n">
-        <v>101.5717</v>
+        <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>9227.916666666666</v>
+        <v>9227.416666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9240</v>
+        <v>9330</v>
       </c>
       <c r="C97" t="n">
         <v>9240</v>
       </c>
       <c r="D97" t="n">
-        <v>9240</v>
+        <v>9330</v>
       </c>
       <c r="E97" t="n">
         <v>9240</v>
       </c>
       <c r="F97" t="n">
-        <v>42</v>
+        <v>101.5717</v>
       </c>
       <c r="G97" t="n">
-        <v>9230.083333333334</v>
+        <v>9227.916666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>9240</v>
       </c>
       <c r="C98" t="n">
-        <v>9100</v>
+        <v>9240</v>
       </c>
       <c r="D98" t="n">
         <v>9240</v>
       </c>
       <c r="E98" t="n">
-        <v>9085</v>
+        <v>9240</v>
       </c>
       <c r="F98" t="n">
-        <v>1013.6774</v>
+        <v>42</v>
       </c>
       <c r="G98" t="n">
-        <v>9229.916666666666</v>
+        <v>9230.083333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9100</v>
+        <v>9240</v>
       </c>
       <c r="C99" t="n">
         <v>9100</v>
       </c>
       <c r="D99" t="n">
-        <v>9110</v>
+        <v>9240</v>
       </c>
       <c r="E99" t="n">
-        <v>9100</v>
+        <v>9085</v>
       </c>
       <c r="F99" t="n">
-        <v>64.5</v>
+        <v>1013.6774</v>
       </c>
       <c r="G99" t="n">
-        <v>9229.833333333334</v>
+        <v>9229.916666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9165</v>
+        <v>9100</v>
       </c>
       <c r="C100" t="n">
-        <v>9165</v>
+        <v>9100</v>
       </c>
       <c r="D100" t="n">
-        <v>9165</v>
+        <v>9110</v>
       </c>
       <c r="E100" t="n">
-        <v>9165</v>
+        <v>9100</v>
       </c>
       <c r="F100" t="n">
-        <v>86.2234</v>
+        <v>64.5</v>
       </c>
       <c r="G100" t="n">
-        <v>9230.916666666666</v>
+        <v>9229.833333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9200</v>
+        <v>9165</v>
       </c>
       <c r="C101" t="n">
-        <v>9200</v>
+        <v>9165</v>
       </c>
       <c r="D101" t="n">
-        <v>9200</v>
+        <v>9165</v>
       </c>
       <c r="E101" t="n">
-        <v>9200</v>
+        <v>9165</v>
       </c>
       <c r="F101" t="n">
-        <v>19.9009</v>
+        <v>86.2234</v>
       </c>
       <c r="G101" t="n">
-        <v>9231.333333333334</v>
+        <v>9230.916666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9315</v>
+        <v>9200</v>
       </c>
       <c r="C102" t="n">
-        <v>9325</v>
+        <v>9200</v>
       </c>
       <c r="D102" t="n">
-        <v>9325</v>
+        <v>9200</v>
       </c>
       <c r="E102" t="n">
-        <v>9315</v>
+        <v>9200</v>
       </c>
       <c r="F102" t="n">
-        <v>26.0796</v>
+        <v>19.9009</v>
       </c>
       <c r="G102" t="n">
-        <v>9233.333333333334</v>
+        <v>9231.333333333334</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9205</v>
+        <v>9315</v>
       </c>
       <c r="C103" t="n">
-        <v>9215</v>
+        <v>9325</v>
       </c>
       <c r="D103" t="n">
-        <v>9215</v>
+        <v>9325</v>
       </c>
       <c r="E103" t="n">
-        <v>9205</v>
+        <v>9315</v>
       </c>
       <c r="F103" t="n">
-        <v>26.4383</v>
+        <v>26.0796</v>
       </c>
       <c r="G103" t="n">
-        <v>9233.25</v>
+        <v>9233.333333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9230</v>
+        <v>9205</v>
       </c>
       <c r="C104" t="n">
         <v>9215</v>
       </c>
       <c r="D104" t="n">
-        <v>9260</v>
+        <v>9215</v>
       </c>
       <c r="E104" t="n">
-        <v>9215</v>
+        <v>9205</v>
       </c>
       <c r="F104" t="n">
-        <v>202.8281</v>
+        <v>26.4383</v>
       </c>
       <c r="G104" t="n">
-        <v>9233.666666666666</v>
+        <v>9233.25</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9215</v>
+        <v>9230</v>
       </c>
       <c r="C105" t="n">
         <v>9215</v>
       </c>
       <c r="D105" t="n">
-        <v>9215</v>
+        <v>9260</v>
       </c>
       <c r="E105" t="n">
         <v>9215</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>202.8281</v>
       </c>
       <c r="G105" t="n">
-        <v>9233</v>
+        <v>9233.666666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9225</v>
+        <v>9215</v>
       </c>
       <c r="C106" t="n">
-        <v>9225</v>
+        <v>9215</v>
       </c>
       <c r="D106" t="n">
-        <v>9225</v>
+        <v>9215</v>
       </c>
       <c r="E106" t="n">
-        <v>9225</v>
+        <v>9215</v>
       </c>
       <c r="F106" t="n">
-        <v>12.3386</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>9231.583333333334</v>
+        <v>9233</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9270</v>
+        <v>9225</v>
       </c>
       <c r="C107" t="n">
-        <v>9270</v>
+        <v>9225</v>
       </c>
       <c r="D107" t="n">
-        <v>9270</v>
+        <v>9225</v>
       </c>
       <c r="E107" t="n">
-        <v>9270</v>
+        <v>9225</v>
       </c>
       <c r="F107" t="n">
-        <v>1.6038</v>
+        <v>12.3386</v>
       </c>
       <c r="G107" t="n">
-        <v>9232.833333333334</v>
+        <v>9231.583333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9285</v>
+        <v>9270</v>
       </c>
       <c r="C108" t="n">
         <v>9270</v>
       </c>
       <c r="D108" t="n">
-        <v>9285</v>
+        <v>9270</v>
       </c>
       <c r="E108" t="n">
         <v>9270</v>
       </c>
       <c r="F108" t="n">
-        <v>20.1264</v>
+        <v>1.6038</v>
       </c>
       <c r="G108" t="n">
-        <v>9235.416666666666</v>
+        <v>9232.833333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9315</v>
+        <v>9285</v>
       </c>
       <c r="C109" t="n">
-        <v>9245</v>
+        <v>9270</v>
       </c>
       <c r="D109" t="n">
-        <v>9315</v>
+        <v>9285</v>
       </c>
       <c r="E109" t="n">
-        <v>9245</v>
+        <v>9270</v>
       </c>
       <c r="F109" t="n">
-        <v>43.5133</v>
+        <v>20.1264</v>
       </c>
       <c r="G109" t="n">
-        <v>9235.666666666666</v>
+        <v>9235.416666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>9315</v>
+      </c>
+      <c r="C110" t="n">
         <v>9245</v>
       </c>
-      <c r="C110" t="n">
-        <v>9165</v>
-      </c>
       <c r="D110" t="n">
+        <v>9315</v>
+      </c>
+      <c r="E110" t="n">
         <v>9245</v>
       </c>
-      <c r="E110" t="n">
-        <v>9165</v>
-      </c>
       <c r="F110" t="n">
-        <v>496.0999</v>
+        <v>43.5133</v>
       </c>
       <c r="G110" t="n">
-        <v>9234.5</v>
+        <v>9235.666666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9195</v>
+        <v>9245</v>
       </c>
       <c r="C111" t="n">
-        <v>9195</v>
+        <v>9165</v>
       </c>
       <c r="D111" t="n">
-        <v>9195</v>
+        <v>9245</v>
       </c>
       <c r="E111" t="n">
-        <v>9195</v>
+        <v>9165</v>
       </c>
       <c r="F111" t="n">
-        <v>36.7062</v>
+        <v>496.0999</v>
       </c>
       <c r="G111" t="n">
-        <v>9232.333333333334</v>
+        <v>9234.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9215</v>
+        <v>9195</v>
       </c>
       <c r="C112" t="n">
-        <v>9215</v>
+        <v>9195</v>
       </c>
       <c r="D112" t="n">
-        <v>9215</v>
+        <v>9195</v>
       </c>
       <c r="E112" t="n">
-        <v>9215</v>
+        <v>9195</v>
       </c>
       <c r="F112" t="n">
-        <v>4.6708</v>
+        <v>36.7062</v>
       </c>
       <c r="G112" t="n">
-        <v>9233.583333333334</v>
+        <v>9232.333333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9250</v>
+        <v>9215</v>
       </c>
       <c r="C113" t="n">
-        <v>9250</v>
+        <v>9215</v>
       </c>
       <c r="D113" t="n">
-        <v>9250</v>
+        <v>9215</v>
       </c>
       <c r="E113" t="n">
-        <v>9250</v>
+        <v>9215</v>
       </c>
       <c r="F113" t="n">
-        <v>10.8958</v>
+        <v>4.6708</v>
       </c>
       <c r="G113" t="n">
-        <v>9234.916666666666</v>
+        <v>9233.583333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9205</v>
+        <v>9250</v>
       </c>
       <c r="C114" t="n">
-        <v>9200</v>
+        <v>9250</v>
       </c>
       <c r="D114" t="n">
-        <v>9205</v>
+        <v>9250</v>
       </c>
       <c r="E114" t="n">
-        <v>9200</v>
+        <v>9250</v>
       </c>
       <c r="F114" t="n">
-        <v>101.41</v>
+        <v>10.8958</v>
       </c>
       <c r="G114" t="n">
-        <v>9233.666666666666</v>
+        <v>9234.916666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9170</v>
+        <v>9205</v>
       </c>
       <c r="C115" t="n">
-        <v>9165</v>
+        <v>9200</v>
       </c>
       <c r="D115" t="n">
-        <v>9170</v>
+        <v>9205</v>
       </c>
       <c r="E115" t="n">
-        <v>9165</v>
+        <v>9200</v>
       </c>
       <c r="F115" t="n">
-        <v>291.9555</v>
+        <v>101.41</v>
       </c>
       <c r="G115" t="n">
-        <v>9231.416666666666</v>
+        <v>9233.666666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9165</v>
+        <v>9170</v>
       </c>
       <c r="C116" t="n">
         <v>9165</v>
       </c>
       <c r="D116" t="n">
-        <v>9165</v>
+        <v>9170</v>
       </c>
       <c r="E116" t="n">
         <v>9165</v>
       </c>
       <c r="F116" t="n">
-        <v>9.853899999999999</v>
+        <v>291.9555</v>
       </c>
       <c r="G116" t="n">
-        <v>9229.75</v>
+        <v>9231.416666666666</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9110</v>
+        <v>9165</v>
       </c>
       <c r="C117" t="n">
-        <v>9080</v>
+        <v>9165</v>
       </c>
       <c r="D117" t="n">
-        <v>9110</v>
+        <v>9165</v>
       </c>
       <c r="E117" t="n">
-        <v>9080</v>
+        <v>9165</v>
       </c>
       <c r="F117" t="n">
-        <v>797</v>
+        <v>9.853899999999999</v>
       </c>
       <c r="G117" t="n">
-        <v>9226</v>
+        <v>9229.75</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9100</v>
+        <v>9110</v>
       </c>
       <c r="C118" t="n">
-        <v>9105</v>
+        <v>9080</v>
       </c>
       <c r="D118" t="n">
-        <v>9105</v>
+        <v>9110</v>
       </c>
       <c r="E118" t="n">
-        <v>9100</v>
+        <v>9080</v>
       </c>
       <c r="F118" t="n">
-        <v>242.1889</v>
+        <v>797</v>
       </c>
       <c r="G118" t="n">
-        <v>9222.666666666666</v>
+        <v>9226</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4531,19 +4531,19 @@
         <v>9100</v>
       </c>
       <c r="C119" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="D119" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="E119" t="n">
         <v>9100</v>
       </c>
       <c r="F119" t="n">
-        <v>8.8339</v>
+        <v>242.1889</v>
       </c>
       <c r="G119" t="n">
-        <v>9219.583333333334</v>
+        <v>9222.666666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,31 +4563,35 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9135</v>
+        <v>9100</v>
       </c>
       <c r="C120" t="n">
-        <v>9135</v>
+        <v>9100</v>
       </c>
       <c r="D120" t="n">
-        <v>9135</v>
+        <v>9100</v>
       </c>
       <c r="E120" t="n">
-        <v>9135</v>
+        <v>9100</v>
       </c>
       <c r="F120" t="n">
-        <v>100</v>
+        <v>8.8339</v>
       </c>
       <c r="G120" t="n">
-        <v>9217.166666666666</v>
+        <v>9219.583333333334</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>9105</v>
+      </c>
+      <c r="K120" t="n">
+        <v>9105</v>
+      </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
@@ -4598,22 +4602,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9110</v>
+        <v>9135</v>
       </c>
       <c r="C121" t="n">
-        <v>9075</v>
+        <v>9135</v>
       </c>
       <c r="D121" t="n">
-        <v>9110</v>
+        <v>9135</v>
       </c>
       <c r="E121" t="n">
-        <v>9070</v>
+        <v>9135</v>
       </c>
       <c r="F121" t="n">
-        <v>643.7294000000001</v>
+        <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>9215.833333333334</v>
+        <v>9217.166666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4622,8 +4626,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4633,32 +4643,40 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>9110</v>
+      </c>
+      <c r="C122" t="n">
         <v>9075</v>
       </c>
-      <c r="C122" t="n">
-        <v>9070</v>
-      </c>
       <c r="D122" t="n">
-        <v>9075</v>
+        <v>9110</v>
       </c>
       <c r="E122" t="n">
         <v>9070</v>
       </c>
       <c r="F122" t="n">
-        <v>132.8464</v>
+        <v>643.7294000000001</v>
       </c>
       <c r="G122" t="n">
-        <v>9214.083333333334</v>
+        <v>9215.833333333334</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>9135</v>
+      </c>
+      <c r="K122" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4668,22 +4686,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9120</v>
+        <v>9075</v>
       </c>
       <c r="C123" t="n">
-        <v>9115</v>
+        <v>9070</v>
       </c>
       <c r="D123" t="n">
-        <v>9120</v>
+        <v>9075</v>
       </c>
       <c r="E123" t="n">
-        <v>9075</v>
+        <v>9070</v>
       </c>
       <c r="F123" t="n">
-        <v>0.5</v>
+        <v>132.8464</v>
       </c>
       <c r="G123" t="n">
-        <v>9210.666666666666</v>
+        <v>9214.083333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4692,8 +4710,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4703,22 +4727,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9075</v>
+        <v>9120</v>
       </c>
       <c r="C124" t="n">
-        <v>9075</v>
+        <v>9115</v>
       </c>
       <c r="D124" t="n">
-        <v>9115</v>
+        <v>9120</v>
       </c>
       <c r="E124" t="n">
         <v>9075</v>
       </c>
       <c r="F124" t="n">
-        <v>16.2751</v>
+        <v>0.5</v>
       </c>
       <c r="G124" t="n">
-        <v>9208.166666666666</v>
+        <v>9210.666666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4727,8 +4751,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4738,22 +4768,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9105</v>
+        <v>9075</v>
       </c>
       <c r="C125" t="n">
-        <v>9125</v>
+        <v>9075</v>
       </c>
       <c r="D125" t="n">
-        <v>9140</v>
+        <v>9115</v>
       </c>
       <c r="E125" t="n">
         <v>9075</v>
       </c>
       <c r="F125" t="n">
-        <v>0.4</v>
+        <v>16.2751</v>
       </c>
       <c r="G125" t="n">
-        <v>9206.083333333334</v>
+        <v>9208.166666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4762,8 +4792,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4776,19 +4812,19 @@
         <v>9105</v>
       </c>
       <c r="C126" t="n">
-        <v>9105</v>
+        <v>9125</v>
       </c>
       <c r="D126" t="n">
-        <v>9105</v>
+        <v>9140</v>
       </c>
       <c r="E126" t="n">
-        <v>9105</v>
+        <v>9075</v>
       </c>
       <c r="F126" t="n">
-        <v>5.0737</v>
+        <v>0.4</v>
       </c>
       <c r="G126" t="n">
-        <v>9204</v>
+        <v>9206.083333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4797,8 +4833,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4808,22 +4850,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9075</v>
+        <v>9105</v>
       </c>
       <c r="C127" t="n">
-        <v>9075</v>
+        <v>9105</v>
       </c>
       <c r="D127" t="n">
-        <v>9075</v>
+        <v>9105</v>
       </c>
       <c r="E127" t="n">
-        <v>9075</v>
+        <v>9105</v>
       </c>
       <c r="F127" t="n">
-        <v>0.2</v>
+        <v>5.0737</v>
       </c>
       <c r="G127" t="n">
-        <v>9201.416666666666</v>
+        <v>9204</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4832,8 +4874,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4843,22 +4891,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9110</v>
+        <v>9075</v>
       </c>
       <c r="C128" t="n">
-        <v>9105</v>
+        <v>9075</v>
       </c>
       <c r="D128" t="n">
-        <v>9110</v>
+        <v>9075</v>
       </c>
       <c r="E128" t="n">
-        <v>9105</v>
+        <v>9075</v>
       </c>
       <c r="F128" t="n">
-        <v>31.665</v>
+        <v>0.2</v>
       </c>
       <c r="G128" t="n">
-        <v>9199.166666666666</v>
+        <v>9201.416666666666</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4867,8 +4915,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4878,22 +4932,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9100</v>
+        <v>9110</v>
       </c>
       <c r="C129" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="D129" t="n">
-        <v>9100</v>
+        <v>9110</v>
       </c>
       <c r="E129" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="F129" t="n">
-        <v>17.1557</v>
+        <v>31.665</v>
       </c>
       <c r="G129" t="n">
-        <v>9196.666666666666</v>
+        <v>9199.166666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4902,8 +4956,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4913,22 +4973,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9135</v>
+        <v>9100</v>
       </c>
       <c r="C130" t="n">
-        <v>9075</v>
+        <v>9100</v>
       </c>
       <c r="D130" t="n">
-        <v>9135</v>
+        <v>9100</v>
       </c>
       <c r="E130" t="n">
-        <v>9075</v>
+        <v>9100</v>
       </c>
       <c r="F130" t="n">
-        <v>0.2</v>
+        <v>17.1557</v>
       </c>
       <c r="G130" t="n">
-        <v>9193.583333333334</v>
+        <v>9196.666666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4937,8 +4997,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4948,22 +5014,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9250</v>
+        <v>9135</v>
       </c>
       <c r="C131" t="n">
-        <v>9215</v>
+        <v>9075</v>
       </c>
       <c r="D131" t="n">
-        <v>9250</v>
+        <v>9135</v>
       </c>
       <c r="E131" t="n">
-        <v>9215</v>
+        <v>9075</v>
       </c>
       <c r="F131" t="n">
         <v>0.2</v>
       </c>
       <c r="G131" t="n">
-        <v>9192.75</v>
+        <v>9193.583333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4972,8 +5038,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -4983,22 +5055,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9075</v>
+        <v>9250</v>
       </c>
       <c r="C132" t="n">
-        <v>9290</v>
+        <v>9215</v>
       </c>
       <c r="D132" t="n">
-        <v>9290</v>
+        <v>9250</v>
       </c>
       <c r="E132" t="n">
-        <v>9075</v>
+        <v>9215</v>
       </c>
       <c r="F132" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G132" t="n">
-        <v>9194.25</v>
+        <v>9192.75</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5007,8 +5079,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5018,22 +5096,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9150</v>
+        <v>9075</v>
       </c>
       <c r="C133" t="n">
-        <v>9150</v>
+        <v>9290</v>
       </c>
       <c r="D133" t="n">
-        <v>9150</v>
+        <v>9290</v>
       </c>
       <c r="E133" t="n">
-        <v>9150</v>
+        <v>9075</v>
       </c>
       <c r="F133" t="n">
-        <v>16.856</v>
+        <v>0.3</v>
       </c>
       <c r="G133" t="n">
-        <v>9192.583333333334</v>
+        <v>9194.25</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5042,8 +5120,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5053,19 +5137,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9255</v>
+        <v>9150</v>
       </c>
       <c r="C134" t="n">
-        <v>9255</v>
+        <v>9150</v>
       </c>
       <c r="D134" t="n">
-        <v>9255</v>
+        <v>9150</v>
       </c>
       <c r="E134" t="n">
-        <v>9255</v>
+        <v>9150</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1</v>
+        <v>16.856</v>
       </c>
       <c r="G134" t="n">
         <v>9192.583333333334</v>
@@ -5077,8 +5161,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5088,22 +5178,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9215</v>
+        <v>9255</v>
       </c>
       <c r="C135" t="n">
-        <v>9305</v>
+        <v>9255</v>
       </c>
       <c r="D135" t="n">
-        <v>9305</v>
+        <v>9255</v>
       </c>
       <c r="E135" t="n">
-        <v>9090</v>
+        <v>9255</v>
       </c>
       <c r="F135" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="G135" t="n">
-        <v>9193.166666666666</v>
+        <v>9192.583333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5112,8 +5202,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5123,22 +5219,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9195</v>
+        <v>9215</v>
       </c>
       <c r="C136" t="n">
-        <v>9195</v>
+        <v>9305</v>
       </c>
       <c r="D136" t="n">
-        <v>9195</v>
+        <v>9305</v>
       </c>
       <c r="E136" t="n">
-        <v>9195</v>
+        <v>9090</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="G136" t="n">
-        <v>9191.916666666666</v>
+        <v>9193.166666666666</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5147,8 +5243,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5158,16 +5260,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9265</v>
+        <v>9195</v>
       </c>
       <c r="C137" t="n">
-        <v>9265</v>
+        <v>9195</v>
       </c>
       <c r="D137" t="n">
-        <v>9265</v>
+        <v>9195</v>
       </c>
       <c r="E137" t="n">
-        <v>9265</v>
+        <v>9195</v>
       </c>
       <c r="F137" t="n">
         <v>0.1</v>
@@ -5182,8 +5284,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5193,22 +5301,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9090</v>
+        <v>9265</v>
       </c>
       <c r="C138" t="n">
-        <v>9090</v>
+        <v>9265</v>
       </c>
       <c r="D138" t="n">
-        <v>9090</v>
+        <v>9265</v>
       </c>
       <c r="E138" t="n">
-        <v>9090</v>
+        <v>9265</v>
       </c>
       <c r="F138" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G138" t="n">
-        <v>9190.333333333334</v>
+        <v>9191.916666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5217,8 +5325,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5228,22 +5342,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9255</v>
+        <v>9090</v>
       </c>
       <c r="C139" t="n">
-        <v>9255</v>
+        <v>9090</v>
       </c>
       <c r="D139" t="n">
-        <v>9255</v>
+        <v>9090</v>
       </c>
       <c r="E139" t="n">
-        <v>9255</v>
+        <v>9090</v>
       </c>
       <c r="F139" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G139" t="n">
-        <v>9192.083333333334</v>
+        <v>9190.333333333334</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5252,8 +5366,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5278,7 +5398,7 @@
         <v>0.1</v>
       </c>
       <c r="G140" t="n">
-        <v>9193.75</v>
+        <v>9192.083333333334</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5287,8 +5407,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5301,19 +5427,19 @@
         <v>9255</v>
       </c>
       <c r="C141" t="n">
-        <v>9295</v>
+        <v>9255</v>
       </c>
       <c r="D141" t="n">
-        <v>9295</v>
+        <v>9255</v>
       </c>
       <c r="E141" t="n">
         <v>9255</v>
       </c>
       <c r="F141" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G141" t="n">
-        <v>9196.083333333334</v>
+        <v>9193.75</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5322,8 +5448,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5333,22 +5465,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9185</v>
+        <v>9255</v>
       </c>
       <c r="C142" t="n">
-        <v>9185</v>
+        <v>9295</v>
       </c>
       <c r="D142" t="n">
-        <v>9185</v>
+        <v>9295</v>
       </c>
       <c r="E142" t="n">
-        <v>9185</v>
+        <v>9255</v>
       </c>
       <c r="F142" t="n">
-        <v>84.8509</v>
+        <v>0.2</v>
       </c>
       <c r="G142" t="n">
-        <v>9196.5</v>
+        <v>9196.083333333334</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5357,8 +5489,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5368,22 +5506,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>9175</v>
+        <v>9185</v>
       </c>
       <c r="C143" t="n">
-        <v>9095</v>
+        <v>9185</v>
       </c>
       <c r="D143" t="n">
-        <v>9175</v>
+        <v>9185</v>
       </c>
       <c r="E143" t="n">
-        <v>9095</v>
+        <v>9185</v>
       </c>
       <c r="F143" t="n">
-        <v>300.836</v>
+        <v>84.8509</v>
       </c>
       <c r="G143" t="n">
-        <v>9194.5</v>
+        <v>9196.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5392,8 +5530,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5403,22 +5547,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
+        <v>9175</v>
+      </c>
+      <c r="C144" t="n">
         <v>9095</v>
       </c>
-      <c r="C144" t="n">
-        <v>9065</v>
-      </c>
       <c r="D144" t="n">
-        <v>9145</v>
+        <v>9175</v>
       </c>
       <c r="E144" t="n">
-        <v>9065</v>
+        <v>9095</v>
       </c>
       <c r="F144" t="n">
-        <v>1070.5838</v>
+        <v>300.836</v>
       </c>
       <c r="G144" t="n">
-        <v>9191.083333333334</v>
+        <v>9194.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5427,8 +5571,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5438,22 +5588,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>9080</v>
+        <v>9095</v>
       </c>
       <c r="C145" t="n">
-        <v>9185</v>
+        <v>9065</v>
       </c>
       <c r="D145" t="n">
-        <v>9185</v>
+        <v>9145</v>
       </c>
       <c r="E145" t="n">
-        <v>9080</v>
+        <v>9065</v>
       </c>
       <c r="F145" t="n">
-        <v>43.0901</v>
+        <v>1070.5838</v>
       </c>
       <c r="G145" t="n">
-        <v>9189.666666666666</v>
+        <v>9191.083333333334</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5462,8 +5612,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5473,22 +5629,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9070</v>
+        <v>9080</v>
       </c>
       <c r="C146" t="n">
+        <v>9185</v>
+      </c>
+      <c r="D146" t="n">
+        <v>9185</v>
+      </c>
+      <c r="E146" t="n">
         <v>9080</v>
       </c>
-      <c r="D146" t="n">
-        <v>9080</v>
-      </c>
-      <c r="E146" t="n">
-        <v>9070</v>
-      </c>
       <c r="F146" t="n">
-        <v>160.1</v>
+        <v>43.0901</v>
       </c>
       <c r="G146" t="n">
-        <v>9186.5</v>
+        <v>9189.666666666666</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5497,8 +5653,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5508,22 +5670,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9065</v>
+        <v>9070</v>
       </c>
       <c r="C147" t="n">
-        <v>9065</v>
+        <v>9080</v>
       </c>
       <c r="D147" t="n">
-        <v>9065</v>
+        <v>9080</v>
       </c>
       <c r="E147" t="n">
-        <v>9065</v>
+        <v>9070</v>
       </c>
       <c r="F147" t="n">
-        <v>30</v>
+        <v>160.1</v>
       </c>
       <c r="G147" t="n">
-        <v>9183.75</v>
+        <v>9186.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5532,8 +5694,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5543,7 +5711,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9060</v>
+        <v>9065</v>
       </c>
       <c r="C148" t="n">
         <v>9065</v>
@@ -5552,13 +5720,13 @@
         <v>9065</v>
       </c>
       <c r="E148" t="n">
-        <v>9050</v>
+        <v>9065</v>
       </c>
       <c r="F148" t="n">
-        <v>109.9989</v>
+        <v>30</v>
       </c>
       <c r="G148" t="n">
-        <v>9181.25</v>
+        <v>9183.75</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5567,8 +5735,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5578,22 +5752,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9070</v>
+        <v>9060</v>
       </c>
       <c r="C149" t="n">
-        <v>9050</v>
+        <v>9065</v>
       </c>
       <c r="D149" t="n">
-        <v>9070</v>
+        <v>9065</v>
       </c>
       <c r="E149" t="n">
         <v>9050</v>
       </c>
       <c r="F149" t="n">
-        <v>5.0752</v>
+        <v>109.9989</v>
       </c>
       <c r="G149" t="n">
-        <v>9179</v>
+        <v>9181.25</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5602,8 +5776,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5613,10 +5793,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>9070</v>
+      </c>
+      <c r="C150" t="n">
         <v>9050</v>
-      </c>
-      <c r="C150" t="n">
-        <v>9055</v>
       </c>
       <c r="D150" t="n">
         <v>9070</v>
@@ -5625,10 +5805,10 @@
         <v>9050</v>
       </c>
       <c r="F150" t="n">
-        <v>646.3081</v>
+        <v>5.0752</v>
       </c>
       <c r="G150" t="n">
-        <v>9173.666666666666</v>
+        <v>9179</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5637,8 +5817,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5648,22 +5834,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9070</v>
+        <v>9050</v>
       </c>
       <c r="C151" t="n">
-        <v>9040</v>
+        <v>9055</v>
       </c>
       <c r="D151" t="n">
         <v>9070</v>
       </c>
       <c r="E151" t="n">
-        <v>9040</v>
+        <v>9050</v>
       </c>
       <c r="F151" t="n">
-        <v>91.39190000000001</v>
+        <v>646.3081</v>
       </c>
       <c r="G151" t="n">
-        <v>9170.5</v>
+        <v>9173.666666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5672,8 +5858,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5683,22 +5875,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>9070</v>
+      </c>
+      <c r="C152" t="n">
         <v>9040</v>
-      </c>
-      <c r="C152" t="n">
-        <v>9025</v>
       </c>
       <c r="D152" t="n">
         <v>9070</v>
       </c>
       <c r="E152" t="n">
-        <v>9025</v>
+        <v>9040</v>
       </c>
       <c r="F152" t="n">
-        <v>555.3162</v>
+        <v>91.39190000000001</v>
       </c>
       <c r="G152" t="n">
-        <v>9166.916666666666</v>
+        <v>9170.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5707,8 +5899,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5718,22 +5916,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>9105</v>
+        <v>9040</v>
       </c>
       <c r="C153" t="n">
-        <v>9005</v>
+        <v>9025</v>
       </c>
       <c r="D153" t="n">
-        <v>9105</v>
+        <v>9070</v>
       </c>
       <c r="E153" t="n">
-        <v>9005</v>
+        <v>9025</v>
       </c>
       <c r="F153" t="n">
-        <v>61.2478</v>
+        <v>555.3162</v>
       </c>
       <c r="G153" t="n">
-        <v>9163</v>
+        <v>9166.916666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5742,8 +5940,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5753,22 +5957,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>9070</v>
+        <v>9105</v>
       </c>
       <c r="C154" t="n">
-        <v>9075</v>
+        <v>9005</v>
       </c>
       <c r="D154" t="n">
-        <v>9075</v>
+        <v>9105</v>
       </c>
       <c r="E154" t="n">
-        <v>9070</v>
+        <v>9005</v>
       </c>
       <c r="F154" t="n">
-        <v>48.7617</v>
+        <v>61.2478</v>
       </c>
       <c r="G154" t="n">
-        <v>9160.166666666666</v>
+        <v>9163</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5777,8 +5981,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5788,22 +5998,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>9120</v>
+        <v>9070</v>
       </c>
       <c r="C155" t="n">
-        <v>9120</v>
+        <v>9075</v>
       </c>
       <c r="D155" t="n">
-        <v>9120</v>
+        <v>9075</v>
       </c>
       <c r="E155" t="n">
-        <v>9120</v>
+        <v>9070</v>
       </c>
       <c r="F155" t="n">
-        <v>1.09649122</v>
+        <v>48.7617</v>
       </c>
       <c r="G155" t="n">
-        <v>9156.666666666666</v>
+        <v>9160.166666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5812,8 +6022,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5835,20 +6051,28 @@
         <v>9120</v>
       </c>
       <c r="F156" t="n">
-        <v>302.00160878</v>
+        <v>1.09649122</v>
       </c>
       <c r="G156" t="n">
-        <v>9154.666666666666</v>
+        <v>9156.666666666666</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>9075</v>
+      </c>
+      <c r="K156" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5858,32 +6082,40 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>9080</v>
+        <v>9120</v>
       </c>
       <c r="C157" t="n">
-        <v>9060</v>
+        <v>9120</v>
       </c>
       <c r="D157" t="n">
-        <v>9080</v>
+        <v>9120</v>
       </c>
       <c r="E157" t="n">
-        <v>9060</v>
+        <v>9120</v>
       </c>
       <c r="F157" t="n">
-        <v>20</v>
+        <v>302.00160878</v>
       </c>
       <c r="G157" t="n">
-        <v>9151.666666666666</v>
+        <v>9154.666666666666</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>9120</v>
+      </c>
+      <c r="K157" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5893,32 +6125,40 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>9115</v>
+        <v>9080</v>
       </c>
       <c r="C158" t="n">
-        <v>9115</v>
+        <v>9060</v>
       </c>
       <c r="D158" t="n">
-        <v>9115</v>
+        <v>9080</v>
       </c>
       <c r="E158" t="n">
-        <v>9115</v>
+        <v>9060</v>
       </c>
       <c r="F158" t="n">
-        <v>0.10970927</v>
+        <v>20</v>
       </c>
       <c r="G158" t="n">
-        <v>9151.916666666666</v>
+        <v>9151.666666666666</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>9120</v>
+      </c>
+      <c r="K158" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5928,32 +6168,40 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>9175</v>
+        <v>9115</v>
       </c>
       <c r="C159" t="n">
-        <v>9175</v>
+        <v>9115</v>
       </c>
       <c r="D159" t="n">
-        <v>9175</v>
+        <v>9115</v>
       </c>
       <c r="E159" t="n">
-        <v>9175</v>
+        <v>9115</v>
       </c>
       <c r="F159" t="n">
-        <v>1.08991825</v>
+        <v>0.10970927</v>
       </c>
       <c r="G159" t="n">
-        <v>9153.166666666666</v>
+        <v>9151.916666666666</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>9060</v>
+      </c>
+      <c r="K159" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5963,32 +6211,40 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>9080</v>
+        <v>9175</v>
       </c>
       <c r="C160" t="n">
-        <v>9080</v>
+        <v>9175</v>
       </c>
       <c r="D160" t="n">
-        <v>9080</v>
+        <v>9175</v>
       </c>
       <c r="E160" t="n">
-        <v>9080</v>
+        <v>9175</v>
       </c>
       <c r="F160" t="n">
-        <v>131.249</v>
+        <v>1.08991825</v>
       </c>
       <c r="G160" t="n">
-        <v>9151.75</v>
+        <v>9153.166666666666</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>9115</v>
+      </c>
+      <c r="K160" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -5998,22 +6254,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>9085</v>
+        <v>9080</v>
       </c>
       <c r="C161" t="n">
         <v>9080</v>
       </c>
       <c r="D161" t="n">
-        <v>9085</v>
+        <v>9080</v>
       </c>
       <c r="E161" t="n">
         <v>9080</v>
       </c>
       <c r="F161" t="n">
-        <v>9.2881</v>
+        <v>131.249</v>
       </c>
       <c r="G161" t="n">
-        <v>9149.75</v>
+        <v>9151.75</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6022,8 +6278,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6033,22 +6295,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>9085</v>
+      </c>
+      <c r="C162" t="n">
         <v>9080</v>
       </c>
-      <c r="C162" t="n">
-        <v>9160</v>
-      </c>
       <c r="D162" t="n">
-        <v>9160</v>
+        <v>9085</v>
       </c>
       <c r="E162" t="n">
         <v>9080</v>
       </c>
       <c r="F162" t="n">
-        <v>20.1091703</v>
+        <v>9.2881</v>
       </c>
       <c r="G162" t="n">
-        <v>9147</v>
+        <v>9149.75</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6057,8 +6319,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6071,19 +6339,19 @@
         <v>9080</v>
       </c>
       <c r="C163" t="n">
-        <v>9080</v>
+        <v>9160</v>
       </c>
       <c r="D163" t="n">
-        <v>9080</v>
+        <v>9160</v>
       </c>
       <c r="E163" t="n">
         <v>9080</v>
       </c>
       <c r="F163" t="n">
-        <v>29.3296</v>
+        <v>20.1091703</v>
       </c>
       <c r="G163" t="n">
-        <v>9144.75</v>
+        <v>9147</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6092,8 +6360,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6115,10 +6389,10 @@
         <v>9080</v>
       </c>
       <c r="F164" t="n">
-        <v>9.178800000000001</v>
+        <v>29.3296</v>
       </c>
       <c r="G164" t="n">
-        <v>9142.5</v>
+        <v>9144.75</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6127,8 +6401,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6138,22 +6418,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>9085</v>
+        <v>9080</v>
       </c>
       <c r="C165" t="n">
         <v>9080</v>
       </c>
       <c r="D165" t="n">
-        <v>9085</v>
+        <v>9080</v>
       </c>
       <c r="E165" t="n">
         <v>9080</v>
       </c>
       <c r="F165" t="n">
-        <v>302.973</v>
+        <v>9.178800000000001</v>
       </c>
       <c r="G165" t="n">
-        <v>9140.25</v>
+        <v>9142.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6162,8 +6442,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6173,22 +6459,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>9100</v>
+        <v>9085</v>
       </c>
       <c r="C166" t="n">
         <v>9080</v>
       </c>
       <c r="D166" t="n">
-        <v>9100</v>
+        <v>9085</v>
       </c>
       <c r="E166" t="n">
         <v>9080</v>
       </c>
       <c r="F166" t="n">
-        <v>115.8272</v>
+        <v>302.973</v>
       </c>
       <c r="G166" t="n">
-        <v>9137.833333333334</v>
+        <v>9140.25</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6197,8 +6483,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6211,19 +6503,19 @@
         <v>9100</v>
       </c>
       <c r="C167" t="n">
-        <v>9100</v>
+        <v>9080</v>
       </c>
       <c r="D167" t="n">
         <v>9100</v>
       </c>
       <c r="E167" t="n">
-        <v>9100</v>
+        <v>9080</v>
       </c>
       <c r="F167" t="n">
-        <v>12.8611</v>
+        <v>115.8272</v>
       </c>
       <c r="G167" t="n">
-        <v>9135</v>
+        <v>9137.833333333334</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6232,8 +6524,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6243,22 +6541,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>9110</v>
+        <v>9100</v>
       </c>
       <c r="C168" t="n">
         <v>9100</v>
       </c>
       <c r="D168" t="n">
-        <v>9110</v>
+        <v>9100</v>
       </c>
       <c r="E168" t="n">
         <v>9100</v>
       </c>
       <c r="F168" t="n">
-        <v>34</v>
+        <v>12.8611</v>
       </c>
       <c r="G168" t="n">
-        <v>9132.166666666666</v>
+        <v>9135</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6267,8 +6565,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6278,22 +6582,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>9100</v>
+        <v>9110</v>
       </c>
       <c r="C169" t="n">
         <v>9100</v>
       </c>
       <c r="D169" t="n">
-        <v>9100</v>
+        <v>9110</v>
       </c>
       <c r="E169" t="n">
         <v>9100</v>
       </c>
       <c r="F169" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G169" t="n">
-        <v>9129.75</v>
+        <v>9132.166666666666</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6302,8 +6606,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6325,10 +6635,10 @@
         <v>9100</v>
       </c>
       <c r="F170" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G170" t="n">
-        <v>9128.666666666666</v>
+        <v>9129.75</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6337,8 +6647,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6360,10 +6676,10 @@
         <v>9100</v>
       </c>
       <c r="F171" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G171" t="n">
-        <v>9127.083333333334</v>
+        <v>9128.666666666666</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6372,8 +6688,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6395,10 +6717,10 @@
         <v>9100</v>
       </c>
       <c r="F172" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G172" t="n">
-        <v>9125.166666666666</v>
+        <v>9127.083333333334</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6407,8 +6729,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6418,22 +6746,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>9180</v>
+        <v>9100</v>
       </c>
       <c r="C173" t="n">
-        <v>9185</v>
+        <v>9100</v>
       </c>
       <c r="D173" t="n">
-        <v>9185</v>
+        <v>9100</v>
       </c>
       <c r="E173" t="n">
-        <v>9180</v>
+        <v>9100</v>
       </c>
       <c r="F173" t="n">
-        <v>19.86673246</v>
+        <v>4</v>
       </c>
       <c r="G173" t="n">
-        <v>9124.083333333334</v>
+        <v>9125.166666666666</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6442,8 +6770,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6453,22 +6787,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>9140</v>
+        <v>9180</v>
       </c>
       <c r="C174" t="n">
-        <v>9140</v>
+        <v>9185</v>
       </c>
       <c r="D174" t="n">
-        <v>9140</v>
+        <v>9185</v>
       </c>
       <c r="E174" t="n">
-        <v>9140</v>
+        <v>9180</v>
       </c>
       <c r="F174" t="n">
-        <v>40.9618</v>
+        <v>19.86673246</v>
       </c>
       <c r="G174" t="n">
-        <v>9123.083333333334</v>
+        <v>9124.083333333334</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6477,8 +6811,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6488,22 +6828,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>9115</v>
+        <v>9140</v>
       </c>
       <c r="C175" t="n">
-        <v>9100</v>
+        <v>9140</v>
       </c>
       <c r="D175" t="n">
-        <v>9115</v>
+        <v>9140</v>
       </c>
       <c r="E175" t="n">
-        <v>9100</v>
+        <v>9140</v>
       </c>
       <c r="F175" t="n">
-        <v>196</v>
+        <v>40.9618</v>
       </c>
       <c r="G175" t="n">
-        <v>9122</v>
+        <v>9123.083333333334</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6512,8 +6852,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6526,19 +6872,19 @@
         <v>9115</v>
       </c>
       <c r="C176" t="n">
-        <v>9115</v>
+        <v>9100</v>
       </c>
       <c r="D176" t="n">
         <v>9115</v>
       </c>
       <c r="E176" t="n">
-        <v>9115</v>
+        <v>9100</v>
       </c>
       <c r="F176" t="n">
-        <v>4.7484</v>
+        <v>196</v>
       </c>
       <c r="G176" t="n">
-        <v>9121.166666666666</v>
+        <v>9122</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6547,8 +6893,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6558,22 +6910,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>9105</v>
+        <v>9115</v>
       </c>
       <c r="C177" t="n">
-        <v>9085</v>
+        <v>9115</v>
       </c>
       <c r="D177" t="n">
-        <v>9105</v>
+        <v>9115</v>
       </c>
       <c r="E177" t="n">
-        <v>9085</v>
+        <v>9115</v>
       </c>
       <c r="F177" t="n">
-        <v>30</v>
+        <v>4.7484</v>
       </c>
       <c r="G177" t="n">
-        <v>9121.25</v>
+        <v>9121.166666666666</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6582,8 +6934,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6593,22 +6951,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="C178" t="n">
-        <v>9080</v>
+        <v>9085</v>
       </c>
       <c r="D178" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="E178" t="n">
-        <v>9080</v>
+        <v>9085</v>
       </c>
       <c r="F178" t="n">
-        <v>202.39</v>
+        <v>30</v>
       </c>
       <c r="G178" t="n">
-        <v>9120.833333333334</v>
+        <v>9121.25</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6617,8 +6975,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6628,22 +6992,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>9085</v>
+        <v>9100</v>
       </c>
       <c r="C179" t="n">
         <v>9080</v>
       </c>
       <c r="D179" t="n">
-        <v>9085</v>
+        <v>9100</v>
       </c>
       <c r="E179" t="n">
         <v>9080</v>
       </c>
       <c r="F179" t="n">
-        <v>197</v>
+        <v>202.39</v>
       </c>
       <c r="G179" t="n">
-        <v>9120.5</v>
+        <v>9120.833333333334</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6652,8 +7016,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6663,22 +7033,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>9080</v>
+        <v>9085</v>
       </c>
       <c r="C180" t="n">
         <v>9080</v>
       </c>
       <c r="D180" t="n">
-        <v>9080</v>
+        <v>9085</v>
       </c>
       <c r="E180" t="n">
         <v>9080</v>
       </c>
       <c r="F180" t="n">
-        <v>10.123</v>
+        <v>197</v>
       </c>
       <c r="G180" t="n">
-        <v>9119.583333333334</v>
+        <v>9120.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6687,8 +7057,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6710,10 +7086,10 @@
         <v>9080</v>
       </c>
       <c r="F181" t="n">
-        <v>2.44</v>
+        <v>10.123</v>
       </c>
       <c r="G181" t="n">
-        <v>9119.666666666666</v>
+        <v>9119.583333333334</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6722,8 +7098,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6733,7 +7115,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>9070</v>
+        <v>9080</v>
       </c>
       <c r="C182" t="n">
         <v>9080</v>
@@ -6742,13 +7124,13 @@
         <v>9080</v>
       </c>
       <c r="E182" t="n">
-        <v>9070</v>
+        <v>9080</v>
       </c>
       <c r="F182" t="n">
-        <v>10.4369</v>
+        <v>2.44</v>
       </c>
       <c r="G182" t="n">
-        <v>9119.833333333334</v>
+        <v>9119.666666666666</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6757,8 +7139,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6768,22 +7156,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>9090</v>
+        <v>9070</v>
       </c>
       <c r="C183" t="n">
         <v>9080</v>
       </c>
       <c r="D183" t="n">
-        <v>9090</v>
+        <v>9080</v>
       </c>
       <c r="E183" t="n">
-        <v>9080</v>
+        <v>9070</v>
       </c>
       <c r="F183" t="n">
-        <v>338.5259</v>
+        <v>10.4369</v>
       </c>
       <c r="G183" t="n">
-        <v>9119.25</v>
+        <v>9119.833333333334</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6792,8 +7180,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6803,22 +7197,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>9085</v>
+        <v>9090</v>
       </c>
       <c r="C184" t="n">
-        <v>9105</v>
+        <v>9080</v>
       </c>
       <c r="D184" t="n">
-        <v>9105</v>
+        <v>9090</v>
       </c>
       <c r="E184" t="n">
-        <v>9085</v>
+        <v>9080</v>
       </c>
       <c r="F184" t="n">
-        <v>4.5414</v>
+        <v>338.5259</v>
       </c>
       <c r="G184" t="n">
-        <v>9119.75</v>
+        <v>9119.25</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6827,8 +7221,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6838,22 +7238,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>9060</v>
+        <v>9085</v>
       </c>
       <c r="C185" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="D185" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="E185" t="n">
-        <v>9040</v>
+        <v>9085</v>
       </c>
       <c r="F185" t="n">
-        <v>33.1399</v>
+        <v>4.5414</v>
       </c>
       <c r="G185" t="n">
-        <v>9119.333333333334</v>
+        <v>9119.75</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6862,8 +7262,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6873,22 +7279,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>9085</v>
+        <v>9060</v>
       </c>
       <c r="C186" t="n">
-        <v>9080</v>
+        <v>9100</v>
       </c>
       <c r="D186" t="n">
-        <v>9085</v>
+        <v>9100</v>
       </c>
       <c r="E186" t="n">
-        <v>9080</v>
+        <v>9040</v>
       </c>
       <c r="F186" t="n">
-        <v>36.51387622</v>
+        <v>33.1399</v>
       </c>
       <c r="G186" t="n">
-        <v>9118.916666666666</v>
+        <v>9119.333333333334</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6897,8 +7303,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6908,22 +7320,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>9040</v>
+        <v>9085</v>
       </c>
       <c r="C187" t="n">
-        <v>9025</v>
+        <v>9080</v>
       </c>
       <c r="D187" t="n">
-        <v>9040</v>
+        <v>9085</v>
       </c>
       <c r="E187" t="n">
-        <v>9025</v>
+        <v>9080</v>
       </c>
       <c r="F187" t="n">
-        <v>65.3481</v>
+        <v>36.51387622</v>
       </c>
       <c r="G187" t="n">
-        <v>9118.083333333334</v>
+        <v>9118.916666666666</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6932,8 +7344,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6943,22 +7361,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>9030</v>
+        <v>9040</v>
       </c>
       <c r="C188" t="n">
-        <v>9030</v>
+        <v>9025</v>
       </c>
       <c r="D188" t="n">
-        <v>9030</v>
+        <v>9040</v>
       </c>
       <c r="E188" t="n">
         <v>9025</v>
       </c>
       <c r="F188" t="n">
-        <v>981.6558</v>
+        <v>65.3481</v>
       </c>
       <c r="G188" t="n">
-        <v>9116.833333333334</v>
+        <v>9118.083333333334</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6967,8 +7385,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -6981,7 +7405,7 @@
         <v>9030</v>
       </c>
       <c r="C189" t="n">
-        <v>9025</v>
+        <v>9030</v>
       </c>
       <c r="D189" t="n">
         <v>9030</v>
@@ -6990,10 +7414,10 @@
         <v>9025</v>
       </c>
       <c r="F189" t="n">
-        <v>1464.2191</v>
+        <v>981.6558</v>
       </c>
       <c r="G189" t="n">
-        <v>9115.583333333334</v>
+        <v>9116.833333333334</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7002,8 +7426,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7013,22 +7443,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>9060</v>
+        <v>9030</v>
       </c>
       <c r="C190" t="n">
-        <v>9060</v>
+        <v>9025</v>
       </c>
       <c r="D190" t="n">
-        <v>9060</v>
+        <v>9030</v>
       </c>
       <c r="E190" t="n">
-        <v>9060</v>
+        <v>9025</v>
       </c>
       <c r="F190" t="n">
-        <v>17.8073</v>
+        <v>1464.2191</v>
       </c>
       <c r="G190" t="n">
-        <v>9115.333333333334</v>
+        <v>9115.583333333334</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7037,8 +7467,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7048,22 +7484,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>9045</v>
+        <v>9060</v>
       </c>
       <c r="C191" t="n">
-        <v>9045</v>
+        <v>9060</v>
       </c>
       <c r="D191" t="n">
-        <v>9045</v>
+        <v>9060</v>
       </c>
       <c r="E191" t="n">
-        <v>9045</v>
+        <v>9060</v>
       </c>
       <c r="F191" t="n">
-        <v>3.8322</v>
+        <v>17.8073</v>
       </c>
       <c r="G191" t="n">
-        <v>9112.5</v>
+        <v>9115.333333333334</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7072,8 +7508,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7095,10 +7537,10 @@
         <v>9045</v>
       </c>
       <c r="F192" t="n">
-        <v>5</v>
+        <v>3.8322</v>
       </c>
       <c r="G192" t="n">
-        <v>9108.416666666666</v>
+        <v>9112.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7107,8 +7549,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7118,22 +7566,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>9020</v>
+        <v>9045</v>
       </c>
       <c r="C193" t="n">
-        <v>9015</v>
+        <v>9045</v>
       </c>
       <c r="D193" t="n">
-        <v>9020</v>
+        <v>9045</v>
       </c>
       <c r="E193" t="n">
-        <v>9015</v>
+        <v>9045</v>
       </c>
       <c r="F193" t="n">
-        <v>207.9194</v>
+        <v>5</v>
       </c>
       <c r="G193" t="n">
-        <v>9106.166666666666</v>
+        <v>9108.416666666666</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7142,8 +7590,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7153,22 +7607,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>9015</v>
+        <v>9020</v>
       </c>
       <c r="C194" t="n">
         <v>9015</v>
       </c>
       <c r="D194" t="n">
-        <v>9015</v>
+        <v>9020</v>
       </c>
       <c r="E194" t="n">
         <v>9015</v>
       </c>
       <c r="F194" t="n">
-        <v>879.0207</v>
+        <v>207.9194</v>
       </c>
       <c r="G194" t="n">
-        <v>9102.166666666666</v>
+        <v>9106.166666666666</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7177,8 +7631,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7188,22 +7648,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>9045</v>
+        <v>9015</v>
       </c>
       <c r="C195" t="n">
-        <v>9045</v>
+        <v>9015</v>
       </c>
       <c r="D195" t="n">
-        <v>9045</v>
+        <v>9015</v>
       </c>
       <c r="E195" t="n">
-        <v>9045</v>
+        <v>9015</v>
       </c>
       <c r="F195" t="n">
-        <v>0.1363184</v>
+        <v>879.0207</v>
       </c>
       <c r="G195" t="n">
-        <v>9097.833333333334</v>
+        <v>9102.166666666666</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7212,8 +7672,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7226,19 +7692,19 @@
         <v>9045</v>
       </c>
       <c r="C196" t="n">
-        <v>9050</v>
+        <v>9045</v>
       </c>
       <c r="D196" t="n">
-        <v>9050</v>
+        <v>9045</v>
       </c>
       <c r="E196" t="n">
         <v>9045</v>
       </c>
       <c r="F196" t="n">
-        <v>79.21038160000001</v>
+        <v>0.1363184</v>
       </c>
       <c r="G196" t="n">
-        <v>9095.416666666666</v>
+        <v>9097.833333333334</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7247,8 +7713,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7258,22 +7730,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>9055</v>
+        <v>9045</v>
       </c>
       <c r="C197" t="n">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="D197" t="n">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="E197" t="n">
-        <v>9055</v>
+        <v>9045</v>
       </c>
       <c r="F197" t="n">
-        <v>13.3669</v>
+        <v>79.21038160000001</v>
       </c>
       <c r="G197" t="n">
-        <v>9091.916666666666</v>
+        <v>9095.416666666666</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7282,8 +7754,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7293,22 +7771,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>9050</v>
+        <v>9055</v>
       </c>
       <c r="C198" t="n">
-        <v>9050</v>
+        <v>9055</v>
       </c>
       <c r="D198" t="n">
-        <v>9050</v>
+        <v>9055</v>
       </c>
       <c r="E198" t="n">
-        <v>9050</v>
+        <v>9055</v>
       </c>
       <c r="F198" t="n">
-        <v>1.84e-05</v>
+        <v>13.3669</v>
       </c>
       <c r="G198" t="n">
-        <v>9091.25</v>
+        <v>9091.916666666666</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7317,8 +7795,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7328,22 +7812,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="C199" t="n">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="D199" t="n">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="E199" t="n">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="F199" t="n">
-        <v>11.46217559</v>
+        <v>1.84e-05</v>
       </c>
       <c r="G199" t="n">
-        <v>9087.916666666666</v>
+        <v>9091.25</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7352,8 +7836,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7363,22 +7853,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>9020</v>
+        <v>9055</v>
       </c>
       <c r="C200" t="n">
-        <v>9020</v>
+        <v>9055</v>
       </c>
       <c r="D200" t="n">
-        <v>9020</v>
+        <v>9055</v>
       </c>
       <c r="E200" t="n">
-        <v>9020</v>
+        <v>9055</v>
       </c>
       <c r="F200" t="n">
-        <v>47.0336</v>
+        <v>11.46217559</v>
       </c>
       <c r="G200" t="n">
-        <v>9084</v>
+        <v>9087.916666666666</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7387,8 +7877,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7401,19 +7897,19 @@
         <v>9020</v>
       </c>
       <c r="C201" t="n">
-        <v>9000</v>
+        <v>9020</v>
       </c>
       <c r="D201" t="n">
         <v>9020</v>
       </c>
       <c r="E201" t="n">
-        <v>9000</v>
+        <v>9020</v>
       </c>
       <c r="F201" t="n">
-        <v>575.8493999999999</v>
+        <v>47.0336</v>
       </c>
       <c r="G201" t="n">
-        <v>9079.083333333334</v>
+        <v>9084</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7422,8 +7918,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7433,22 +7935,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>9000</v>
+        <v>9020</v>
       </c>
       <c r="C202" t="n">
         <v>9000</v>
       </c>
       <c r="D202" t="n">
-        <v>9000</v>
+        <v>9020</v>
       </c>
       <c r="E202" t="n">
         <v>9000</v>
       </c>
       <c r="F202" t="n">
-        <v>36.9634</v>
+        <v>575.8493999999999</v>
       </c>
       <c r="G202" t="n">
-        <v>9076</v>
+        <v>9079.083333333334</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7457,8 +7959,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7468,22 +7976,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>9020</v>
+        <v>9000</v>
       </c>
       <c r="C203" t="n">
-        <v>9020</v>
+        <v>9000</v>
       </c>
       <c r="D203" t="n">
-        <v>9020</v>
+        <v>9000</v>
       </c>
       <c r="E203" t="n">
-        <v>9020</v>
+        <v>9000</v>
       </c>
       <c r="F203" t="n">
-        <v>7.8103</v>
+        <v>36.9634</v>
       </c>
       <c r="G203" t="n">
-        <v>9074.75</v>
+        <v>9076</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7492,8 +8000,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7506,19 +8020,19 @@
         <v>9020</v>
       </c>
       <c r="C204" t="n">
-        <v>9015</v>
+        <v>9020</v>
       </c>
       <c r="D204" t="n">
         <v>9020</v>
       </c>
       <c r="E204" t="n">
-        <v>9015</v>
+        <v>9020</v>
       </c>
       <c r="F204" t="n">
-        <v>20</v>
+        <v>7.8103</v>
       </c>
       <c r="G204" t="n">
-        <v>9073.916666666666</v>
+        <v>9074.75</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7527,8 +8041,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7538,22 +8058,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>9015</v>
+        <v>9020</v>
       </c>
       <c r="C205" t="n">
         <v>9015</v>
       </c>
       <c r="D205" t="n">
-        <v>9015</v>
+        <v>9020</v>
       </c>
       <c r="E205" t="n">
         <v>9015</v>
       </c>
       <c r="F205" t="n">
-        <v>5.6707</v>
+        <v>20</v>
       </c>
       <c r="G205" t="n">
-        <v>9071.083333333334</v>
+        <v>9073.916666666666</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7562,8 +8082,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7585,24 +8111,26 @@
         <v>9015</v>
       </c>
       <c r="F206" t="n">
-        <v>10.165</v>
+        <v>5.6707</v>
       </c>
       <c r="G206" t="n">
-        <v>9070</v>
+        <v>9071.083333333334</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>9015</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>9015</v>
-      </c>
-      <c r="L206" t="inlineStr"/>
+        <v>9105</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7624,26 +8152,24 @@
         <v>9015</v>
       </c>
       <c r="F207" t="n">
-        <v>148.3237</v>
+        <v>10.165</v>
       </c>
       <c r="G207" t="n">
-        <v>9069.166666666666</v>
+        <v>9070</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>9015</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>9015</v>
+        <v>9105</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M207" t="n">
@@ -7667,26 +8193,24 @@
         <v>9015</v>
       </c>
       <c r="F208" t="n">
-        <v>2</v>
+        <v>148.3237</v>
       </c>
       <c r="G208" t="n">
-        <v>9068.333333333334</v>
+        <v>9069.166666666666</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>9015</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>9015</v>
+        <v>9105</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M208" t="n">
@@ -7710,24 +8234,26 @@
         <v>9015</v>
       </c>
       <c r="F209" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G209" t="n">
-        <v>9067.75</v>
+        <v>9068.333333333334</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>9015</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>9015</v>
-      </c>
-      <c r="L209" t="inlineStr"/>
+        <v>9105</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7737,38 +8263,36 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>9075</v>
+        <v>9015</v>
       </c>
       <c r="C210" t="n">
-        <v>9075</v>
+        <v>9015</v>
       </c>
       <c r="D210" t="n">
-        <v>9075</v>
+        <v>9015</v>
       </c>
       <c r="E210" t="n">
-        <v>9075</v>
+        <v>9015</v>
       </c>
       <c r="F210" t="n">
-        <v>34.0256</v>
+        <v>4</v>
       </c>
       <c r="G210" t="n">
-        <v>9068.083333333334</v>
+        <v>9067.75</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>9015</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>9015</v>
+        <v>9105</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M210" t="n">
@@ -7780,22 +8304,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>9080</v>
+        <v>9075</v>
       </c>
       <c r="C211" t="n">
-        <v>9080</v>
+        <v>9075</v>
       </c>
       <c r="D211" t="n">
-        <v>9080</v>
+        <v>9075</v>
       </c>
       <c r="E211" t="n">
-        <v>9080</v>
+        <v>9075</v>
       </c>
       <c r="F211" t="n">
-        <v>51.1729</v>
+        <v>34.0256</v>
       </c>
       <c r="G211" t="n">
-        <v>9068.75</v>
+        <v>9068.083333333334</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7805,11 +8329,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>9015</v>
+        <v>9105</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M211" t="n">
@@ -7821,36 +8345,38 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>9020</v>
+        <v>9080</v>
       </c>
       <c r="C212" t="n">
-        <v>9020</v>
+        <v>9080</v>
       </c>
       <c r="D212" t="n">
-        <v>9020</v>
+        <v>9080</v>
       </c>
       <c r="E212" t="n">
-        <v>9020</v>
+        <v>9080</v>
       </c>
       <c r="F212" t="n">
-        <v>4</v>
+        <v>51.1729</v>
       </c>
       <c r="G212" t="n">
-        <v>9068.666666666666</v>
+        <v>9068.75</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>9080</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>9080</v>
-      </c>
-      <c r="L212" t="inlineStr"/>
+        <v>9105</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7872,10 +8398,10 @@
         <v>9020</v>
       </c>
       <c r="F213" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G213" t="n">
-        <v>9068.916666666666</v>
+        <v>9068.666666666666</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7885,11 +8411,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>9080</v>
+        <v>9105</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M213" t="n">
@@ -7901,22 +8427,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>9025</v>
+        <v>9020</v>
       </c>
       <c r="C214" t="n">
-        <v>9025</v>
+        <v>9020</v>
       </c>
       <c r="D214" t="n">
-        <v>9025</v>
+        <v>9020</v>
       </c>
       <c r="E214" t="n">
-        <v>9025</v>
+        <v>9020</v>
       </c>
       <c r="F214" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G214" t="n">
-        <v>9068.083333333334</v>
+        <v>9068.916666666666</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7926,11 +8452,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>9080</v>
+        <v>9105</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M214" t="n">
@@ -7954,10 +8480,10 @@
         <v>9025</v>
       </c>
       <c r="F215" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G215" t="n">
-        <v>9066.5</v>
+        <v>9068.083333333334</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7966,8 +8492,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7989,10 +8521,10 @@
         <v>9025</v>
       </c>
       <c r="F216" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G216" t="n">
-        <v>9064.916666666666</v>
+        <v>9066.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8001,8 +8533,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8021,13 +8559,13 @@
         <v>9025</v>
       </c>
       <c r="E217" t="n">
-        <v>9020</v>
+        <v>9025</v>
       </c>
       <c r="F217" t="n">
-        <v>35.15</v>
+        <v>10</v>
       </c>
       <c r="G217" t="n">
-        <v>9064.333333333334</v>
+        <v>9064.916666666666</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8036,8 +8574,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8047,22 +8591,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>9030</v>
+        <v>9025</v>
       </c>
       <c r="C218" t="n">
         <v>9025</v>
       </c>
       <c r="D218" t="n">
-        <v>9030</v>
+        <v>9025</v>
       </c>
       <c r="E218" t="n">
-        <v>9025</v>
+        <v>9020</v>
       </c>
       <c r="F218" t="n">
-        <v>8</v>
+        <v>35.15</v>
       </c>
       <c r="G218" t="n">
-        <v>9062.833333333334</v>
+        <v>9064.333333333334</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8071,8 +8615,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8082,22 +8632,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
+        <v>9030</v>
+      </c>
+      <c r="C219" t="n">
         <v>9025</v>
       </c>
-      <c r="C219" t="n">
-        <v>8985</v>
-      </c>
       <c r="D219" t="n">
+        <v>9030</v>
+      </c>
+      <c r="E219" t="n">
         <v>9025</v>
       </c>
-      <c r="E219" t="n">
-        <v>8985</v>
-      </c>
       <c r="F219" t="n">
-        <v>457.3454</v>
+        <v>8</v>
       </c>
       <c r="G219" t="n">
-        <v>9059.666666666666</v>
+        <v>9062.833333333334</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8106,8 +8656,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8117,19 +8673,19 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>9070</v>
+        <v>9025</v>
       </c>
       <c r="C220" t="n">
-        <v>9080</v>
+        <v>8985</v>
       </c>
       <c r="D220" t="n">
-        <v>9080</v>
+        <v>9025</v>
       </c>
       <c r="E220" t="n">
-        <v>9070</v>
+        <v>8985</v>
       </c>
       <c r="F220" t="n">
-        <v>300</v>
+        <v>457.3454</v>
       </c>
       <c r="G220" t="n">
         <v>9059.666666666666</v>
@@ -8141,8 +8697,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8152,7 +8714,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>9080</v>
+        <v>9070</v>
       </c>
       <c r="C221" t="n">
         <v>9080</v>
@@ -8161,10 +8723,10 @@
         <v>9080</v>
       </c>
       <c r="E221" t="n">
-        <v>9080</v>
+        <v>9070</v>
       </c>
       <c r="F221" t="n">
-        <v>103.8446</v>
+        <v>300</v>
       </c>
       <c r="G221" t="n">
         <v>9059.666666666666</v>
@@ -8176,8 +8738,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8199,10 +8767,10 @@
         <v>9080</v>
       </c>
       <c r="F222" t="n">
-        <v>21.9999</v>
+        <v>103.8446</v>
       </c>
       <c r="G222" t="n">
-        <v>9058.333333333334</v>
+        <v>9059.666666666666</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8211,8 +8779,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8222,22 +8796,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>9045</v>
+        <v>9080</v>
       </c>
       <c r="C223" t="n">
-        <v>9045</v>
+        <v>9080</v>
       </c>
       <c r="D223" t="n">
-        <v>9045</v>
+        <v>9080</v>
       </c>
       <c r="E223" t="n">
-        <v>9045</v>
+        <v>9080</v>
       </c>
       <c r="F223" t="n">
-        <v>30</v>
+        <v>21.9999</v>
       </c>
       <c r="G223" t="n">
-        <v>9057.75</v>
+        <v>9058.333333333334</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8246,8 +8820,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8257,22 +8837,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>9015</v>
+        <v>9045</v>
       </c>
       <c r="C224" t="n">
-        <v>9000</v>
+        <v>9045</v>
       </c>
       <c r="D224" t="n">
-        <v>9015</v>
+        <v>9045</v>
       </c>
       <c r="E224" t="n">
-        <v>9000</v>
+        <v>9045</v>
       </c>
       <c r="F224" t="n">
-        <v>189.1634</v>
+        <v>30</v>
       </c>
       <c r="G224" t="n">
-        <v>9056.416666666666</v>
+        <v>9057.75</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8281,8 +8861,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8292,22 +8878,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
+        <v>9015</v>
+      </c>
+      <c r="C225" t="n">
         <v>9000</v>
       </c>
-      <c r="C225" t="n">
-        <v>9045</v>
-      </c>
       <c r="D225" t="n">
-        <v>9045</v>
+        <v>9015</v>
       </c>
       <c r="E225" t="n">
         <v>9000</v>
       </c>
       <c r="F225" t="n">
-        <v>68.7051</v>
+        <v>189.1634</v>
       </c>
       <c r="G225" t="n">
-        <v>9055.833333333334</v>
+        <v>9056.416666666666</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8316,8 +8902,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8327,22 +8919,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="C226" t="n">
-        <v>8995</v>
+        <v>9045</v>
       </c>
       <c r="D226" t="n">
-        <v>8995</v>
+        <v>9045</v>
       </c>
       <c r="E226" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="F226" t="n">
-        <v>42.5781</v>
+        <v>68.7051</v>
       </c>
       <c r="G226" t="n">
-        <v>9054.416666666666</v>
+        <v>9055.833333333334</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8351,8 +8943,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8362,22 +8960,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>9010</v>
+        <v>8995</v>
       </c>
       <c r="C227" t="n">
-        <v>9020</v>
+        <v>8995</v>
       </c>
       <c r="D227" t="n">
-        <v>9020</v>
+        <v>8995</v>
       </c>
       <c r="E227" t="n">
-        <v>8990</v>
+        <v>8995</v>
       </c>
       <c r="F227" t="n">
-        <v>606.9857</v>
+        <v>42.5781</v>
       </c>
       <c r="G227" t="n">
-        <v>9053.083333333334</v>
+        <v>9054.416666666666</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8386,8 +8984,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8397,22 +9001,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>9080</v>
+        <v>9010</v>
       </c>
       <c r="C228" t="n">
-        <v>9180</v>
+        <v>9020</v>
       </c>
       <c r="D228" t="n">
-        <v>9180</v>
+        <v>9020</v>
       </c>
       <c r="E228" t="n">
-        <v>9080</v>
+        <v>8990</v>
       </c>
       <c r="F228" t="n">
-        <v>0.1</v>
+        <v>606.9857</v>
       </c>
       <c r="G228" t="n">
-        <v>9054.416666666666</v>
+        <v>9053.083333333334</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8421,8 +9025,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8432,22 +9042,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>9000</v>
+        <v>9080</v>
       </c>
       <c r="C229" t="n">
-        <v>9000</v>
+        <v>9180</v>
       </c>
       <c r="D229" t="n">
-        <v>9000</v>
+        <v>9180</v>
       </c>
       <c r="E229" t="n">
-        <v>9000</v>
+        <v>9080</v>
       </c>
       <c r="F229" t="n">
-        <v>112</v>
+        <v>0.1</v>
       </c>
       <c r="G229" t="n">
-        <v>9052.75</v>
+        <v>9054.416666666666</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8456,8 +9066,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8470,19 +9086,19 @@
         <v>9000</v>
       </c>
       <c r="C230" t="n">
-        <v>9005</v>
+        <v>9000</v>
       </c>
       <c r="D230" t="n">
-        <v>9005</v>
+        <v>9000</v>
       </c>
       <c r="E230" t="n">
         <v>9000</v>
       </c>
       <c r="F230" t="n">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="G230" t="n">
-        <v>9051.166666666666</v>
+        <v>9052.75</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8491,8 +9107,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8505,19 +9127,19 @@
         <v>9000</v>
       </c>
       <c r="C231" t="n">
-        <v>9000</v>
+        <v>9005</v>
       </c>
       <c r="D231" t="n">
-        <v>9000</v>
+        <v>9005</v>
       </c>
       <c r="E231" t="n">
         <v>9000</v>
       </c>
       <c r="F231" t="n">
-        <v>107.2982</v>
+        <v>76</v>
       </c>
       <c r="G231" t="n">
-        <v>9049.5</v>
+        <v>9051.166666666666</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8526,8 +9148,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8537,22 +9165,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>9105</v>
+        <v>9000</v>
       </c>
       <c r="C232" t="n">
-        <v>9105</v>
+        <v>9000</v>
       </c>
       <c r="D232" t="n">
-        <v>9105</v>
+        <v>9000</v>
       </c>
       <c r="E232" t="n">
-        <v>9105</v>
+        <v>9000</v>
       </c>
       <c r="F232" t="n">
-        <v>0.1</v>
+        <v>107.2982</v>
       </c>
       <c r="G232" t="n">
-        <v>9049.583333333334</v>
+        <v>9049.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8561,8 +9189,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8572,22 +9206,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>9050</v>
+        <v>9105</v>
       </c>
       <c r="C233" t="n">
-        <v>9050</v>
+        <v>9105</v>
       </c>
       <c r="D233" t="n">
-        <v>9050</v>
+        <v>9105</v>
       </c>
       <c r="E233" t="n">
-        <v>9050</v>
+        <v>9105</v>
       </c>
       <c r="F233" t="n">
-        <v>70</v>
+        <v>0.1</v>
       </c>
       <c r="G233" t="n">
-        <v>9047.333333333334</v>
+        <v>9049.583333333334</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8596,8 +9230,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8610,19 +9250,19 @@
         <v>9050</v>
       </c>
       <c r="C234" t="n">
-        <v>9005</v>
+        <v>9050</v>
       </c>
       <c r="D234" t="n">
         <v>9050</v>
       </c>
       <c r="E234" t="n">
-        <v>9005</v>
+        <v>9050</v>
       </c>
       <c r="F234" t="n">
-        <v>114.4475</v>
+        <v>70</v>
       </c>
       <c r="G234" t="n">
-        <v>9045.083333333334</v>
+        <v>9047.333333333334</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8631,8 +9271,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8642,22 +9288,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>9150</v>
+        <v>9050</v>
       </c>
       <c r="C235" t="n">
-        <v>9150</v>
+        <v>9005</v>
       </c>
       <c r="D235" t="n">
-        <v>9150</v>
+        <v>9050</v>
       </c>
       <c r="E235" t="n">
-        <v>9150</v>
+        <v>9005</v>
       </c>
       <c r="F235" t="n">
-        <v>0.1</v>
+        <v>114.4475</v>
       </c>
       <c r="G235" t="n">
-        <v>9045.916666666666</v>
+        <v>9045.083333333334</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8666,8 +9312,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8677,22 +9329,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>9050</v>
+        <v>9150</v>
       </c>
       <c r="C236" t="n">
-        <v>9050</v>
+        <v>9150</v>
       </c>
       <c r="D236" t="n">
-        <v>9050</v>
+        <v>9150</v>
       </c>
       <c r="E236" t="n">
-        <v>9050</v>
+        <v>9150</v>
       </c>
       <c r="F236" t="n">
-        <v>74.8507</v>
+        <v>0.1</v>
       </c>
       <c r="G236" t="n">
-        <v>9044.833333333334</v>
+        <v>9045.916666666666</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8701,8 +9353,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8712,22 +9370,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>9035</v>
+        <v>9050</v>
       </c>
       <c r="C237" t="n">
-        <v>9035</v>
+        <v>9050</v>
       </c>
       <c r="D237" t="n">
-        <v>9035</v>
+        <v>9050</v>
       </c>
       <c r="E237" t="n">
-        <v>9035</v>
+        <v>9050</v>
       </c>
       <c r="F237" t="n">
-        <v>44.4871</v>
+        <v>74.8507</v>
       </c>
       <c r="G237" t="n">
-        <v>9044</v>
+        <v>9044.833333333334</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8736,8 +9394,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8747,22 +9411,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>9050</v>
+        <v>9035</v>
       </c>
       <c r="C238" t="n">
-        <v>9050</v>
+        <v>9035</v>
       </c>
       <c r="D238" t="n">
-        <v>9050</v>
+        <v>9035</v>
       </c>
       <c r="E238" t="n">
-        <v>9050</v>
+        <v>9035</v>
       </c>
       <c r="F238" t="n">
-        <v>38.3779</v>
+        <v>44.4871</v>
       </c>
       <c r="G238" t="n">
-        <v>9043.5</v>
+        <v>9044</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8771,8 +9435,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8782,22 +9452,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>9140</v>
+        <v>9050</v>
       </c>
       <c r="C239" t="n">
-        <v>9045</v>
+        <v>9050</v>
       </c>
       <c r="D239" t="n">
-        <v>9140</v>
+        <v>9050</v>
       </c>
       <c r="E239" t="n">
-        <v>9045</v>
+        <v>9050</v>
       </c>
       <c r="F239" t="n">
-        <v>1.28</v>
+        <v>38.3779</v>
       </c>
       <c r="G239" t="n">
-        <v>9042.916666666666</v>
+        <v>9043.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8806,8 +9476,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8817,32 +9493,38 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>9050</v>
+        <v>9140</v>
       </c>
       <c r="C240" t="n">
         <v>9045</v>
       </c>
       <c r="D240" t="n">
-        <v>9050</v>
+        <v>9140</v>
       </c>
       <c r="E240" t="n">
         <v>9045</v>
       </c>
       <c r="F240" t="n">
-        <v>29.9752</v>
+        <v>1.28</v>
       </c>
       <c r="G240" t="n">
-        <v>9042.333333333334</v>
+        <v>9042.916666666666</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8852,22 +9534,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>9020</v>
+        <v>9050</v>
       </c>
       <c r="C241" t="n">
-        <v>9015</v>
+        <v>9045</v>
       </c>
       <c r="D241" t="n">
-        <v>9020</v>
+        <v>9050</v>
       </c>
       <c r="E241" t="n">
-        <v>9015</v>
+        <v>9045</v>
       </c>
       <c r="F241" t="n">
-        <v>233.4569</v>
+        <v>29.9752</v>
       </c>
       <c r="G241" t="n">
-        <v>9041.25</v>
+        <v>9042.333333333334</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8876,8 +9558,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8887,22 +9575,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>9000</v>
+        <v>9020</v>
       </c>
       <c r="C242" t="n">
-        <v>8995</v>
+        <v>9015</v>
       </c>
       <c r="D242" t="n">
-        <v>9000</v>
+        <v>9020</v>
       </c>
       <c r="E242" t="n">
-        <v>8995</v>
+        <v>9015</v>
       </c>
       <c r="F242" t="n">
-        <v>16</v>
+        <v>233.4569</v>
       </c>
       <c r="G242" t="n">
-        <v>9039.833333333334</v>
+        <v>9041.25</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8911,8 +9599,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -8922,22 +9616,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>9035</v>
+        <v>9000</v>
       </c>
       <c r="C243" t="n">
-        <v>9040</v>
+        <v>8995</v>
       </c>
       <c r="D243" t="n">
-        <v>9040</v>
+        <v>9000</v>
       </c>
       <c r="E243" t="n">
-        <v>9035</v>
+        <v>8995</v>
       </c>
       <c r="F243" t="n">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="G243" t="n">
-        <v>9039.166666666666</v>
+        <v>9039.833333333334</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8946,8 +9640,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -8957,7 +9657,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>9040</v>
+        <v>9035</v>
       </c>
       <c r="C244" t="n">
         <v>9040</v>
@@ -8966,13 +9666,13 @@
         <v>9040</v>
       </c>
       <c r="E244" t="n">
-        <v>9040</v>
+        <v>9035</v>
       </c>
       <c r="F244" t="n">
-        <v>268.0588</v>
+        <v>68</v>
       </c>
       <c r="G244" t="n">
-        <v>9038.083333333334</v>
+        <v>9039.166666666666</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8981,8 +9681,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -8992,22 +9698,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>9175</v>
+        <v>9040</v>
       </c>
       <c r="C245" t="n">
-        <v>9175</v>
+        <v>9040</v>
       </c>
       <c r="D245" t="n">
-        <v>9175</v>
+        <v>9040</v>
       </c>
       <c r="E245" t="n">
-        <v>9175</v>
+        <v>9040</v>
       </c>
       <c r="F245" t="n">
-        <v>12.1549</v>
+        <v>268.0588</v>
       </c>
       <c r="G245" t="n">
-        <v>9039.333333333334</v>
+        <v>9038.083333333334</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9016,8 +9722,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9039,10 +9751,10 @@
         <v>9175</v>
       </c>
       <c r="F246" t="n">
-        <v>24</v>
+        <v>12.1549</v>
       </c>
       <c r="G246" t="n">
-        <v>9040.916666666666</v>
+        <v>9039.333333333334</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9051,8 +9763,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9074,10 +9792,10 @@
         <v>9175</v>
       </c>
       <c r="F247" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G247" t="n">
-        <v>9043.416666666666</v>
+        <v>9040.916666666666</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9086,8 +9804,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9097,22 +9821,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>9170</v>
+        <v>9175</v>
       </c>
       <c r="C248" t="n">
-        <v>9170</v>
+        <v>9175</v>
       </c>
       <c r="D248" t="n">
-        <v>9170</v>
+        <v>9175</v>
       </c>
       <c r="E248" t="n">
-        <v>9170</v>
+        <v>9175</v>
       </c>
       <c r="F248" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G248" t="n">
-        <v>9045.75</v>
+        <v>9043.416666666666</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9121,8 +9845,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9135,31 +9865,37 @@
         <v>9170</v>
       </c>
       <c r="C249" t="n">
-        <v>9240</v>
+        <v>9170</v>
       </c>
       <c r="D249" t="n">
-        <v>9240</v>
+        <v>9170</v>
       </c>
       <c r="E249" t="n">
         <v>9170</v>
       </c>
       <c r="F249" t="n">
-        <v>37.99849242</v>
+        <v>13</v>
       </c>
       <c r="G249" t="n">
-        <v>9049.333333333334</v>
+        <v>9045.75</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>9105</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M249" t="n">
-        <v>1</v>
+        <v>1.002138934651291</v>
       </c>
     </row>
     <row r="250">
@@ -9167,22 +9903,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>9110</v>
+        <v>9170</v>
       </c>
       <c r="C250" t="n">
-        <v>9100</v>
+        <v>9240</v>
       </c>
       <c r="D250" t="n">
-        <v>9130</v>
+        <v>9240</v>
       </c>
       <c r="E250" t="n">
-        <v>9100</v>
+        <v>9170</v>
       </c>
       <c r="F250" t="n">
-        <v>49</v>
+        <v>37.99849242</v>
       </c>
       <c r="G250" t="n">
-        <v>9050</v>
+        <v>9049.333333333334</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9202,22 +9938,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>9135</v>
+        <v>9110</v>
       </c>
       <c r="C251" t="n">
+        <v>9100</v>
+      </c>
+      <c r="D251" t="n">
         <v>9130</v>
       </c>
-      <c r="D251" t="n">
-        <v>9135</v>
-      </c>
       <c r="E251" t="n">
-        <v>9130</v>
+        <v>9100</v>
       </c>
       <c r="F251" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G251" t="n">
-        <v>9051.416666666666</v>
+        <v>9050</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9237,22 +9973,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>9130</v>
+        <v>9135</v>
       </c>
       <c r="C252" t="n">
         <v>9130</v>
       </c>
       <c r="D252" t="n">
-        <v>9195</v>
+        <v>9135</v>
       </c>
       <c r="E252" t="n">
         <v>9130</v>
       </c>
       <c r="F252" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G252" t="n">
-        <v>9052.833333333334</v>
+        <v>9051.416666666666</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9275,19 +10011,19 @@
         <v>9130</v>
       </c>
       <c r="C253" t="n">
-        <v>9110</v>
+        <v>9130</v>
       </c>
       <c r="D253" t="n">
+        <v>9195</v>
+      </c>
+      <c r="E253" t="n">
         <v>9130</v>
       </c>
-      <c r="E253" t="n">
-        <v>9110</v>
-      </c>
       <c r="F253" t="n">
-        <v>95.3246</v>
+        <v>30</v>
       </c>
       <c r="G253" t="n">
-        <v>9054.416666666666</v>
+        <v>9052.833333333334</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9307,22 +10043,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>9100</v>
+        <v>9130</v>
       </c>
       <c r="C254" t="n">
-        <v>9100</v>
+        <v>9110</v>
       </c>
       <c r="D254" t="n">
-        <v>9100</v>
+        <v>9130</v>
       </c>
       <c r="E254" t="n">
-        <v>9100</v>
+        <v>9110</v>
       </c>
       <c r="F254" t="n">
-        <v>50.0736</v>
+        <v>95.3246</v>
       </c>
       <c r="G254" t="n">
-        <v>9055.833333333334</v>
+        <v>9054.416666666666</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9342,22 +10078,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>9105</v>
+        <v>9100</v>
       </c>
       <c r="C255" t="n">
-        <v>9105</v>
+        <v>9100</v>
       </c>
       <c r="D255" t="n">
-        <v>9105</v>
+        <v>9100</v>
       </c>
       <c r="E255" t="n">
-        <v>9105</v>
+        <v>9100</v>
       </c>
       <c r="F255" t="n">
-        <v>10</v>
+        <v>50.0736</v>
       </c>
       <c r="G255" t="n">
-        <v>9056.833333333334</v>
+        <v>9055.833333333334</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9380,19 +10116,19 @@
         <v>9105</v>
       </c>
       <c r="C256" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="D256" t="n">
         <v>9105</v>
       </c>
       <c r="E256" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="F256" t="n">
-        <v>29.4039</v>
+        <v>10</v>
       </c>
       <c r="G256" t="n">
-        <v>9057.666666666666</v>
+        <v>9056.833333333334</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9412,22 +10148,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>9095</v>
+        <v>9105</v>
       </c>
       <c r="C257" t="n">
-        <v>9075</v>
+        <v>9100</v>
       </c>
       <c r="D257" t="n">
-        <v>9095</v>
+        <v>9105</v>
       </c>
       <c r="E257" t="n">
-        <v>9075</v>
+        <v>9100</v>
       </c>
       <c r="F257" t="n">
-        <v>4</v>
+        <v>29.4039</v>
       </c>
       <c r="G257" t="n">
-        <v>9058</v>
+        <v>9057.666666666666</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9447,22 +10183,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
+        <v>9095</v>
+      </c>
+      <c r="C258" t="n">
         <v>9075</v>
       </c>
-      <c r="C258" t="n">
-        <v>9065</v>
-      </c>
       <c r="D258" t="n">
+        <v>9095</v>
+      </c>
+      <c r="E258" t="n">
         <v>9075</v>
       </c>
-      <c r="E258" t="n">
-        <v>9065</v>
-      </c>
       <c r="F258" t="n">
-        <v>256.5973</v>
+        <v>4</v>
       </c>
       <c r="G258" t="n">
-        <v>9058.25</v>
+        <v>9058</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9482,22 +10218,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>9035</v>
+        <v>9075</v>
       </c>
       <c r="C259" t="n">
-        <v>9035</v>
+        <v>9065</v>
       </c>
       <c r="D259" t="n">
-        <v>9035</v>
+        <v>9075</v>
       </c>
       <c r="E259" t="n">
-        <v>9035</v>
+        <v>9065</v>
       </c>
       <c r="F259" t="n">
-        <v>4</v>
+        <v>256.5973</v>
       </c>
       <c r="G259" t="n">
-        <v>9057.916666666666</v>
+        <v>9058.25</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9529,10 +10265,10 @@
         <v>9035</v>
       </c>
       <c r="F260" t="n">
-        <v>63.5</v>
+        <v>4</v>
       </c>
       <c r="G260" t="n">
-        <v>9058.166666666666</v>
+        <v>9057.916666666666</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9564,10 +10300,10 @@
         <v>9035</v>
       </c>
       <c r="F261" t="n">
-        <v>54.5</v>
+        <v>63.5</v>
       </c>
       <c r="G261" t="n">
-        <v>9058.75</v>
+        <v>9058.166666666666</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9590,19 +10326,19 @@
         <v>9035</v>
       </c>
       <c r="C262" t="n">
-        <v>9030</v>
+        <v>9035</v>
       </c>
       <c r="D262" t="n">
         <v>9035</v>
       </c>
       <c r="E262" t="n">
-        <v>9030</v>
+        <v>9035</v>
       </c>
       <c r="F262" t="n">
-        <v>102.5</v>
+        <v>54.5</v>
       </c>
       <c r="G262" t="n">
-        <v>9059.25</v>
+        <v>9058.75</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9622,22 +10358,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>9010</v>
+        <v>9035</v>
       </c>
       <c r="C263" t="n">
-        <v>9010</v>
+        <v>9030</v>
       </c>
       <c r="D263" t="n">
-        <v>9010</v>
+        <v>9035</v>
       </c>
       <c r="E263" t="n">
-        <v>9010</v>
+        <v>9030</v>
       </c>
       <c r="F263" t="n">
-        <v>35</v>
+        <v>102.5</v>
       </c>
       <c r="G263" t="n">
-        <v>9059.083333333334</v>
+        <v>9059.25</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9660,19 +10396,19 @@
         <v>9010</v>
       </c>
       <c r="C264" t="n">
-        <v>9005</v>
+        <v>9010</v>
       </c>
       <c r="D264" t="n">
         <v>9010</v>
       </c>
       <c r="E264" t="n">
-        <v>9005</v>
+        <v>9010</v>
       </c>
       <c r="F264" t="n">
-        <v>141.5</v>
+        <v>35</v>
       </c>
       <c r="G264" t="n">
-        <v>9058.916666666666</v>
+        <v>9059.083333333334</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9695,19 +10431,19 @@
         <v>9010</v>
       </c>
       <c r="C265" t="n">
-        <v>9000</v>
+        <v>9005</v>
       </c>
       <c r="D265" t="n">
-        <v>9105</v>
+        <v>9010</v>
       </c>
       <c r="E265" t="n">
-        <v>9000</v>
+        <v>9005</v>
       </c>
       <c r="F265" t="n">
-        <v>265</v>
+        <v>141.5</v>
       </c>
       <c r="G265" t="n">
-        <v>9058.666666666666</v>
+        <v>9058.916666666666</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9727,22 +10463,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>9000</v>
+        <v>9010</v>
       </c>
       <c r="C266" t="n">
         <v>9000</v>
       </c>
       <c r="D266" t="n">
+        <v>9105</v>
+      </c>
+      <c r="E266" t="n">
         <v>9000</v>
       </c>
-      <c r="E266" t="n">
-        <v>8995</v>
-      </c>
       <c r="F266" t="n">
-        <v>195.5</v>
+        <v>265</v>
       </c>
       <c r="G266" t="n">
-        <v>9058.416666666666</v>
+        <v>9058.666666666666</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9768,16 +10504,16 @@
         <v>9000</v>
       </c>
       <c r="D267" t="n">
-        <v>9105</v>
+        <v>9000</v>
       </c>
       <c r="E267" t="n">
-        <v>9000</v>
+        <v>8995</v>
       </c>
       <c r="F267" t="n">
-        <v>348.55002745</v>
+        <v>195.5</v>
       </c>
       <c r="G267" t="n">
-        <v>9058.166666666666</v>
+        <v>9058.416666666666</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9800,19 +10536,19 @@
         <v>9000</v>
       </c>
       <c r="C268" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="D268" t="n">
-        <v>9005</v>
+        <v>9105</v>
       </c>
       <c r="E268" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="F268" t="n">
-        <v>354</v>
+        <v>348.55002745</v>
       </c>
       <c r="G268" t="n">
-        <v>9057.833333333334</v>
+        <v>9058.166666666666</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9835,19 +10571,19 @@
         <v>9000</v>
       </c>
       <c r="C269" t="n">
-        <v>9000</v>
+        <v>8995</v>
       </c>
       <c r="D269" t="n">
-        <v>9000</v>
+        <v>9005</v>
       </c>
       <c r="E269" t="n">
-        <v>9000</v>
+        <v>8995</v>
       </c>
       <c r="F269" t="n">
-        <v>98</v>
+        <v>354</v>
       </c>
       <c r="G269" t="n">
-        <v>9057.583333333334</v>
+        <v>9057.833333333334</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9879,10 +10615,10 @@
         <v>9000</v>
       </c>
       <c r="F270" t="n">
-        <v>105.5</v>
+        <v>98</v>
       </c>
       <c r="G270" t="n">
-        <v>9056.333333333334</v>
+        <v>9057.583333333334</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9902,22 +10638,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>9125</v>
+        <v>9000</v>
       </c>
       <c r="C271" t="n">
-        <v>9125</v>
+        <v>9000</v>
       </c>
       <c r="D271" t="n">
-        <v>9125</v>
+        <v>9000</v>
       </c>
       <c r="E271" t="n">
-        <v>9125</v>
+        <v>9000</v>
       </c>
       <c r="F271" t="n">
-        <v>0.50005479</v>
+        <v>105.5</v>
       </c>
       <c r="G271" t="n">
-        <v>9057.083333333334</v>
+        <v>9056.333333333334</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9937,22 +10673,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>9115</v>
+        <v>9125</v>
       </c>
       <c r="C272" t="n">
-        <v>9115</v>
+        <v>9125</v>
       </c>
       <c r="D272" t="n">
-        <v>9115</v>
+        <v>9125</v>
       </c>
       <c r="E272" t="n">
-        <v>9115</v>
+        <v>9125</v>
       </c>
       <c r="F272" t="n">
-        <v>67</v>
+        <v>0.50005479</v>
       </c>
       <c r="G272" t="n">
-        <v>9058.666666666666</v>
+        <v>9057.083333333334</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9972,22 +10708,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>9100</v>
+        <v>9115</v>
       </c>
       <c r="C273" t="n">
-        <v>9100</v>
+        <v>9115</v>
       </c>
       <c r="D273" t="n">
-        <v>9100</v>
+        <v>9115</v>
       </c>
       <c r="E273" t="n">
-        <v>9100</v>
+        <v>9115</v>
       </c>
       <c r="F273" t="n">
-        <v>0.6</v>
+        <v>67</v>
       </c>
       <c r="G273" t="n">
-        <v>9060</v>
+        <v>9058.666666666666</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10007,22 +10743,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>9065</v>
+        <v>9100</v>
       </c>
       <c r="C274" t="n">
-        <v>9085</v>
+        <v>9100</v>
       </c>
       <c r="D274" t="n">
-        <v>9085</v>
+        <v>9100</v>
       </c>
       <c r="E274" t="n">
-        <v>9065</v>
+        <v>9100</v>
       </c>
       <c r="F274" t="n">
-        <v>50.9152</v>
+        <v>0.6</v>
       </c>
       <c r="G274" t="n">
-        <v>9061</v>
+        <v>9060</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10042,22 +10778,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>9020</v>
+        <v>9065</v>
       </c>
       <c r="C275" t="n">
-        <v>9020</v>
+        <v>9085</v>
       </c>
       <c r="D275" t="n">
-        <v>9020</v>
+        <v>9085</v>
       </c>
       <c r="E275" t="n">
-        <v>9020</v>
+        <v>9065</v>
       </c>
       <c r="F275" t="n">
-        <v>35</v>
+        <v>50.9152</v>
       </c>
       <c r="G275" t="n">
-        <v>9060.916666666666</v>
+        <v>9061</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10077,22 +10813,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>9025</v>
+        <v>9020</v>
       </c>
       <c r="C276" t="n">
         <v>9020</v>
       </c>
       <c r="D276" t="n">
-        <v>9025</v>
+        <v>9020</v>
       </c>
       <c r="E276" t="n">
         <v>9020</v>
       </c>
       <c r="F276" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="G276" t="n">
-        <v>9060.833333333334</v>
+        <v>9060.916666666666</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10107,6 +10843,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>9025</v>
+      </c>
+      <c r="C277" t="n">
+        <v>9020</v>
+      </c>
+      <c r="D277" t="n">
+        <v>9025</v>
+      </c>
+      <c r="E277" t="n">
+        <v>9020</v>
+      </c>
+      <c r="F277" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="G277" t="n">
+        <v>9060.833333333334</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-19 BackTest BTG.xlsx
+++ b/BackTest/2019-10-19 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N345"/>
+  <dimension ref="A1:M345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-1049.84592888</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-2317.34692888</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-2423.49692888</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-2529.69182888</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-2529.69182888</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-2569.86462888</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-2569.11552888</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-2562.03692888</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-2565.75792888</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-2640.52392888</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-2705.890928880001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-2692.140928880001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-2711.471028880001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-2646.21102888</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>-2665.895228880001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>-2728.527228880001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-2683.405828880001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-2980.925428880001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>-3005.495428880001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>-3046.991928880002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-3095.060228880002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +3883,15 @@
         <v>-3083.871200530003</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +3916,15 @@
         <v>-3115.616300530003</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4048,15 @@
         <v>-3050.163300530003</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4114,15 @@
         <v>-3046.143200530003</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4488,18 +4147,15 @@
         <v>-2504.283800530003</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4524,18 +4180,15 @@
         <v>-2504.783800530003</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,18 +4213,15 @@
         <v>-2502.592000530003</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4596,18 +4246,15 @@
         <v>-2502.592000530003</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6036,18 +5566,15 @@
         <v>-3538.258125460002</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8307,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8340,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8373,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8406,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8439,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8472,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8505,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9278,16 +8538,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +8571,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +8604,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +8637,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9422,16 +8670,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9458,16 +8703,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9494,16 +8736,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9530,16 +8769,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9566,16 +8802,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9602,16 +8835,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9638,16 +8868,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9674,16 +8901,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9710,16 +8934,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9746,16 +8967,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9782,16 +9000,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9818,16 +9033,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9854,16 +9066,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9888,18 +9097,19 @@
         <v>-9110.528122990003</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
+        <v>9015</v>
+      </c>
+      <c r="J264" t="n">
+        <v>9015</v>
+      </c>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9924,18 +9134,23 @@
         <v>-9110.528122990003</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+        <v>9015</v>
+      </c>
+      <c r="J265" t="n">
+        <v>9015</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9960,18 +9175,23 @@
         <v>-9110.528122990003</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+        <v>9015</v>
+      </c>
+      <c r="J266" t="n">
+        <v>9015</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9996,18 +9216,19 @@
         <v>-9110.528122990003</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
+        <v>9015</v>
+      </c>
+      <c r="J267" t="n">
+        <v>9015</v>
+      </c>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10034,16 +9255,19 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>9015</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10070,16 +9294,19 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>9015</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10106,16 +9333,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10142,16 +9366,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10178,16 +9399,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10214,16 +9432,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10250,16 +9465,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10286,16 +9498,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10322,16 +9531,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10358,16 +9564,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10394,16 +9597,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10430,16 +9630,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10466,16 +9663,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10502,16 +9696,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10538,16 +9729,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10574,16 +9762,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10610,16 +9795,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10646,16 +9828,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10682,16 +9861,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10718,16 +9894,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10754,16 +9927,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10790,16 +9960,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10826,16 +9993,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10862,16 +10026,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10898,16 +10059,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10934,16 +10092,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10970,16 +10125,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11004,18 +10156,19 @@
         <v>-9169.022122990003</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
+        <v>9150</v>
+      </c>
+      <c r="J295" t="n">
+        <v>9150</v>
+      </c>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11042,16 +10195,19 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>9150</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11078,16 +10234,19 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>9150</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11114,16 +10273,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11150,16 +10306,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11186,16 +10339,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11222,16 +10372,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11258,16 +10405,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11292,18 +10436,19 @@
         <v>-9357.868222990004</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
+        <v>9040</v>
+      </c>
+      <c r="J303" t="n">
+        <v>9040</v>
+      </c>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11328,18 +10473,23 @@
         <v>-9345.713322990005</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+        <v>9040</v>
+      </c>
+      <c r="J304" t="n">
+        <v>9040</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11366,16 +10516,19 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>9040</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11402,16 +10555,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11438,16 +10588,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11474,16 +10621,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11510,16 +10654,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11546,16 +10687,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11582,16 +10720,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11618,16 +10753,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11654,16 +10786,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11688,18 +10817,19 @@
         <v>-9465.113030570004</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="n">
-        <v>0</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
+        <v>9100</v>
+      </c>
+      <c r="J314" t="n">
+        <v>9100</v>
+      </c>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11724,24 +10854,23 @@
         <v>-9494.516930570004</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315" t="n">
-        <v>0</v>
+        <v>9105</v>
       </c>
       <c r="J315" t="n">
-        <v>9105</v>
-      </c>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
+        <v>9100</v>
+      </c>
+      <c r="K315" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11766,24 +10895,21 @@
         <v>-9498.516930570004</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
         <v>9100</v>
       </c>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
+      <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11808,24 +10934,21 @@
         <v>-9755.114230570003</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>9075</v>
-      </c>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
+        <v>9100</v>
+      </c>
+      <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11850,22 +10973,23 @@
         <v>-9759.114230570003</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="n">
-        <v>0</v>
-      </c>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
+        <v>9065</v>
+      </c>
+      <c r="J318" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11890,22 +11014,23 @@
         <v>-9759.114230570003</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="n">
-        <v>0</v>
-      </c>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr">
+        <v>9035</v>
+      </c>
+      <c r="J319" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11930,22 +11055,23 @@
         <v>-9759.114230570003</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="n">
-        <v>0</v>
-      </c>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr">
+        <v>9035</v>
+      </c>
+      <c r="J320" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11970,22 +11096,23 @@
         <v>-9861.614230570003</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="n">
-        <v>0</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr">
+        <v>9035</v>
+      </c>
+      <c r="J321" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12010,24 +11137,21 @@
         <v>-9896.614230570003</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>9030</v>
-      </c>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr">
+        <v>9100</v>
+      </c>
+      <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12052,24 +11176,23 @@
         <v>-10038.11423057</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323" t="n">
-        <v>0</v>
+        <v>9010</v>
       </c>
       <c r="J323" t="n">
-        <v>9010</v>
-      </c>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
+        <v>9100</v>
+      </c>
+      <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12094,24 +11217,21 @@
         <v>-10303.11423057</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>9005</v>
-      </c>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
+        <v>9100</v>
+      </c>
+      <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12136,24 +11256,21 @@
         <v>-10303.11423057</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>9000</v>
-      </c>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
+        <v>9100</v>
+      </c>
+      <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12178,24 +11295,21 @@
         <v>-10303.11423057</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>9000</v>
-      </c>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
+        <v>9100</v>
+      </c>
+      <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12220,24 +11334,23 @@
         <v>-10657.11423057</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I327" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="J327" t="n">
-        <v>9000</v>
-      </c>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr">
+        <v>9100</v>
+      </c>
+      <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12264,20 +11377,19 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12304,20 +11416,19 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12344,20 +11455,19 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12384,20 +11494,19 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12424,20 +11533,19 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12464,20 +11572,19 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr">
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12504,20 +11611,19 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12544,20 +11650,19 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr">
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12584,20 +11689,19 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr">
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12624,20 +11728,19 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr">
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12664,20 +11767,19 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr">
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12704,20 +11806,19 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr">
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12744,20 +11845,19 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr">
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -12784,20 +11884,19 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr">
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -12824,20 +11923,19 @@
       <c r="H342" t="n">
         <v>0</v>
       </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr">
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -12864,20 +11962,19 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr">
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -12904,20 +12001,19 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr">
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -12944,22 +12040,21 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr">
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>9100</v>
+      </c>
+      <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest BTG.xlsx
+++ b/BackTest/2019-10-19 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1049.84592888</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2238.31692888</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-2244.84692888</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-2244.84692888</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-2244.84692888</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2244.84692888</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2317.34692888</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-2423.49692888</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2529.69182888</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2529.69182888</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2569.86462888</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-2569.11552888</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-2562.03692888</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2569.14242888</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2565.75792888</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2640.52392888</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2705.890928880001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2692.140928880001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2711.471028880001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2646.21102888</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-2665.895228880001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2728.527228880001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-2683.405828880001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2980.925428880001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-3005.495428880001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-3046.991928880002</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-3095.060228880002</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-3083.871200530003</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-3115.616300530003</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-3050.163300530003</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3046.143200530003</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-2504.283800530003</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-2504.783800530003</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-2502.592000530003</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-2502.592000530003</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-3538.258125460002</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -9097,14 +9097,10 @@
         <v>-9110.528122990003</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>9015</v>
-      </c>
-      <c r="J264" t="n">
-        <v>9015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
@@ -9134,97 +9130,89 @@
         <v>-9110.528122990003</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>9015</v>
+      </c>
+      <c r="C266" t="n">
+        <v>9015</v>
+      </c>
+      <c r="D266" t="n">
+        <v>9015</v>
+      </c>
+      <c r="E266" t="n">
+        <v>9015</v>
+      </c>
+      <c r="F266" t="n">
+        <v>148.3237</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-9110.528122990003</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>9015</v>
+      </c>
+      <c r="J266" t="n">
+        <v>9015</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>9015</v>
+      </c>
+      <c r="C267" t="n">
+        <v>9015</v>
+      </c>
+      <c r="D267" t="n">
+        <v>9015</v>
+      </c>
+      <c r="E267" t="n">
+        <v>9015</v>
+      </c>
+      <c r="F267" t="n">
         <v>2</v>
       </c>
-      <c r="I265" t="n">
+      <c r="G267" t="n">
+        <v>-9110.528122990003</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
         <v>9015</v>
       </c>
-      <c r="J265" t="n">
+      <c r="J267" t="n">
         <v>9015</v>
       </c>
-      <c r="K265" t="inlineStr">
+      <c r="K267" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>9015</v>
-      </c>
-      <c r="C266" t="n">
-        <v>9015</v>
-      </c>
-      <c r="D266" t="n">
-        <v>9015</v>
-      </c>
-      <c r="E266" t="n">
-        <v>9015</v>
-      </c>
-      <c r="F266" t="n">
-        <v>148.3237</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-9110.528122990003</v>
-      </c>
-      <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>9015</v>
-      </c>
-      <c r="J266" t="n">
-        <v>9015</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>9015</v>
-      </c>
-      <c r="C267" t="n">
-        <v>9015</v>
-      </c>
-      <c r="D267" t="n">
-        <v>9015</v>
-      </c>
-      <c r="E267" t="n">
-        <v>9015</v>
-      </c>
-      <c r="F267" t="n">
-        <v>2</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-9110.528122990003</v>
-      </c>
-      <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>9015</v>
-      </c>
-      <c r="J267" t="n">
-        <v>9015</v>
-      </c>
-      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9253,9 +9241,11 @@
         <v>-9110.528122990003</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>9015</v>
+      </c>
       <c r="J268" t="n">
         <v>9015</v>
       </c>
@@ -9292,50 +9282,54 @@
         <v>-9076.502522990002</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>9015</v>
+      </c>
       <c r="J269" t="n">
         <v>9015</v>
       </c>
-      <c r="K269" t="inlineStr">
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>9080</v>
+      </c>
+      <c r="C270" t="n">
+        <v>9080</v>
+      </c>
+      <c r="D270" t="n">
+        <v>9080</v>
+      </c>
+      <c r="E270" t="n">
+        <v>9080</v>
+      </c>
+      <c r="F270" t="n">
+        <v>51.1729</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-9025.329622990002</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>9015</v>
+      </c>
+      <c r="K270" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>9080</v>
-      </c>
-      <c r="C270" t="n">
-        <v>9080</v>
-      </c>
-      <c r="D270" t="n">
-        <v>9080</v>
-      </c>
-      <c r="E270" t="n">
-        <v>9080</v>
-      </c>
-      <c r="F270" t="n">
-        <v>51.1729</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-9025.329622990002</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9367,8 +9361,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>9015</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9430,10 +9430,14 @@
         <v>-9023.329622990002</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>9020</v>
+      </c>
+      <c r="J273" t="n">
+        <v>9020</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
@@ -9466,8 +9470,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9496,11 +9506,19 @@
         <v>-9023.329622990002</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>9025</v>
+      </c>
+      <c r="J275" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9529,11 +9547,19 @@
         <v>-9023.329622990002</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>9025</v>
+      </c>
+      <c r="J276" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9562,11 +9588,19 @@
         <v>-9023.329622990002</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>9025</v>
+      </c>
+      <c r="J277" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9595,11 +9629,19 @@
         <v>-9480.675022990003</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>9025</v>
+      </c>
+      <c r="J278" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9628,11 +9670,19 @@
         <v>-9180.675022990003</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>8985</v>
+      </c>
+      <c r="J279" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9664,8 +9714,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9697,8 +9753,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9730,8 +9792,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9763,8 +9831,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9796,8 +9870,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9826,11 +9906,19 @@
         <v>-9373.711422990003</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>9045</v>
+      </c>
+      <c r="J285" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9862,8 +9950,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9895,8 +9989,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9928,8 +10028,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9961,8 +10067,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9994,8 +10106,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10027,8 +10145,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10060,8 +10184,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10093,8 +10223,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10126,8 +10262,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10156,15 +10298,17 @@
         <v>-9169.022122990003</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>9150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>9150</v>
-      </c>
-      <c r="K295" t="inlineStr"/>
+        <v>9020</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10197,11 +10341,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>9150</v>
+        <v>9020</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L296" t="n">
@@ -10236,11 +10380,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>9150</v>
+        <v>9020</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L297" t="n">
@@ -10274,8 +10418,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10307,8 +10457,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10340,8 +10496,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10373,8 +10535,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10406,8 +10574,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10436,15 +10610,17 @@
         <v>-9357.868222990004</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>9040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>9040</v>
-      </c>
-      <c r="K303" t="inlineStr"/>
+        <v>9020</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10473,17 +10649,15 @@
         <v>-9345.713322990005</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>9040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>9040</v>
+        <v>9020</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L304" t="n">
@@ -10518,11 +10692,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>9040</v>
+        <v>9020</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L305" t="n">
@@ -10556,8 +10730,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10589,8 +10769,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10622,8 +10808,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10655,8 +10847,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10688,8 +10886,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10721,8 +10925,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10754,8 +10964,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10787,8 +11003,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10817,15 +11039,17 @@
         <v>-9465.113030570004</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>9100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>9100</v>
-      </c>
-      <c r="K314" t="inlineStr"/>
+        <v>9020</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10854,17 +11078,17 @@
         <v>-9494.516930570004</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>9105</v>
       </c>
       <c r="J315" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L315" t="n">
@@ -10899,7 +11123,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -10938,7 +11162,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -10973,13 +11197,11 @@
         <v>-9759.114230570003</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="n">
-        <v>9065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11014,13 +11236,11 @@
         <v>-9759.114230570003</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
-      </c>
-      <c r="I319" t="n">
-        <v>9035</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11055,13 +11275,13 @@
         <v>-9759.114230570003</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>9035</v>
       </c>
       <c r="J320" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11096,13 +11316,11 @@
         <v>-9861.614230570003</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="n">
-        <v>9035</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11137,11 +11355,13 @@
         <v>-9896.614230570003</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>9030</v>
+      </c>
       <c r="J322" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11176,13 +11396,13 @@
         <v>-10038.11423057</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>9010</v>
       </c>
       <c r="J323" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11217,11 +11437,13 @@
         <v>-10303.11423057</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>9005</v>
+      </c>
       <c r="J324" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11256,11 +11478,13 @@
         <v>-10303.11423057</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>9000</v>
+      </c>
       <c r="J325" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11299,7 +11523,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11334,13 +11558,11 @@
         <v>-10657.11423057</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="n">
-        <v>9000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11379,7 +11601,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11418,7 +11640,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11457,7 +11679,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11496,7 +11718,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11535,7 +11757,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11574,7 +11796,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11613,7 +11835,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11652,7 +11874,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11691,7 +11913,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -11730,7 +11952,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -11769,7 +11991,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -11808,7 +12030,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -11847,7 +12069,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -11886,7 +12108,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -11925,7 +12147,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -11964,7 +12186,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12003,7 +12225,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12042,7 +12264,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>9100</v>
+        <v>9020</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12055,6 +12277,6 @@
       <c r="M345" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest BTG.xlsx
+++ b/BackTest/2019-10-19 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1049.84592888</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2238.31692888</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-2244.84692888</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-2244.84692888</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-2244.84692888</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2244.84692888</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2317.34692888</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-2423.49692888</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2529.69182888</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2529.69182888</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2569.86462888</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-2569.11552888</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-2562.03692888</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2569.14242888</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2565.75792888</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-2526.021100530003</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-2577.767600530003</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-2629.693239160003</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-2713.423239160003</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-2713.423239160003</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-2701.274139160003</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-2434.533339160002</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-2331.213639160002</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-2320.932739160002</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-2320.932739160002</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-2331.726039160002</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-2392.726039160002</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -9130,10 +9130,14 @@
         <v>-9110.528122990003</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>9015</v>
+      </c>
+      <c r="J265" t="n">
+        <v>9015</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
@@ -9171,7 +9175,11 @@
       <c r="J266" t="n">
         <v>9015</v>
       </c>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9249,48 +9257,48 @@
       <c r="J268" t="n">
         <v>9015</v>
       </c>
-      <c r="K268" t="inlineStr">
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>9075</v>
+      </c>
+      <c r="C269" t="n">
+        <v>9075</v>
+      </c>
+      <c r="D269" t="n">
+        <v>9075</v>
+      </c>
+      <c r="E269" t="n">
+        <v>9075</v>
+      </c>
+      <c r="F269" t="n">
+        <v>34.0256</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-9076.502522990002</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>9015</v>
+      </c>
+      <c r="J269" t="n">
+        <v>9015</v>
+      </c>
+      <c r="K269" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>9075</v>
-      </c>
-      <c r="C269" t="n">
-        <v>9075</v>
-      </c>
-      <c r="D269" t="n">
-        <v>9075</v>
-      </c>
-      <c r="E269" t="n">
-        <v>9075</v>
-      </c>
-      <c r="F269" t="n">
-        <v>34.0256</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-9076.502522990002</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>9015</v>
-      </c>
-      <c r="J269" t="n">
-        <v>9015</v>
-      </c>
-      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9319,9 +9327,11 @@
         <v>-9025.329622990002</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>9075</v>
+      </c>
       <c r="J270" t="n">
         <v>9015</v>
       </c>
@@ -9361,84 +9371,86 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>9015</v>
-      </c>
-      <c r="K271" t="inlineStr">
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>9020</v>
+      </c>
+      <c r="C272" t="n">
+        <v>9020</v>
+      </c>
+      <c r="D272" t="n">
+        <v>9020</v>
+      </c>
+      <c r="E272" t="n">
+        <v>9020</v>
+      </c>
+      <c r="F272" t="n">
+        <v>14</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-9029.329622990002</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>9020</v>
+      </c>
+      <c r="J272" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>9025</v>
+      </c>
+      <c r="C273" t="n">
+        <v>9025</v>
+      </c>
+      <c r="D273" t="n">
+        <v>9025</v>
+      </c>
+      <c r="E273" t="n">
+        <v>9025</v>
+      </c>
+      <c r="F273" t="n">
+        <v>6</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-9023.329622990002</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>9020</v>
+      </c>
+      <c r="J273" t="n">
+        <v>9020</v>
+      </c>
+      <c r="K273" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>9020</v>
-      </c>
-      <c r="C272" t="n">
-        <v>9020</v>
-      </c>
-      <c r="D272" t="n">
-        <v>9020</v>
-      </c>
-      <c r="E272" t="n">
-        <v>9020</v>
-      </c>
-      <c r="F272" t="n">
-        <v>14</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-9029.329622990002</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>9025</v>
-      </c>
-      <c r="C273" t="n">
-        <v>9025</v>
-      </c>
-      <c r="D273" t="n">
-        <v>9025</v>
-      </c>
-      <c r="E273" t="n">
-        <v>9025</v>
-      </c>
-      <c r="F273" t="n">
-        <v>6</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-9023.329622990002</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>9020</v>
-      </c>
-      <c r="J273" t="n">
-        <v>9020</v>
-      </c>
-      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9467,9 +9479,11 @@
         <v>-9023.329622990002</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>9025</v>
+      </c>
       <c r="J274" t="n">
         <v>9020</v>
       </c>
@@ -9506,19 +9520,11 @@
         <v>-9023.329622990002</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>9025</v>
-      </c>
-      <c r="J275" t="n">
-        <v>9020</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9552,9 +9558,7 @@
       <c r="I276" t="n">
         <v>9025</v>
       </c>
-      <c r="J276" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -9588,14 +9592,10 @@
         <v>-9023.329622990002</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>9025</v>
-      </c>
-      <c r="J277" t="n">
-        <v>9020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9634,9 +9634,7 @@
       <c r="I278" t="n">
         <v>9025</v>
       </c>
-      <c r="J278" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9670,14 +9668,10 @@
         <v>-9180.675022990003</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>8985</v>
-      </c>
-      <c r="J279" t="n">
-        <v>9020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9711,12 +9705,12 @@
         <v>-9180.675022990003</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>9020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>9080</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9753,9 +9747,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9792,9 +9784,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9831,9 +9821,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9867,12 +9855,12 @@
         <v>-9331.133322990003</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>9020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9906,14 +9894,10 @@
         <v>-9373.711422990003</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>9045</v>
-      </c>
-      <c r="J285" t="n">
-        <v>9020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9947,12 +9931,12 @@
         <v>-8766.725722990004</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>9020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>8995</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9989,9 +9973,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10028,9 +10010,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10067,9 +10047,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10103,12 +10081,12 @@
         <v>-8909.923922990003</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>9020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>9005</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10145,9 +10123,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10184,9 +10160,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10223,9 +10197,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10262,9 +10234,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10301,9 +10271,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10340,9 +10308,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10379,9 +10345,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10418,9 +10382,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10457,9 +10419,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10496,9 +10456,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10535,9 +10493,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10574,9 +10530,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10613,9 +10567,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10652,9 +10604,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10691,9 +10641,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10730,9 +10678,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10769,9 +10715,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10808,9 +10752,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10847,9 +10789,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10886,9 +10826,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10925,9 +10863,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10964,9 +10900,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11003,9 +10937,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11042,9 +10974,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11078,14 +11008,10 @@
         <v>-9494.516930570004</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>9105</v>
-      </c>
-      <c r="J315" t="n">
-        <v>9020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11122,9 +11048,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11161,9 +11085,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11200,9 +11122,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11239,9 +11159,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11275,14 +11193,10 @@
         <v>-9759.114230570003</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>9035</v>
-      </c>
-      <c r="J320" t="n">
-        <v>9020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11319,9 +11233,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11355,14 +11267,10 @@
         <v>-9896.614230570003</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>9030</v>
-      </c>
-      <c r="J322" t="n">
-        <v>9020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11396,14 +11304,10 @@
         <v>-10038.11423057</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>9010</v>
-      </c>
-      <c r="J323" t="n">
-        <v>9020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11437,14 +11341,10 @@
         <v>-10303.11423057</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>9005</v>
-      </c>
-      <c r="J324" t="n">
-        <v>9020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11478,14 +11378,10 @@
         <v>-10303.11423057</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>9000</v>
-      </c>
-      <c r="J325" t="n">
-        <v>9020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11522,9 +11418,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11561,9 +11455,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11600,9 +11492,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11639,9 +11529,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11678,9 +11566,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11717,9 +11603,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11756,9 +11640,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11795,9 +11677,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11834,9 +11714,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11873,9 +11751,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11912,9 +11788,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11951,9 +11825,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11990,9 +11862,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12029,9 +11899,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12068,9 +11936,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12107,9 +11973,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12146,9 +12010,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12185,9 +12047,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12224,9 +12084,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12263,9 +12121,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>9020</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12277,6 +12133,6 @@
       <c r="M345" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest BTG.xlsx
+++ b/BackTest/2019-10-19 BackTest BTG.xlsx
@@ -451,7 +451,7 @@
         <v>-1049.84592888</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-2526.021100530003</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-2577.767600530003</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-2629.693239160003</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-2713.423239160003</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-2713.423239160003</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-2701.274139160003</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-2434.533339160002</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-2331.213639160002</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-2320.932739160002</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-2320.932739160002</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-2331.726039160002</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-2392.726039160002</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -9130,14 +9130,10 @@
         <v>-9110.528122990003</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>9015</v>
-      </c>
-      <c r="J265" t="n">
-        <v>9015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
@@ -9167,19 +9163,11 @@
         <v>-9110.528122990003</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>9015</v>
-      </c>
-      <c r="J266" t="n">
-        <v>9015</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9208,19 +9196,11 @@
         <v>-9110.528122990003</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>9015</v>
-      </c>
-      <c r="J267" t="n">
-        <v>9015</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9249,14 +9229,10 @@
         <v>-9110.528122990003</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>9015</v>
-      </c>
-      <c r="J268" t="n">
-        <v>9015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
@@ -9286,19 +9262,11 @@
         <v>-9076.502522990002</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>9015</v>
-      </c>
-      <c r="J269" t="n">
-        <v>9015</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9327,19 +9295,11 @@
         <v>-9025.329622990002</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>9075</v>
-      </c>
-      <c r="J270" t="n">
-        <v>9015</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9401,14 +9361,10 @@
         <v>-9029.329622990002</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>9020</v>
-      </c>
-      <c r="J272" t="n">
-        <v>9020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
@@ -9438,19 +9394,11 @@
         <v>-9023.329622990002</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>9020</v>
-      </c>
-      <c r="J273" t="n">
-        <v>9020</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9479,19 +9427,11 @@
         <v>-9023.329622990002</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>9025</v>
-      </c>
-      <c r="J274" t="n">
-        <v>9020</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9553,1766 +9493,1586 @@
         <v>-9023.329622990002</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>9030</v>
+      </c>
+      <c r="C277" t="n">
         <v>9025</v>
       </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
+      <c r="D277" t="n">
+        <v>9030</v>
+      </c>
+      <c r="E277" t="n">
+        <v>9025</v>
+      </c>
+      <c r="F277" t="n">
+        <v>8</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-9023.329622990002</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>9025</v>
+      </c>
+      <c r="C278" t="n">
+        <v>8985</v>
+      </c>
+      <c r="D278" t="n">
+        <v>9025</v>
+      </c>
+      <c r="E278" t="n">
+        <v>8985</v>
+      </c>
+      <c r="F278" t="n">
+        <v>457.3454</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-9480.675022990003</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>9070</v>
+      </c>
+      <c r="C279" t="n">
+        <v>9080</v>
+      </c>
+      <c r="D279" t="n">
+        <v>9080</v>
+      </c>
+      <c r="E279" t="n">
+        <v>9070</v>
+      </c>
+      <c r="F279" t="n">
+        <v>300</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-9180.675022990003</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>9080</v>
+      </c>
+      <c r="C280" t="n">
+        <v>9080</v>
+      </c>
+      <c r="D280" t="n">
+        <v>9080</v>
+      </c>
+      <c r="E280" t="n">
+        <v>9080</v>
+      </c>
+      <c r="F280" t="n">
+        <v>103.8446</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-9180.675022990003</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>9080</v>
+      </c>
+      <c r="C281" t="n">
+        <v>9080</v>
+      </c>
+      <c r="D281" t="n">
+        <v>9080</v>
+      </c>
+      <c r="E281" t="n">
+        <v>9080</v>
+      </c>
+      <c r="F281" t="n">
+        <v>21.9999</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-9180.675022990003</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>9045</v>
+      </c>
+      <c r="C282" t="n">
+        <v>9045</v>
+      </c>
+      <c r="D282" t="n">
+        <v>9045</v>
+      </c>
+      <c r="E282" t="n">
+        <v>9045</v>
+      </c>
+      <c r="F282" t="n">
+        <v>30</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-9210.675022990003</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>9015</v>
+      </c>
+      <c r="C283" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D283" t="n">
+        <v>9015</v>
+      </c>
+      <c r="E283" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F283" t="n">
+        <v>189.1634</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-9399.838422990002</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C284" t="n">
+        <v>9045</v>
+      </c>
+      <c r="D284" t="n">
+        <v>9045</v>
+      </c>
+      <c r="E284" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F284" t="n">
+        <v>68.7051</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-9331.133322990003</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C285" t="n">
+        <v>8995</v>
+      </c>
+      <c r="D285" t="n">
+        <v>8995</v>
+      </c>
+      <c r="E285" t="n">
+        <v>8995</v>
+      </c>
+      <c r="F285" t="n">
+        <v>42.5781</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-9373.711422990003</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>9010</v>
+      </c>
+      <c r="C286" t="n">
+        <v>9020</v>
+      </c>
+      <c r="D286" t="n">
+        <v>9020</v>
+      </c>
+      <c r="E286" t="n">
+        <v>8990</v>
+      </c>
+      <c r="F286" t="n">
+        <v>606.9857</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-8766.725722990004</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>9080</v>
+      </c>
+      <c r="C287" t="n">
+        <v>9180</v>
+      </c>
+      <c r="D287" t="n">
+        <v>9180</v>
+      </c>
+      <c r="E287" t="n">
+        <v>9080</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-8766.625722990004</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C288" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D288" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E288" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F288" t="n">
+        <v>112</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-8878.625722990004</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C289" t="n">
+        <v>9005</v>
+      </c>
+      <c r="D289" t="n">
+        <v>9005</v>
+      </c>
+      <c r="E289" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F289" t="n">
+        <v>76</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-8802.625722990004</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C290" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D290" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E290" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F290" t="n">
+        <v>107.2982</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-8909.923922990003</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>9105</v>
+      </c>
+      <c r="C291" t="n">
+        <v>9105</v>
+      </c>
+      <c r="D291" t="n">
+        <v>9105</v>
+      </c>
+      <c r="E291" t="n">
+        <v>9105</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-8909.823922990003</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>9050</v>
+      </c>
+      <c r="C292" t="n">
+        <v>9050</v>
+      </c>
+      <c r="D292" t="n">
+        <v>9050</v>
+      </c>
+      <c r="E292" t="n">
+        <v>9050</v>
+      </c>
+      <c r="F292" t="n">
+        <v>70</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-8979.823922990003</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>9050</v>
+      </c>
+      <c r="C293" t="n">
+        <v>9005</v>
+      </c>
+      <c r="D293" t="n">
+        <v>9050</v>
+      </c>
+      <c r="E293" t="n">
+        <v>9005</v>
+      </c>
+      <c r="F293" t="n">
+        <v>114.4475</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-9094.271422990003</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>9150</v>
+      </c>
+      <c r="C294" t="n">
+        <v>9150</v>
+      </c>
+      <c r="D294" t="n">
+        <v>9150</v>
+      </c>
+      <c r="E294" t="n">
+        <v>9150</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-9094.171422990003</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>9050</v>
+      </c>
+      <c r="C295" t="n">
+        <v>9050</v>
+      </c>
+      <c r="D295" t="n">
+        <v>9050</v>
+      </c>
+      <c r="E295" t="n">
+        <v>9050</v>
+      </c>
+      <c r="F295" t="n">
+        <v>74.8507</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-9169.022122990003</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>9035</v>
+      </c>
+      <c r="C296" t="n">
+        <v>9035</v>
+      </c>
+      <c r="D296" t="n">
+        <v>9035</v>
+      </c>
+      <c r="E296" t="n">
+        <v>9035</v>
+      </c>
+      <c r="F296" t="n">
+        <v>44.4871</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-9213.509222990004</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>9050</v>
+      </c>
+      <c r="C297" t="n">
+        <v>9050</v>
+      </c>
+      <c r="D297" t="n">
+        <v>9050</v>
+      </c>
+      <c r="E297" t="n">
+        <v>9050</v>
+      </c>
+      <c r="F297" t="n">
+        <v>38.3779</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-9175.131322990004</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>9140</v>
+      </c>
+      <c r="C298" t="n">
+        <v>9045</v>
+      </c>
+      <c r="D298" t="n">
+        <v>9140</v>
+      </c>
+      <c r="E298" t="n">
+        <v>9045</v>
+      </c>
+      <c r="F298" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-9176.411322990005</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>9050</v>
+      </c>
+      <c r="C299" t="n">
+        <v>9045</v>
+      </c>
+      <c r="D299" t="n">
+        <v>9050</v>
+      </c>
+      <c r="E299" t="n">
+        <v>9045</v>
+      </c>
+      <c r="F299" t="n">
+        <v>29.9752</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-9176.411322990005</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>9020</v>
+      </c>
+      <c r="C300" t="n">
+        <v>9015</v>
+      </c>
+      <c r="D300" t="n">
+        <v>9020</v>
+      </c>
+      <c r="E300" t="n">
+        <v>9015</v>
+      </c>
+      <c r="F300" t="n">
+        <v>233.4569</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-9409.868222990004</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C301" t="n">
+        <v>8995</v>
+      </c>
+      <c r="D301" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E301" t="n">
+        <v>8995</v>
+      </c>
+      <c r="F301" t="n">
+        <v>16</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-9425.868222990004</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>9035</v>
+      </c>
+      <c r="C302" t="n">
+        <v>9040</v>
+      </c>
+      <c r="D302" t="n">
+        <v>9040</v>
+      </c>
+      <c r="E302" t="n">
+        <v>9035</v>
+      </c>
+      <c r="F302" t="n">
+        <v>68</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-9357.868222990004</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>9040</v>
+      </c>
+      <c r="C303" t="n">
+        <v>9040</v>
+      </c>
+      <c r="D303" t="n">
+        <v>9040</v>
+      </c>
+      <c r="E303" t="n">
+        <v>9040</v>
+      </c>
+      <c r="F303" t="n">
+        <v>268.0588</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-9357.868222990004</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>9175</v>
+      </c>
+      <c r="C304" t="n">
+        <v>9175</v>
+      </c>
+      <c r="D304" t="n">
+        <v>9175</v>
+      </c>
+      <c r="E304" t="n">
+        <v>9175</v>
+      </c>
+      <c r="F304" t="n">
+        <v>12.1549</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-9345.713322990005</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>9175</v>
+      </c>
+      <c r="C305" t="n">
+        <v>9175</v>
+      </c>
+      <c r="D305" t="n">
+        <v>9175</v>
+      </c>
+      <c r="E305" t="n">
+        <v>9175</v>
+      </c>
+      <c r="F305" t="n">
+        <v>24</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-9345.713322990005</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>9175</v>
+      </c>
+      <c r="C306" t="n">
+        <v>9175</v>
+      </c>
+      <c r="D306" t="n">
+        <v>9175</v>
+      </c>
+      <c r="E306" t="n">
+        <v>9175</v>
+      </c>
+      <c r="F306" t="n">
+        <v>12</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-9345.713322990005</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>9170</v>
+      </c>
+      <c r="C307" t="n">
+        <v>9170</v>
+      </c>
+      <c r="D307" t="n">
+        <v>9170</v>
+      </c>
+      <c r="E307" t="n">
+        <v>9170</v>
+      </c>
+      <c r="F307" t="n">
+        <v>13</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-9358.713322990005</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>9170</v>
+      </c>
+      <c r="C308" t="n">
+        <v>9240</v>
+      </c>
+      <c r="D308" t="n">
+        <v>9240</v>
+      </c>
+      <c r="E308" t="n">
+        <v>9170</v>
+      </c>
+      <c r="F308" t="n">
+        <v>37.99849242</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-9320.714830570005</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>9110</v>
+      </c>
+      <c r="C309" t="n">
+        <v>9100</v>
+      </c>
+      <c r="D309" t="n">
+        <v>9130</v>
+      </c>
+      <c r="E309" t="n">
+        <v>9100</v>
+      </c>
+      <c r="F309" t="n">
+        <v>49</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-9369.714830570005</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>9135</v>
+      </c>
+      <c r="C310" t="n">
+        <v>9130</v>
+      </c>
+      <c r="D310" t="n">
+        <v>9135</v>
+      </c>
+      <c r="E310" t="n">
+        <v>9130</v>
+      </c>
+      <c r="F310" t="n">
+        <v>40</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-9329.714830570005</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>9130</v>
+      </c>
+      <c r="C311" t="n">
+        <v>9130</v>
+      </c>
+      <c r="D311" t="n">
+        <v>9195</v>
+      </c>
+      <c r="E311" t="n">
+        <v>9130</v>
+      </c>
+      <c r="F311" t="n">
+        <v>30</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-9329.714830570005</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>9130</v>
+      </c>
+      <c r="C312" t="n">
+        <v>9110</v>
+      </c>
+      <c r="D312" t="n">
+        <v>9130</v>
+      </c>
+      <c r="E312" t="n">
+        <v>9110</v>
+      </c>
+      <c r="F312" t="n">
+        <v>95.3246</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-9425.039430570005</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>9100</v>
+      </c>
+      <c r="C313" t="n">
+        <v>9100</v>
+      </c>
+      <c r="D313" t="n">
+        <v>9100</v>
+      </c>
+      <c r="E313" t="n">
+        <v>9100</v>
+      </c>
+      <c r="F313" t="n">
+        <v>50.0736</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-9475.113030570004</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>9105</v>
+      </c>
+      <c r="C314" t="n">
+        <v>9105</v>
+      </c>
+      <c r="D314" t="n">
+        <v>9105</v>
+      </c>
+      <c r="E314" t="n">
+        <v>9105</v>
+      </c>
+      <c r="F314" t="n">
+        <v>10</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-9465.113030570004</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>9105</v>
+      </c>
+      <c r="C315" t="n">
+        <v>9100</v>
+      </c>
+      <c r="D315" t="n">
+        <v>9105</v>
+      </c>
+      <c r="E315" t="n">
+        <v>9100</v>
+      </c>
+      <c r="F315" t="n">
+        <v>29.4039</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-9494.516930570004</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>9095</v>
+      </c>
+      <c r="C316" t="n">
+        <v>9075</v>
+      </c>
+      <c r="D316" t="n">
+        <v>9095</v>
+      </c>
+      <c r="E316" t="n">
+        <v>9075</v>
+      </c>
+      <c r="F316" t="n">
+        <v>4</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-9498.516930570004</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>9075</v>
+      </c>
+      <c r="C317" t="n">
+        <v>9065</v>
+      </c>
+      <c r="D317" t="n">
+        <v>9075</v>
+      </c>
+      <c r="E317" t="n">
+        <v>9065</v>
+      </c>
+      <c r="F317" t="n">
+        <v>256.5973</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-9755.114230570003</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>9035</v>
+      </c>
+      <c r="C318" t="n">
+        <v>9035</v>
+      </c>
+      <c r="D318" t="n">
+        <v>9035</v>
+      </c>
+      <c r="E318" t="n">
+        <v>9035</v>
+      </c>
+      <c r="F318" t="n">
+        <v>4</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-9759.114230570003</v>
+      </c>
+      <c r="H318" t="n">
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>9065</v>
+      </c>
+      <c r="J318" t="n">
+        <v>9065</v>
+      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>9035</v>
+      </c>
+      <c r="C319" t="n">
+        <v>9035</v>
+      </c>
+      <c r="D319" t="n">
+        <v>9035</v>
+      </c>
+      <c r="E319" t="n">
+        <v>9035</v>
+      </c>
+      <c r="F319" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-9759.114230570003</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>9065</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>9035</v>
+      </c>
+      <c r="C320" t="n">
+        <v>9035</v>
+      </c>
+      <c r="D320" t="n">
+        <v>9035</v>
+      </c>
+      <c r="E320" t="n">
+        <v>9035</v>
+      </c>
+      <c r="F320" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-9759.114230570003</v>
+      </c>
+      <c r="H320" t="n">
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>9035</v>
+      </c>
+      <c r="J320" t="n">
+        <v>9065</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>9035</v>
+      </c>
+      <c r="C321" t="n">
+        <v>9030</v>
+      </c>
+      <c r="D321" t="n">
+        <v>9035</v>
+      </c>
+      <c r="E321" t="n">
+        <v>9030</v>
+      </c>
+      <c r="F321" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-9861.614230570003</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>9010</v>
+      </c>
+      <c r="C322" t="n">
+        <v>9010</v>
+      </c>
+      <c r="D322" t="n">
+        <v>9010</v>
+      </c>
+      <c r="E322" t="n">
+        <v>9010</v>
+      </c>
+      <c r="F322" t="n">
+        <v>35</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-9896.614230570003</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>9010</v>
+      </c>
+      <c r="C323" t="n">
+        <v>9005</v>
+      </c>
+      <c r="D323" t="n">
+        <v>9010</v>
+      </c>
+      <c r="E323" t="n">
+        <v>9005</v>
+      </c>
+      <c r="F323" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-10038.11423057</v>
+      </c>
+      <c r="H323" t="n">
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>9010</v>
+      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>9030</v>
-      </c>
-      <c r="C277" t="n">
-        <v>9025</v>
-      </c>
-      <c r="D277" t="n">
-        <v>9030</v>
-      </c>
-      <c r="E277" t="n">
-        <v>9025</v>
-      </c>
-      <c r="F277" t="n">
-        <v>8</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-9023.329622990002</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>9025</v>
-      </c>
-      <c r="C278" t="n">
-        <v>8985</v>
-      </c>
-      <c r="D278" t="n">
-        <v>9025</v>
-      </c>
-      <c r="E278" t="n">
-        <v>8985</v>
-      </c>
-      <c r="F278" t="n">
-        <v>457.3454</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-9480.675022990003</v>
-      </c>
-      <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>9025</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>9070</v>
-      </c>
-      <c r="C279" t="n">
-        <v>9080</v>
-      </c>
-      <c r="D279" t="n">
-        <v>9080</v>
-      </c>
-      <c r="E279" t="n">
-        <v>9070</v>
-      </c>
-      <c r="F279" t="n">
-        <v>300</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-9180.675022990003</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>9080</v>
-      </c>
-      <c r="C280" t="n">
-        <v>9080</v>
-      </c>
-      <c r="D280" t="n">
-        <v>9080</v>
-      </c>
-      <c r="E280" t="n">
-        <v>9080</v>
-      </c>
-      <c r="F280" t="n">
-        <v>103.8446</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-9180.675022990003</v>
-      </c>
-      <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>9080</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>9080</v>
-      </c>
-      <c r="C281" t="n">
-        <v>9080</v>
-      </c>
-      <c r="D281" t="n">
-        <v>9080</v>
-      </c>
-      <c r="E281" t="n">
-        <v>9080</v>
-      </c>
-      <c r="F281" t="n">
-        <v>21.9999</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-9180.675022990003</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>9045</v>
-      </c>
-      <c r="C282" t="n">
-        <v>9045</v>
-      </c>
-      <c r="D282" t="n">
-        <v>9045</v>
-      </c>
-      <c r="E282" t="n">
-        <v>9045</v>
-      </c>
-      <c r="F282" t="n">
-        <v>30</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-9210.675022990003</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>9015</v>
-      </c>
-      <c r="C283" t="n">
-        <v>9000</v>
-      </c>
-      <c r="D283" t="n">
-        <v>9015</v>
-      </c>
-      <c r="E283" t="n">
-        <v>9000</v>
-      </c>
-      <c r="F283" t="n">
-        <v>189.1634</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-9399.838422990002</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>9000</v>
-      </c>
-      <c r="C284" t="n">
-        <v>9045</v>
-      </c>
-      <c r="D284" t="n">
-        <v>9045</v>
-      </c>
-      <c r="E284" t="n">
-        <v>9000</v>
-      </c>
-      <c r="F284" t="n">
-        <v>68.7051</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-9331.133322990003</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>9000</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>8995</v>
-      </c>
-      <c r="C285" t="n">
-        <v>8995</v>
-      </c>
-      <c r="D285" t="n">
-        <v>8995</v>
-      </c>
-      <c r="E285" t="n">
-        <v>8995</v>
-      </c>
-      <c r="F285" t="n">
-        <v>42.5781</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-9373.711422990003</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>9010</v>
-      </c>
-      <c r="C286" t="n">
-        <v>9020</v>
-      </c>
-      <c r="D286" t="n">
-        <v>9020</v>
-      </c>
-      <c r="E286" t="n">
-        <v>8990</v>
-      </c>
-      <c r="F286" t="n">
-        <v>606.9857</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-8766.725722990004</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>8995</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>9080</v>
-      </c>
-      <c r="C287" t="n">
-        <v>9180</v>
-      </c>
-      <c r="D287" t="n">
-        <v>9180</v>
-      </c>
-      <c r="E287" t="n">
-        <v>9080</v>
-      </c>
-      <c r="F287" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-8766.625722990004</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>9000</v>
-      </c>
-      <c r="C288" t="n">
-        <v>9000</v>
-      </c>
-      <c r="D288" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E288" t="n">
-        <v>9000</v>
-      </c>
-      <c r="F288" t="n">
-        <v>112</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-8878.625722990004</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>9000</v>
-      </c>
-      <c r="C289" t="n">
-        <v>9005</v>
-      </c>
-      <c r="D289" t="n">
-        <v>9005</v>
-      </c>
-      <c r="E289" t="n">
-        <v>9000</v>
-      </c>
-      <c r="F289" t="n">
-        <v>76</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-8802.625722990004</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>9000</v>
-      </c>
-      <c r="C290" t="n">
-        <v>9000</v>
-      </c>
-      <c r="D290" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E290" t="n">
-        <v>9000</v>
-      </c>
-      <c r="F290" t="n">
-        <v>107.2982</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-8909.923922990003</v>
-      </c>
-      <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>9005</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>9105</v>
-      </c>
-      <c r="C291" t="n">
-        <v>9105</v>
-      </c>
-      <c r="D291" t="n">
-        <v>9105</v>
-      </c>
-      <c r="E291" t="n">
-        <v>9105</v>
-      </c>
-      <c r="F291" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-8909.823922990003</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>9050</v>
-      </c>
-      <c r="C292" t="n">
-        <v>9050</v>
-      </c>
-      <c r="D292" t="n">
-        <v>9050</v>
-      </c>
-      <c r="E292" t="n">
-        <v>9050</v>
-      </c>
-      <c r="F292" t="n">
-        <v>70</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-8979.823922990003</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>9050</v>
-      </c>
-      <c r="C293" t="n">
-        <v>9005</v>
-      </c>
-      <c r="D293" t="n">
-        <v>9050</v>
-      </c>
-      <c r="E293" t="n">
-        <v>9005</v>
-      </c>
-      <c r="F293" t="n">
-        <v>114.4475</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-9094.271422990003</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>9150</v>
-      </c>
-      <c r="C294" t="n">
-        <v>9150</v>
-      </c>
-      <c r="D294" t="n">
-        <v>9150</v>
-      </c>
-      <c r="E294" t="n">
-        <v>9150</v>
-      </c>
-      <c r="F294" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-9094.171422990003</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>9050</v>
-      </c>
-      <c r="C295" t="n">
-        <v>9050</v>
-      </c>
-      <c r="D295" t="n">
-        <v>9050</v>
-      </c>
-      <c r="E295" t="n">
-        <v>9050</v>
-      </c>
-      <c r="F295" t="n">
-        <v>74.8507</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-9169.022122990003</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>9035</v>
-      </c>
-      <c r="C296" t="n">
-        <v>9035</v>
-      </c>
-      <c r="D296" t="n">
-        <v>9035</v>
-      </c>
-      <c r="E296" t="n">
-        <v>9035</v>
-      </c>
-      <c r="F296" t="n">
-        <v>44.4871</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-9213.509222990004</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>9050</v>
-      </c>
-      <c r="C297" t="n">
-        <v>9050</v>
-      </c>
-      <c r="D297" t="n">
-        <v>9050</v>
-      </c>
-      <c r="E297" t="n">
-        <v>9050</v>
-      </c>
-      <c r="F297" t="n">
-        <v>38.3779</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-9175.131322990004</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>9140</v>
-      </c>
-      <c r="C298" t="n">
-        <v>9045</v>
-      </c>
-      <c r="D298" t="n">
-        <v>9140</v>
-      </c>
-      <c r="E298" t="n">
-        <v>9045</v>
-      </c>
-      <c r="F298" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-9176.411322990005</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>9050</v>
-      </c>
-      <c r="C299" t="n">
-        <v>9045</v>
-      </c>
-      <c r="D299" t="n">
-        <v>9050</v>
-      </c>
-      <c r="E299" t="n">
-        <v>9045</v>
-      </c>
-      <c r="F299" t="n">
-        <v>29.9752</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-9176.411322990005</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>9020</v>
-      </c>
-      <c r="C300" t="n">
-        <v>9015</v>
-      </c>
-      <c r="D300" t="n">
-        <v>9020</v>
-      </c>
-      <c r="E300" t="n">
-        <v>9015</v>
-      </c>
-      <c r="F300" t="n">
-        <v>233.4569</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-9409.868222990004</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>9000</v>
-      </c>
-      <c r="C301" t="n">
-        <v>8995</v>
-      </c>
-      <c r="D301" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E301" t="n">
-        <v>8995</v>
-      </c>
-      <c r="F301" t="n">
-        <v>16</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-9425.868222990004</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>9035</v>
-      </c>
-      <c r="C302" t="n">
-        <v>9040</v>
-      </c>
-      <c r="D302" t="n">
-        <v>9040</v>
-      </c>
-      <c r="E302" t="n">
-        <v>9035</v>
-      </c>
-      <c r="F302" t="n">
-        <v>68</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-9357.868222990004</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>9040</v>
-      </c>
-      <c r="C303" t="n">
-        <v>9040</v>
-      </c>
-      <c r="D303" t="n">
-        <v>9040</v>
-      </c>
-      <c r="E303" t="n">
-        <v>9040</v>
-      </c>
-      <c r="F303" t="n">
-        <v>268.0588</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-9357.868222990004</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>9175</v>
-      </c>
-      <c r="C304" t="n">
-        <v>9175</v>
-      </c>
-      <c r="D304" t="n">
-        <v>9175</v>
-      </c>
-      <c r="E304" t="n">
-        <v>9175</v>
-      </c>
-      <c r="F304" t="n">
-        <v>12.1549</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-9345.713322990005</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>9175</v>
-      </c>
-      <c r="C305" t="n">
-        <v>9175</v>
-      </c>
-      <c r="D305" t="n">
-        <v>9175</v>
-      </c>
-      <c r="E305" t="n">
-        <v>9175</v>
-      </c>
-      <c r="F305" t="n">
-        <v>24</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-9345.713322990005</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>9175</v>
-      </c>
-      <c r="C306" t="n">
-        <v>9175</v>
-      </c>
-      <c r="D306" t="n">
-        <v>9175</v>
-      </c>
-      <c r="E306" t="n">
-        <v>9175</v>
-      </c>
-      <c r="F306" t="n">
-        <v>12</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-9345.713322990005</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>9170</v>
-      </c>
-      <c r="C307" t="n">
-        <v>9170</v>
-      </c>
-      <c r="D307" t="n">
-        <v>9170</v>
-      </c>
-      <c r="E307" t="n">
-        <v>9170</v>
-      </c>
-      <c r="F307" t="n">
-        <v>13</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-9358.713322990005</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>9170</v>
-      </c>
-      <c r="C308" t="n">
-        <v>9240</v>
-      </c>
-      <c r="D308" t="n">
-        <v>9240</v>
-      </c>
-      <c r="E308" t="n">
-        <v>9170</v>
-      </c>
-      <c r="F308" t="n">
-        <v>37.99849242</v>
-      </c>
-      <c r="G308" t="n">
-        <v>-9320.714830570005</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>9110</v>
-      </c>
-      <c r="C309" t="n">
-        <v>9100</v>
-      </c>
-      <c r="D309" t="n">
-        <v>9130</v>
-      </c>
-      <c r="E309" t="n">
-        <v>9100</v>
-      </c>
-      <c r="F309" t="n">
-        <v>49</v>
-      </c>
-      <c r="G309" t="n">
-        <v>-9369.714830570005</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>9135</v>
-      </c>
-      <c r="C310" t="n">
-        <v>9130</v>
-      </c>
-      <c r="D310" t="n">
-        <v>9135</v>
-      </c>
-      <c r="E310" t="n">
-        <v>9130</v>
-      </c>
-      <c r="F310" t="n">
-        <v>40</v>
-      </c>
-      <c r="G310" t="n">
-        <v>-9329.714830570005</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>9130</v>
-      </c>
-      <c r="C311" t="n">
-        <v>9130</v>
-      </c>
-      <c r="D311" t="n">
-        <v>9195</v>
-      </c>
-      <c r="E311" t="n">
-        <v>9130</v>
-      </c>
-      <c r="F311" t="n">
-        <v>30</v>
-      </c>
-      <c r="G311" t="n">
-        <v>-9329.714830570005</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>9130</v>
-      </c>
-      <c r="C312" t="n">
-        <v>9110</v>
-      </c>
-      <c r="D312" t="n">
-        <v>9130</v>
-      </c>
-      <c r="E312" t="n">
-        <v>9110</v>
-      </c>
-      <c r="F312" t="n">
-        <v>95.3246</v>
-      </c>
-      <c r="G312" t="n">
-        <v>-9425.039430570005</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>9100</v>
-      </c>
-      <c r="C313" t="n">
-        <v>9100</v>
-      </c>
-      <c r="D313" t="n">
-        <v>9100</v>
-      </c>
-      <c r="E313" t="n">
-        <v>9100</v>
-      </c>
-      <c r="F313" t="n">
-        <v>50.0736</v>
-      </c>
-      <c r="G313" t="n">
-        <v>-9475.113030570004</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>9105</v>
-      </c>
-      <c r="C314" t="n">
-        <v>9105</v>
-      </c>
-      <c r="D314" t="n">
-        <v>9105</v>
-      </c>
-      <c r="E314" t="n">
-        <v>9105</v>
-      </c>
-      <c r="F314" t="n">
-        <v>10</v>
-      </c>
-      <c r="G314" t="n">
-        <v>-9465.113030570004</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>9105</v>
-      </c>
-      <c r="C315" t="n">
-        <v>9100</v>
-      </c>
-      <c r="D315" t="n">
-        <v>9105</v>
-      </c>
-      <c r="E315" t="n">
-        <v>9100</v>
-      </c>
-      <c r="F315" t="n">
-        <v>29.4039</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-9494.516930570004</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>9095</v>
-      </c>
-      <c r="C316" t="n">
-        <v>9075</v>
-      </c>
-      <c r="D316" t="n">
-        <v>9095</v>
-      </c>
-      <c r="E316" t="n">
-        <v>9075</v>
-      </c>
-      <c r="F316" t="n">
-        <v>4</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-9498.516930570004</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>9075</v>
-      </c>
-      <c r="C317" t="n">
-        <v>9065</v>
-      </c>
-      <c r="D317" t="n">
-        <v>9075</v>
-      </c>
-      <c r="E317" t="n">
-        <v>9065</v>
-      </c>
-      <c r="F317" t="n">
-        <v>256.5973</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-9755.114230570003</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>9035</v>
-      </c>
-      <c r="C318" t="n">
-        <v>9035</v>
-      </c>
-      <c r="D318" t="n">
-        <v>9035</v>
-      </c>
-      <c r="E318" t="n">
-        <v>9035</v>
-      </c>
-      <c r="F318" t="n">
-        <v>4</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-9759.114230570003</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>9035</v>
-      </c>
-      <c r="C319" t="n">
-        <v>9035</v>
-      </c>
-      <c r="D319" t="n">
-        <v>9035</v>
-      </c>
-      <c r="E319" t="n">
-        <v>9035</v>
-      </c>
-      <c r="F319" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-9759.114230570003</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>9035</v>
-      </c>
-      <c r="C320" t="n">
-        <v>9035</v>
-      </c>
-      <c r="D320" t="n">
-        <v>9035</v>
-      </c>
-      <c r="E320" t="n">
-        <v>9035</v>
-      </c>
-      <c r="F320" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-9759.114230570003</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>9035</v>
-      </c>
-      <c r="C321" t="n">
-        <v>9030</v>
-      </c>
-      <c r="D321" t="n">
-        <v>9035</v>
-      </c>
-      <c r="E321" t="n">
-        <v>9030</v>
-      </c>
-      <c r="F321" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-9861.614230570003</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>9010</v>
-      </c>
-      <c r="C322" t="n">
-        <v>9010</v>
-      </c>
-      <c r="D322" t="n">
-        <v>9010</v>
-      </c>
-      <c r="E322" t="n">
-        <v>9010</v>
-      </c>
-      <c r="F322" t="n">
-        <v>35</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-9896.614230570003</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>9010</v>
-      </c>
-      <c r="C323" t="n">
-        <v>9005</v>
-      </c>
-      <c r="D323" t="n">
-        <v>9010</v>
-      </c>
-      <c r="E323" t="n">
-        <v>9005</v>
-      </c>
-      <c r="F323" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-10038.11423057</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11341,9 +11101,11 @@
         <v>-10303.11423057</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>9005</v>
+      </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -11378,9 +11140,11 @@
         <v>-10303.11423057</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>9000</v>
+      </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -11415,9 +11179,11 @@
         <v>-10303.11423057</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>9000</v>
+      </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -11452,9 +11218,11 @@
         <v>-10657.11423057</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>9000</v>
+      </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -11489,9 +11257,11 @@
         <v>-10559.11423057</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>8995</v>
+      </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -11526,9 +11296,11 @@
         <v>-10559.11423057</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>9000</v>
+      </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -11563,9 +11335,11 @@
         <v>-10558.61417578</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>9000</v>
+      </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
@@ -11748,9 +11522,11 @@
         <v>-10712.12937578</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>9020</v>
+      </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
@@ -11822,9 +11598,11 @@
         <v>-10585.21087578</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>9085</v>
+      </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>

--- a/BackTest/2019-10-19 BackTest BTG.xlsx
+++ b/BackTest/2019-10-19 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M345"/>
+  <dimension ref="A1:L345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>221.96</v>
       </c>
       <c r="G2" t="n">
-        <v>-1049.84592888</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>73.3296</v>
       </c>
       <c r="G3" t="n">
-        <v>-1123.17552888</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>34.56</v>
       </c>
       <c r="G4" t="n">
-        <v>-1123.17552888</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>21.1193</v>
       </c>
       <c r="G5" t="n">
-        <v>-1123.17552888</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>13.91</v>
       </c>
       <c r="G6" t="n">
-        <v>-1123.17552888</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>43.71</v>
       </c>
       <c r="G7" t="n">
-        <v>-1123.17552888</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>12.6832</v>
       </c>
       <c r="G8" t="n">
-        <v>-1123.17552888</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1114.9414</v>
       </c>
       <c r="G9" t="n">
-        <v>-2238.11692888</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>455.3596</v>
       </c>
       <c r="G10" t="n">
-        <v>-2238.11692888</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>234.81</v>
       </c>
       <c r="G11" t="n">
-        <v>-2238.11692888</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>207.41</v>
       </c>
       <c r="G12" t="n">
-        <v>-2238.11692888</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>68.40000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-2238.11692888</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>32.5</v>
       </c>
       <c r="G14" t="n">
-        <v>-2238.11692888</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>92.53</v>
       </c>
       <c r="G15" t="n">
-        <v>-2238.11692888</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>116.02</v>
       </c>
       <c r="G16" t="n">
-        <v>-2238.11692888</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>129.53</v>
       </c>
       <c r="G17" t="n">
-        <v>-2238.11692888</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>66.9803</v>
       </c>
       <c r="G18" t="n">
-        <v>-2238.11692888</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>0.2</v>
       </c>
       <c r="G19" t="n">
-        <v>-2238.31692888</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>6.53</v>
       </c>
       <c r="G20" t="n">
-        <v>-2244.84692888</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>88.09999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>-2244.84692888</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>28.38</v>
       </c>
       <c r="G22" t="n">
-        <v>-2244.84692888</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>6.63</v>
       </c>
       <c r="G23" t="n">
-        <v>-2244.84692888</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>72.5</v>
       </c>
       <c r="G24" t="n">
-        <v>-2317.34692888</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>106.15</v>
       </c>
       <c r="G25" t="n">
-        <v>-2423.49692888</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>106.1949</v>
       </c>
       <c r="G26" t="n">
-        <v>-2529.69182888</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1.0098</v>
       </c>
       <c r="G27" t="n">
-        <v>-2529.69182888</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>40.1728</v>
       </c>
       <c r="G28" t="n">
-        <v>-2569.86462888</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>0.7491</v>
       </c>
       <c r="G29" t="n">
-        <v>-2569.11552888</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>7.0786</v>
       </c>
       <c r="G30" t="n">
-        <v>-2562.03692888</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>7.1055</v>
       </c>
       <c r="G31" t="n">
-        <v>-2569.14242888</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>3.3845</v>
       </c>
       <c r="G32" t="n">
-        <v>-2565.75792888</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>74.76600000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>-2640.52392888</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>65.367</v>
       </c>
       <c r="G34" t="n">
-        <v>-2705.890928880001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>13.75</v>
       </c>
       <c r="G35" t="n">
-        <v>-2692.140928880001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>19.3301</v>
       </c>
       <c r="G36" t="n">
-        <v>-2711.471028880001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>65.26000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>-2646.21102888</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>19.6842</v>
       </c>
       <c r="G38" t="n">
-        <v>-2665.895228880001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>62.632</v>
       </c>
       <c r="G39" t="n">
-        <v>-2728.527228880001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>45.1214</v>
       </c>
       <c r="G40" t="n">
-        <v>-2683.405828880001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>41.28</v>
       </c>
       <c r="G41" t="n">
-        <v>-2724.685828880001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>197.9237</v>
       </c>
       <c r="G42" t="n">
-        <v>-2922.609528880001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>48.61</v>
       </c>
       <c r="G43" t="n">
-        <v>-2971.219528880001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>11.2841</v>
       </c>
       <c r="G44" t="n">
-        <v>-2959.935428880001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>14.4</v>
       </c>
       <c r="G45" t="n">
-        <v>-2974.335428880001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>68.75</v>
       </c>
       <c r="G46" t="n">
-        <v>-2974.335428880001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>6.59</v>
       </c>
       <c r="G47" t="n">
-        <v>-2980.925428880001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>19.72</v>
       </c>
       <c r="G48" t="n">
-        <v>-2980.925428880001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>3.983</v>
       </c>
       <c r="G49" t="n">
-        <v>-2980.925428880001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>24.57</v>
       </c>
       <c r="G50" t="n">
-        <v>-3005.495428880001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>25.86</v>
       </c>
       <c r="G51" t="n">
-        <v>-3005.495428880001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>22.96</v>
       </c>
       <c r="G52" t="n">
-        <v>-3005.495428880001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>13.75</v>
       </c>
       <c r="G53" t="n">
-        <v>-3005.495428880001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>40.3994</v>
       </c>
       <c r="G54" t="n">
-        <v>-3005.495428880001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>30.47</v>
       </c>
       <c r="G55" t="n">
-        <v>-2975.025428880002</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>16.8756</v>
       </c>
       <c r="G56" t="n">
-        <v>-2958.149828880002</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>55.2693</v>
       </c>
       <c r="G57" t="n">
-        <v>-2958.149828880002</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>109.0086</v>
       </c>
       <c r="G58" t="n">
-        <v>-2958.149828880002</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>22.0686</v>
       </c>
       <c r="G59" t="n">
-        <v>-2936.081228880002</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>-2936.081228880002</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>5.0893</v>
       </c>
       <c r="G61" t="n">
-        <v>-2930.991928880002</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>116</v>
       </c>
       <c r="G62" t="n">
-        <v>-3046.991928880002</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>18.1775</v>
       </c>
       <c r="G63" t="n">
-        <v>-3046.991928880002</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>22</v>
       </c>
       <c r="G64" t="n">
-        <v>-3046.991928880002</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>12</v>
       </c>
       <c r="G65" t="n">
-        <v>-3046.991928880002</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>6.1775</v>
       </c>
       <c r="G66" t="n">
-        <v>-3040.814428880002</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>14</v>
       </c>
       <c r="G67" t="n">
-        <v>-3054.814428880002</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>40.2458</v>
       </c>
       <c r="G68" t="n">
-        <v>-3095.060228880002</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>103</v>
       </c>
       <c r="G69" t="n">
-        <v>-2992.060228880002</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>35</v>
       </c>
       <c r="G70" t="n">
-        <v>-3027.060228880002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>29.5</v>
       </c>
       <c r="G71" t="n">
-        <v>-3027.060228880002</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>33</v>
       </c>
       <c r="G72" t="n">
-        <v>-3060.060228880002</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>67.5</v>
       </c>
       <c r="G73" t="n">
-        <v>-3060.060228880002</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>32</v>
       </c>
       <c r="G74" t="n">
-        <v>-3092.060228880002</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>189.7971</v>
       </c>
       <c r="G75" t="n">
-        <v>-2902.263128880002</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>65.5</v>
       </c>
       <c r="G76" t="n">
-        <v>-2967.763128880002</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>34</v>
       </c>
       <c r="G77" t="n">
-        <v>-3001.763128880002</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>34</v>
       </c>
       <c r="G78" t="n">
-        <v>-3001.763128880002</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>97</v>
       </c>
       <c r="G79" t="n">
-        <v>-3001.763128880002</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>35.5</v>
       </c>
       <c r="G80" t="n">
-        <v>-3001.763128880002</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>72</v>
       </c>
       <c r="G81" t="n">
-        <v>-2929.763128880002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>34</v>
       </c>
       <c r="G82" t="n">
-        <v>-2963.763128880002</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>30</v>
       </c>
       <c r="G83" t="n">
-        <v>-2963.763128880002</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>70</v>
       </c>
       <c r="G84" t="n">
-        <v>-2963.763128880002</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>64.5</v>
       </c>
       <c r="G85" t="n">
-        <v>-3028.263128880002</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>133</v>
       </c>
       <c r="G86" t="n">
-        <v>-3028.263128880002</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>29</v>
       </c>
       <c r="G87" t="n">
-        <v>-3028.263128880002</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>34.5</v>
       </c>
       <c r="G88" t="n">
-        <v>-3062.763128880002</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>68</v>
       </c>
       <c r="G89" t="n">
-        <v>-3062.763128880002</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>31.1611</v>
       </c>
       <c r="G90" t="n">
-        <v>-3062.763128880002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>106.95552835</v>
       </c>
       <c r="G91" t="n">
-        <v>-2955.807600530002</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>2.9</v>
       </c>
       <c r="G92" t="n">
-        <v>-2958.707600530002</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>33</v>
       </c>
       <c r="G93" t="n">
-        <v>-2958.707600530002</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>35</v>
       </c>
       <c r="G94" t="n">
-        <v>-2993.707600530002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>0.5</v>
       </c>
       <c r="G95" t="n">
-        <v>-2993.207600530002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>48</v>
       </c>
       <c r="G96" t="n">
-        <v>-3041.207600530002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>52</v>
       </c>
       <c r="G97" t="n">
-        <v>-3041.207600530002</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>78</v>
       </c>
       <c r="G98" t="n">
-        <v>-3119.207600530002</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>14</v>
       </c>
       <c r="G99" t="n">
-        <v>-3133.207600530002</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>1.0943</v>
       </c>
       <c r="G100" t="n">
-        <v>-3132.113300530002</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>12.4762</v>
       </c>
       <c r="G101" t="n">
-        <v>-3119.637100530002</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>0.4869</v>
       </c>
       <c r="G102" t="n">
-        <v>-3119.150200530002</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>23.9976</v>
       </c>
       <c r="G103" t="n">
-        <v>-3143.147800530002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>38.2224</v>
       </c>
       <c r="G104" t="n">
-        <v>-3104.925400530002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>39.5579</v>
       </c>
       <c r="G105" t="n">
-        <v>-3065.367500530002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>18.5037</v>
       </c>
       <c r="G106" t="n">
-        <v>-3083.871200530003</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>31.7451</v>
       </c>
       <c r="G107" t="n">
-        <v>-3115.616300530003</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>60.9164</v>
       </c>
       <c r="G108" t="n">
-        <v>-3054.699900530003</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>5.7324</v>
       </c>
       <c r="G109" t="n">
-        <v>-3048.967500530003</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>-3047.967500530003</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>2.1958</v>
       </c>
       <c r="G111" t="n">
-        <v>-3050.163300530003</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>2.2201</v>
       </c>
       <c r="G112" t="n">
-        <v>-3047.943200530003</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>1.8</v>
       </c>
       <c r="G113" t="n">
-        <v>-3046.143200530003</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>541.8594000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>-2504.283800530003</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>0.5</v>
       </c>
       <c r="G115" t="n">
-        <v>-2504.783800530003</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>2.1918</v>
       </c>
       <c r="G116" t="n">
-        <v>-2502.592000530003</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>10.0635</v>
       </c>
       <c r="G117" t="n">
-        <v>-2502.592000530003</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>23.4291</v>
       </c>
       <c r="G118" t="n">
-        <v>-2526.021100530003</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>51.7465</v>
       </c>
       <c r="G119" t="n">
-        <v>-2577.767600530003</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>41</v>
       </c>
       <c r="G120" t="n">
-        <v>-2618.767600530003</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>0.4614</v>
       </c>
       <c r="G121" t="n">
-        <v>-2618.306200530003</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>1.07296137</v>
       </c>
       <c r="G122" t="n">
-        <v>-2617.233239160003</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>12.86</v>
       </c>
       <c r="G123" t="n">
-        <v>-2630.093239160003</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>0.4</v>
       </c>
       <c r="G124" t="n">
-        <v>-2629.693239160003</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>83.73</v>
       </c>
       <c r="G125" t="n">
-        <v>-2713.423239160003</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>0.5580000000000001</v>
       </c>
       <c r="G126" t="n">
-        <v>-2713.423239160003</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>12.1491</v>
       </c>
       <c r="G127" t="n">
-        <v>-2701.274139160003</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>249.6648</v>
       </c>
       <c r="G128" t="n">
-        <v>-2451.609339160002</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>14.6331</v>
       </c>
       <c r="G129" t="n">
-        <v>-2436.976239160002</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>101.0328</v>
       </c>
       <c r="G130" t="n">
-        <v>-2335.943439160003</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>340.1814</v>
       </c>
       <c r="G131" t="n">
-        <v>-2676.124839160002</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>241.5915</v>
       </c>
       <c r="G132" t="n">
-        <v>-2434.533339160002</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>103.3197</v>
       </c>
       <c r="G133" t="n">
-        <v>-2331.213639160002</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>10.2809</v>
       </c>
       <c r="G134" t="n">
-        <v>-2320.932739160002</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>3.0311</v>
       </c>
       <c r="G135" t="n">
-        <v>-2320.932739160002</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>10.7933</v>
       </c>
       <c r="G136" t="n">
-        <v>-2331.726039160002</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>61</v>
       </c>
       <c r="G137" t="n">
-        <v>-2392.726039160002</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>138</v>
       </c>
       <c r="G138" t="n">
-        <v>-2530.726039160002</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>39</v>
       </c>
       <c r="G139" t="n">
-        <v>-2491.726039160002</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>4</v>
       </c>
       <c r="G140" t="n">
-        <v>-2491.726039160002</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>13.772</v>
       </c>
       <c r="G141" t="n">
-        <v>-2477.954039160002</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>12.2354</v>
       </c>
       <c r="G142" t="n">
-        <v>-2465.718639160002</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>388.301</v>
       </c>
       <c r="G143" t="n">
-        <v>-2077.417639160002</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>68.7697</v>
       </c>
       <c r="G144" t="n">
-        <v>-2077.417639160002</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>10.5017</v>
       </c>
       <c r="G145" t="n">
-        <v>-2077.417639160002</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>299.7109</v>
       </c>
       <c r="G146" t="n">
-        <v>-2377.128539160002</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>74.9465</v>
       </c>
       <c r="G147" t="n">
-        <v>-2452.075039160002</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>17.7183</v>
       </c>
       <c r="G148" t="n">
-        <v>-2469.793339160002</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>18.9613137</v>
       </c>
       <c r="G149" t="n">
-        <v>-2450.832025460002</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>36.9871</v>
       </c>
       <c r="G150" t="n">
-        <v>-2487.819125460002</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>49.2601</v>
       </c>
       <c r="G151" t="n">
-        <v>-2438.559025460002</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>558.7833000000001</v>
       </c>
       <c r="G152" t="n">
-        <v>-2438.559025460002</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>5.55</v>
       </c>
       <c r="G153" t="n">
-        <v>-2433.009025460002</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>10</v>
       </c>
       <c r="G154" t="n">
-        <v>-2423.009025460002</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>101.5717</v>
       </c>
       <c r="G155" t="n">
-        <v>-2524.580725460002</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>42</v>
       </c>
       <c r="G156" t="n">
-        <v>-2524.580725460002</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>1013.6774</v>
       </c>
       <c r="G157" t="n">
-        <v>-3538.258125460002</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>64.5</v>
       </c>
       <c r="G158" t="n">
-        <v>-3538.258125460002</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>86.2234</v>
       </c>
       <c r="G159" t="n">
-        <v>-3452.034725460002</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>19.9009</v>
       </c>
       <c r="G160" t="n">
-        <v>-3432.133825460002</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>26.0796</v>
       </c>
       <c r="G161" t="n">
-        <v>-3406.054225460002</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>26.4383</v>
       </c>
       <c r="G162" t="n">
-        <v>-3432.492525460002</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>202.8281</v>
       </c>
       <c r="G163" t="n">
-        <v>-3432.492525460002</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>-3432.492525460002</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>12.3386</v>
       </c>
       <c r="G165" t="n">
-        <v>-3420.153925460002</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>1.6038</v>
       </c>
       <c r="G166" t="n">
-        <v>-3418.550125460002</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>20.1264</v>
       </c>
       <c r="G167" t="n">
-        <v>-3418.550125460002</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>43.5133</v>
       </c>
       <c r="G168" t="n">
-        <v>-3462.063425460002</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>496.0999</v>
       </c>
       <c r="G169" t="n">
-        <v>-3958.163325460002</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>36.7062</v>
       </c>
       <c r="G170" t="n">
-        <v>-3921.457125460002</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>4.6708</v>
       </c>
       <c r="G171" t="n">
-        <v>-3916.786325460002</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>10.8958</v>
       </c>
       <c r="G172" t="n">
-        <v>-3905.890525460002</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>101.41</v>
       </c>
       <c r="G173" t="n">
-        <v>-4007.300525460002</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>291.9555</v>
       </c>
       <c r="G174" t="n">
-        <v>-4299.256025460002</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>9.853899999999999</v>
       </c>
       <c r="G175" t="n">
-        <v>-4299.256025460002</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>797</v>
       </c>
       <c r="G176" t="n">
-        <v>-5096.256025460002</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>242.1889</v>
       </c>
       <c r="G177" t="n">
-        <v>-4854.067125460002</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>8.8339</v>
       </c>
       <c r="G178" t="n">
-        <v>-4862.901025460002</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>100</v>
       </c>
       <c r="G179" t="n">
-        <v>-4762.901025460002</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>643.7294000000001</v>
       </c>
       <c r="G180" t="n">
-        <v>-5406.630425460002</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>132.8464</v>
       </c>
       <c r="G181" t="n">
-        <v>-5539.476825460002</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>0.5</v>
       </c>
       <c r="G182" t="n">
-        <v>-5538.976825460002</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>16.2751</v>
       </c>
       <c r="G183" t="n">
-        <v>-5555.251925460002</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>0.4</v>
       </c>
       <c r="G184" t="n">
-        <v>-5554.851925460002</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>5.0737</v>
       </c>
       <c r="G185" t="n">
-        <v>-5559.925625460002</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>0.2</v>
       </c>
       <c r="G186" t="n">
-        <v>-5560.125625460002</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>31.665</v>
       </c>
       <c r="G187" t="n">
-        <v>-5528.460625460002</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>17.1557</v>
       </c>
       <c r="G188" t="n">
-        <v>-5545.616325460002</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>0.2</v>
       </c>
       <c r="G189" t="n">
-        <v>-5545.816325460002</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>0.2</v>
       </c>
       <c r="G190" t="n">
-        <v>-5545.616325460002</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>0.3</v>
       </c>
       <c r="G191" t="n">
-        <v>-5545.316325460002</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>16.856</v>
       </c>
       <c r="G192" t="n">
-        <v>-5562.172325460002</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>0.1</v>
       </c>
       <c r="G193" t="n">
-        <v>-5562.072325460002</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>0.6</v>
       </c>
       <c r="G194" t="n">
-        <v>-5561.472325460001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>0.1</v>
       </c>
       <c r="G195" t="n">
-        <v>-5561.572325460002</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>0.1</v>
       </c>
       <c r="G196" t="n">
-        <v>-5561.472325460001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>0.2</v>
       </c>
       <c r="G197" t="n">
-        <v>-5561.672325460001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>0.1</v>
       </c>
       <c r="G198" t="n">
-        <v>-5561.572325460001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>0.1</v>
       </c>
       <c r="G199" t="n">
-        <v>-5561.572325460001</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>0.2</v>
       </c>
       <c r="G200" t="n">
-        <v>-5561.372325460001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>84.8509</v>
       </c>
       <c r="G201" t="n">
-        <v>-5646.223225460001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>300.836</v>
       </c>
       <c r="G202" t="n">
-        <v>-5947.059225460001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>1070.5838</v>
       </c>
       <c r="G203" t="n">
-        <v>-7017.643025460002</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>43.0901</v>
       </c>
       <c r="G204" t="n">
-        <v>-6974.552925460001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>160.1</v>
       </c>
       <c r="G205" t="n">
-        <v>-7134.652925460002</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>30</v>
       </c>
       <c r="G206" t="n">
-        <v>-7164.652925460002</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>109.9989</v>
       </c>
       <c r="G207" t="n">
-        <v>-7164.652925460002</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>5.0752</v>
       </c>
       <c r="G208" t="n">
-        <v>-7169.728125460002</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>646.3081</v>
       </c>
       <c r="G209" t="n">
-        <v>-6523.420025460002</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>91.39190000000001</v>
       </c>
       <c r="G210" t="n">
-        <v>-6614.811925460001</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>555.3162</v>
       </c>
       <c r="G211" t="n">
-        <v>-7170.128125460002</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>61.2478</v>
       </c>
       <c r="G212" t="n">
-        <v>-7231.375925460002</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>48.7617</v>
       </c>
       <c r="G213" t="n">
-        <v>-7182.614225460002</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>1.09649122</v>
       </c>
       <c r="G214" t="n">
-        <v>-7181.517734240002</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>302.00160878</v>
       </c>
       <c r="G215" t="n">
-        <v>-7181.517734240002</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>20</v>
       </c>
       <c r="G216" t="n">
-        <v>-7201.517734240002</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>0.10970927</v>
       </c>
       <c r="G217" t="n">
-        <v>-7201.408024970002</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>1.08991825</v>
       </c>
       <c r="G218" t="n">
-        <v>-7200.318106720002</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>131.249</v>
       </c>
       <c r="G219" t="n">
-        <v>-7331.567106720002</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>9.2881</v>
       </c>
       <c r="G220" t="n">
-        <v>-7331.567106720002</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>20.1091703</v>
       </c>
       <c r="G221" t="n">
-        <v>-7311.457936420002</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>29.3296</v>
       </c>
       <c r="G222" t="n">
-        <v>-7340.787536420002</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>9.178800000000001</v>
       </c>
       <c r="G223" t="n">
-        <v>-7340.787536420002</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>302.973</v>
       </c>
       <c r="G224" t="n">
-        <v>-7340.787536420002</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>115.8272</v>
       </c>
       <c r="G225" t="n">
-        <v>-7340.787536420002</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>12.8611</v>
       </c>
       <c r="G226" t="n">
-        <v>-7327.926436420002</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>34</v>
       </c>
       <c r="G227" t="n">
-        <v>-7327.926436420002</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>44</v>
       </c>
       <c r="G228" t="n">
-        <v>-7327.926436420002</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>38</v>
       </c>
       <c r="G229" t="n">
-        <v>-7327.926436420002</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>40</v>
       </c>
       <c r="G230" t="n">
-        <v>-7327.926436420002</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>4</v>
       </c>
       <c r="G231" t="n">
-        <v>-7327.926436420002</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>19.86673246</v>
       </c>
       <c r="G232" t="n">
-        <v>-7308.059703960002</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>40.9618</v>
       </c>
       <c r="G233" t="n">
-        <v>-7349.021503960002</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,15 @@
         <v>196</v>
       </c>
       <c r="G234" t="n">
-        <v>-7545.021503960002</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7433,15 @@
         <v>4.7484</v>
       </c>
       <c r="G235" t="n">
-        <v>-7540.273103960001</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7463,15 @@
         <v>30</v>
       </c>
       <c r="G236" t="n">
-        <v>-7570.273103960001</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7493,15 @@
         <v>202.39</v>
       </c>
       <c r="G237" t="n">
-        <v>-7772.663103960002</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7523,15 @@
         <v>197</v>
       </c>
       <c r="G238" t="n">
-        <v>-7772.663103960002</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7553,15 @@
         <v>10.123</v>
       </c>
       <c r="G239" t="n">
-        <v>-7772.663103960002</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7583,15 @@
         <v>2.44</v>
       </c>
       <c r="G240" t="n">
-        <v>-7772.663103960002</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7613,15 @@
         <v>10.4369</v>
       </c>
       <c r="G241" t="n">
-        <v>-7772.663103960002</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7643,15 @@
         <v>338.5259</v>
       </c>
       <c r="G242" t="n">
-        <v>-7772.663103960002</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7673,15 @@
         <v>4.5414</v>
       </c>
       <c r="G243" t="n">
-        <v>-7768.121703960001</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7703,15 @@
         <v>33.1399</v>
       </c>
       <c r="G244" t="n">
-        <v>-7801.261603960002</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7733,15 @@
         <v>36.51387622</v>
       </c>
       <c r="G245" t="n">
-        <v>-7837.775480180002</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7763,15 @@
         <v>65.3481</v>
       </c>
       <c r="G246" t="n">
-        <v>-7903.123580180002</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7793,15 @@
         <v>981.6558</v>
       </c>
       <c r="G247" t="n">
-        <v>-6921.467780180003</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7823,15 @@
         <v>1464.2191</v>
       </c>
       <c r="G248" t="n">
-        <v>-8385.686880180003</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7853,15 @@
         <v>17.8073</v>
       </c>
       <c r="G249" t="n">
-        <v>-8367.879580180002</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7883,15 @@
         <v>3.8322</v>
       </c>
       <c r="G250" t="n">
-        <v>-8371.711780180003</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7913,15 @@
         <v>5</v>
       </c>
       <c r="G251" t="n">
-        <v>-8371.711780180003</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7943,15 @@
         <v>207.9194</v>
       </c>
       <c r="G252" t="n">
-        <v>-8579.631180180004</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +7973,15 @@
         <v>879.0207</v>
       </c>
       <c r="G253" t="n">
-        <v>-8579.631180180004</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8003,15 @@
         <v>0.1363184</v>
       </c>
       <c r="G254" t="n">
-        <v>-8579.494861780004</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8033,15 @@
         <v>79.21038160000001</v>
       </c>
       <c r="G255" t="n">
-        <v>-8500.284480180004</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8063,15 @@
         <v>13.3669</v>
       </c>
       <c r="G256" t="n">
-        <v>-8486.917580180003</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8093,15 @@
         <v>1.84e-05</v>
       </c>
       <c r="G257" t="n">
-        <v>-8486.917598580003</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8123,15 @@
         <v>11.46217559</v>
       </c>
       <c r="G258" t="n">
-        <v>-8475.455422990002</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8153,15 @@
         <v>47.0336</v>
       </c>
       <c r="G259" t="n">
-        <v>-8522.489022990003</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8183,15 @@
         <v>575.8493999999999</v>
       </c>
       <c r="G260" t="n">
-        <v>-9098.338422990002</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8213,15 @@
         <v>36.9634</v>
       </c>
       <c r="G261" t="n">
-        <v>-9098.338422990002</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8243,15 @@
         <v>7.8103</v>
       </c>
       <c r="G262" t="n">
-        <v>-9090.528122990003</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8273,15 @@
         <v>20</v>
       </c>
       <c r="G263" t="n">
-        <v>-9110.528122990003</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8303,15 @@
         <v>5.6707</v>
       </c>
       <c r="G264" t="n">
-        <v>-9110.528122990003</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8333,15 @@
         <v>10.165</v>
       </c>
       <c r="G265" t="n">
-        <v>-9110.528122990003</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8363,15 @@
         <v>148.3237</v>
       </c>
       <c r="G266" t="n">
-        <v>-9110.528122990003</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8393,15 @@
         <v>2</v>
       </c>
       <c r="G267" t="n">
-        <v>-9110.528122990003</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8423,15 @@
         <v>4</v>
       </c>
       <c r="G268" t="n">
-        <v>-9110.528122990003</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8453,19 @@
         <v>34.0256</v>
       </c>
       <c r="G269" t="n">
-        <v>-9076.502522990002</v>
+        <v>1</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>9015</v>
+      </c>
+      <c r="I269" t="n">
+        <v>9015</v>
+      </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8487,23 @@
         <v>51.1729</v>
       </c>
       <c r="G270" t="n">
-        <v>-9025.329622990002</v>
+        <v>1</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+        <v>9075</v>
+      </c>
+      <c r="I270" t="n">
+        <v>9015</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8525,21 @@
         <v>4</v>
       </c>
       <c r="G271" t="n">
-        <v>-9029.329622990002</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="n">
+        <v>9015</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8561,15 @@
         <v>14</v>
       </c>
       <c r="G272" t="n">
-        <v>-9029.329622990002</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8591,15 @@
         <v>6</v>
       </c>
       <c r="G273" t="n">
-        <v>-9023.329622990002</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8621,15 @@
         <v>12</v>
       </c>
       <c r="G274" t="n">
-        <v>-9023.329622990002</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +8651,15 @@
         <v>10</v>
       </c>
       <c r="G275" t="n">
-        <v>-9023.329622990002</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +8681,15 @@
         <v>35.15</v>
       </c>
       <c r="G276" t="n">
-        <v>-9023.329622990002</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +8711,21 @@
         <v>8</v>
       </c>
       <c r="G277" t="n">
-        <v>-9023.329622990002</v>
+        <v>1</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>9025</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +8747,21 @@
         <v>457.3454</v>
       </c>
       <c r="G278" t="n">
-        <v>-9480.675022990003</v>
+        <v>1</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>9025</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +8783,21 @@
         <v>300</v>
       </c>
       <c r="G279" t="n">
-        <v>-9180.675022990003</v>
+        <v>1</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>8985</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +8819,21 @@
         <v>103.8446</v>
       </c>
       <c r="G280" t="n">
-        <v>-9180.675022990003</v>
+        <v>1</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>9080</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +8855,19 @@
         <v>21.9999</v>
       </c>
       <c r="G281" t="n">
-        <v>-9180.675022990003</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +8889,19 @@
         <v>30</v>
       </c>
       <c r="G282" t="n">
-        <v>-9210.675022990003</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +8923,19 @@
         <v>189.1634</v>
       </c>
       <c r="G283" t="n">
-        <v>-9399.838422990002</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +8957,21 @@
         <v>68.7051</v>
       </c>
       <c r="G284" t="n">
-        <v>-9331.133322990003</v>
+        <v>1</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +8993,21 @@
         <v>42.5781</v>
       </c>
       <c r="G285" t="n">
-        <v>-9373.711422990003</v>
+        <v>1</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>9045</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +9029,21 @@
         <v>606.9857</v>
       </c>
       <c r="G286" t="n">
-        <v>-8766.725722990004</v>
+        <v>1</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>8995</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,18 +9065,19 @@
         <v>0.1</v>
       </c>
       <c r="G287" t="n">
-        <v>-8766.625722990004</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9886,18 +9099,19 @@
         <v>112</v>
       </c>
       <c r="G288" t="n">
-        <v>-8878.625722990004</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9919,18 +9133,19 @@
         <v>76</v>
       </c>
       <c r="G289" t="n">
-        <v>-8802.625722990004</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9952,18 +9167,19 @@
         <v>107.2982</v>
       </c>
       <c r="G290" t="n">
-        <v>-8909.923922990003</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9985,18 +9201,19 @@
         <v>0.1</v>
       </c>
       <c r="G291" t="n">
-        <v>-8909.823922990003</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10018,18 +9235,21 @@
         <v>70</v>
       </c>
       <c r="G292" t="n">
-        <v>-8979.823922990003</v>
+        <v>1</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>9105</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10051,18 +9271,19 @@
         <v>114.4475</v>
       </c>
       <c r="G293" t="n">
-        <v>-9094.271422990003</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10084,18 +9305,19 @@
         <v>0.1</v>
       </c>
       <c r="G294" t="n">
-        <v>-9094.171422990003</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10117,18 +9339,19 @@
         <v>74.8507</v>
       </c>
       <c r="G295" t="n">
-        <v>-9169.022122990003</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10150,18 +9373,19 @@
         <v>44.4871</v>
       </c>
       <c r="G296" t="n">
-        <v>-9213.509222990004</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10183,18 +9407,19 @@
         <v>38.3779</v>
       </c>
       <c r="G297" t="n">
-        <v>-9175.131322990004</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10216,18 +9441,19 @@
         <v>1.28</v>
       </c>
       <c r="G298" t="n">
-        <v>-9176.411322990005</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10249,18 +9475,19 @@
         <v>29.9752</v>
       </c>
       <c r="G299" t="n">
-        <v>-9176.411322990005</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10282,18 +9509,19 @@
         <v>233.4569</v>
       </c>
       <c r="G300" t="n">
-        <v>-9409.868222990004</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10315,18 +9543,19 @@
         <v>16</v>
       </c>
       <c r="G301" t="n">
-        <v>-9425.868222990004</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10348,18 +9577,19 @@
         <v>68</v>
       </c>
       <c r="G302" t="n">
-        <v>-9357.868222990004</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10381,18 +9611,19 @@
         <v>268.0588</v>
       </c>
       <c r="G303" t="n">
-        <v>-9357.868222990004</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10414,18 +9645,19 @@
         <v>12.1549</v>
       </c>
       <c r="G304" t="n">
-        <v>-9345.713322990005</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10447,18 +9679,19 @@
         <v>24</v>
       </c>
       <c r="G305" t="n">
-        <v>-9345.713322990005</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10480,18 +9713,19 @@
         <v>12</v>
       </c>
       <c r="G306" t="n">
-        <v>-9345.713322990005</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10513,18 +9747,19 @@
         <v>13</v>
       </c>
       <c r="G307" t="n">
-        <v>-9358.713322990005</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10546,18 +9781,19 @@
         <v>37.99849242</v>
       </c>
       <c r="G308" t="n">
-        <v>-9320.714830570005</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10579,18 +9815,19 @@
         <v>49</v>
       </c>
       <c r="G309" t="n">
-        <v>-9369.714830570005</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10612,18 +9849,19 @@
         <v>40</v>
       </c>
       <c r="G310" t="n">
-        <v>-9329.714830570005</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10645,18 +9883,19 @@
         <v>30</v>
       </c>
       <c r="G311" t="n">
-        <v>-9329.714830570005</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10678,18 +9917,19 @@
         <v>95.3246</v>
       </c>
       <c r="G312" t="n">
-        <v>-9425.039430570005</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10711,18 +9951,19 @@
         <v>50.0736</v>
       </c>
       <c r="G313" t="n">
-        <v>-9475.113030570004</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10744,18 +9985,19 @@
         <v>10</v>
       </c>
       <c r="G314" t="n">
-        <v>-9465.113030570004</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10777,18 +10019,19 @@
         <v>29.4039</v>
       </c>
       <c r="G315" t="n">
-        <v>-9494.516930570004</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10810,18 +10053,19 @@
         <v>4</v>
       </c>
       <c r="G316" t="n">
-        <v>-9498.516930570004</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10843,18 +10087,19 @@
         <v>256.5973</v>
       </c>
       <c r="G317" t="n">
-        <v>-9755.114230570003</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10876,22 +10121,19 @@
         <v>4</v>
       </c>
       <c r="G318" t="n">
-        <v>-9759.114230570003</v>
-      </c>
-      <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>9065</v>
-      </c>
-      <c r="J318" t="n">
-        <v>9065</v>
-      </c>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10913,24 +10155,19 @@
         <v>63.5</v>
       </c>
       <c r="G319" t="n">
-        <v>-9759.114230570003</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>9065</v>
-      </c>
-      <c r="K319" t="inlineStr">
+      <c r="J319" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10952,26 +10189,19 @@
         <v>54.5</v>
       </c>
       <c r="G320" t="n">
-        <v>-9759.114230570003</v>
-      </c>
-      <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>9035</v>
-      </c>
-      <c r="J320" t="n">
-        <v>9065</v>
-      </c>
-      <c r="K320" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -10993,18 +10223,19 @@
         <v>102.5</v>
       </c>
       <c r="G321" t="n">
-        <v>-9861.614230570003</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11026,18 +10257,19 @@
         <v>35</v>
       </c>
       <c r="G322" t="n">
-        <v>-9896.614230570003</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11059,24 +10291,19 @@
         <v>141.5</v>
       </c>
       <c r="G323" t="n">
-        <v>-10038.11423057</v>
-      </c>
-      <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>9010</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11098,24 +10325,19 @@
         <v>265</v>
       </c>
       <c r="G324" t="n">
-        <v>-10303.11423057</v>
-      </c>
-      <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>9005</v>
-      </c>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11137,24 +10359,19 @@
         <v>195.5</v>
       </c>
       <c r="G325" t="n">
-        <v>-10303.11423057</v>
-      </c>
-      <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>9000</v>
-      </c>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11176,24 +10393,19 @@
         <v>348.55002745</v>
       </c>
       <c r="G326" t="n">
-        <v>-10303.11423057</v>
-      </c>
-      <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>9000</v>
-      </c>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11215,24 +10427,19 @@
         <v>354</v>
       </c>
       <c r="G327" t="n">
-        <v>-10657.11423057</v>
-      </c>
-      <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>9000</v>
-      </c>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11254,24 +10461,19 @@
         <v>98</v>
       </c>
       <c r="G328" t="n">
-        <v>-10559.11423057</v>
-      </c>
-      <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>8995</v>
-      </c>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11293,24 +10495,19 @@
         <v>105.5</v>
       </c>
       <c r="G329" t="n">
-        <v>-10559.11423057</v>
-      </c>
-      <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>9000</v>
-      </c>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11332,24 +10529,19 @@
         <v>0.50005479</v>
       </c>
       <c r="G330" t="n">
-        <v>-10558.61417578</v>
-      </c>
-      <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>9000</v>
-      </c>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11371,22 +10563,19 @@
         <v>67</v>
       </c>
       <c r="G331" t="n">
-        <v>-10625.61417578</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
+      <c r="J331" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11408,22 +10597,19 @@
         <v>0.6</v>
       </c>
       <c r="G332" t="n">
-        <v>-10626.21417578</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
+      <c r="J332" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11445,22 +10631,19 @@
         <v>50.9152</v>
       </c>
       <c r="G333" t="n">
-        <v>-10677.12937578</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
+      <c r="J333" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -11482,22 +10665,19 @@
         <v>35</v>
       </c>
       <c r="G334" t="n">
-        <v>-10712.12937578</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
+      <c r="J334" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -11519,24 +10699,19 @@
         <v>35.5</v>
       </c>
       <c r="G335" t="n">
-        <v>-10712.12937578</v>
-      </c>
-      <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>9020</v>
-      </c>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -11558,22 +10733,19 @@
         <v>103.9525</v>
       </c>
       <c r="G336" t="n">
-        <v>-10608.17687578</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
+      <c r="J336" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -11595,24 +10767,19 @@
         <v>22.966</v>
       </c>
       <c r="G337" t="n">
-        <v>-10585.21087578</v>
-      </c>
-      <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>9085</v>
-      </c>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H337" t="inlineStr"/>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -11634,22 +10801,19 @@
         <v>68</v>
       </c>
       <c r="G338" t="n">
-        <v>-10653.21087578</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
+      <c r="J338" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
+      <c r="L338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -11671,22 +10835,19 @@
         <v>217.6171</v>
       </c>
       <c r="G339" t="n">
-        <v>-10435.59377578</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
+      <c r="J339" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
+      <c r="L339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -11708,22 +10869,19 @@
         <v>9.99951755</v>
       </c>
       <c r="G340" t="n">
-        <v>-10445.59329333</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
+      <c r="J340" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>1</v>
+      </c>
+      <c r="L340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -11745,22 +10903,19 @@
         <v>0.2057</v>
       </c>
       <c r="G341" t="n">
-        <v>-10445.79899333001</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
+      <c r="J341" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -11782,22 +10937,19 @@
         <v>203.8799</v>
       </c>
       <c r="G342" t="n">
-        <v>-10241.91909333001</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
+      <c r="J342" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -11819,22 +10971,19 @@
         <v>1106.7958</v>
       </c>
       <c r="G343" t="n">
-        <v>-11348.71489333</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
+      <c r="J343" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -11856,22 +11005,19 @@
         <v>1.09989527</v>
       </c>
       <c r="G344" t="n">
-        <v>-11347.61499806001</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
+      <c r="J344" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -11893,22 +11039,19 @@
         <v>59.4293</v>
       </c>
       <c r="G345" t="n">
-        <v>-11407.04429806001</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
+      <c r="J345" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
